--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1399.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1399.xlsx
@@ -9276,10 +9276,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.03832314608491096</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0006924846966608909</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03832314608491096</v>
+        <v>0.08047860677831299</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006924846966608909</v>
+        <v>0.002077454089982673</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04132300027027701</v>
+        <v>0.0640876607051276</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006873912192489649</v>
+        <v>0.001158039691855312</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.07842808250780969</v>
+        <v>0.1086575944932323</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007815162040497076</v>
+        <v>0.001178612816633112</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1056755251940452</v>
+        <v>0.1761033834006955</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006888780117506984</v>
+        <v>0.001087031822163454</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06375381634912326</v>
+        <v>0.08806715205665626</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001467778186703117</v>
+        <v>0.00318532324228375</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.07223580000000003</v>
+        <v>0.1165230194638684</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001305273474683545</v>
+        <v>0.003915820424050635</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1322358</v>
+        <v>0.1826990543197379</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001450303860759494</v>
+        <v>0.003207691536526021</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1922358000000001</v>
+        <v>0.2935056390011592</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001450303860759494</v>
+        <v>0.00355983674913694</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.08047860677831299</v>
+        <v>0.08772299829464501</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002077454089982673</v>
+        <v>0.004777984863425625</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09676454086815121</v>
+        <v>0.1238198120704806</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002062173657746895</v>
+        <v>0.004805698928763333</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1753347321578475</v>
+        <v>0.2050143292325138</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002344548612149123</v>
+        <v>0.004303099367088608</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2392750389690377</v>
+        <v>0.3187136616233761</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002066634035252095</v>
+        <v>0.004800332340699307</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07306581442638772</v>
+        <v>0.09601727593809888</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002935556373406234</v>
+        <v>0.0063706464845675</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1165230194638684</v>
+        <v>0.1358475458853052</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003007895303520292</v>
+        <v>0.006407598571684444</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2050143292325138</v>
+        <v>0.2326940789945855</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003212152330446636</v>
+        <v>0.006415383073052042</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2749756150174913</v>
+        <v>0.3435000185304875</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002755512047002793</v>
+        <v>0.00640044312093241</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.03832314608491096</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.08041512151622617</v>
+        <v>0.1030799785776342</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003669445466757792</v>
+        <v>0.007963308105709376</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.120037594262628</v>
+        <v>0.1448491908533703</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003436956096244824</v>
+        <v>0.008009498214605554</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2133502867828835</v>
+        <v>0.2517442311776895</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003907581020248538</v>
+        <v>0.008019228841315052</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2935056390011592</v>
+        <v>0.3703254629006887</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003163320117406877</v>
+        <v>0.008000553901165513</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09550790377412528</v>
+        <v>0.1030410998038676</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00440333456010935</v>
+        <v>0.00955596972685125</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1260112369998867</v>
+        <v>0.1555060477986903</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00412434731549379</v>
+        <v>0.009611397857526667</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2284229442952871</v>
+        <v>0.2690975363610871</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004689097224298245</v>
+        <v>0.009623074609578064</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3160643517024421</v>
+        <v>0.3943975227942778</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00413326807050419</v>
+        <v>0.009600664681398615</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1023495254264829</v>
+        <v>0.1170306332074155</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005137223653460909</v>
+        <v>0.01114863134799312</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1328413766532209</v>
+        <v>0.1636994175452793</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004811738534742754</v>
+        <v>0.01121329750044778</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2412906060951598</v>
+        <v>0.2856732764030359</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005470613428347953</v>
+        <v>0.01122692037784107</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3308150094114944</v>
+        <v>0.4165237262715529</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004822146082254888</v>
+        <v>0.01120077546163172</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.09794535069969716</v>
+        <v>0.1271785723788942</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005871112746812467</v>
+        <v>0.012741292969135</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1403296003584287</v>
+        <v>0.1724106009171515</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005499129753991719</v>
+        <v>0.01281519714336889</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2551541667530539</v>
+        <v>0.297690733161793</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006252129632397661</v>
+        <v>0.01283076614610408</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3471033846575378</v>
+        <v>0.4366116013928119</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005511024094005587</v>
+        <v>0.01280088624186482</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1003007438201658</v>
+        <v>0.1286149109089204</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006605001840164025</v>
+        <v>0.01433395459027688</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1449774952513083</v>
+        <v>0.1797208987383214</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006186520973240683</v>
+        <v>0.01441709678629</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2672145208395217</v>
+        <v>0.3112691884956161</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007033645836447368</v>
+        <v>0.01443461191436709</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3635305108285412</v>
+        <v>0.4513686762183531</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006199902105756285</v>
+        <v>0.01440099702209792</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1104210690142869</v>
+        <v>0.1204696423881104</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007338890933515583</v>
+        <v>0.01592661621141875</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1505866484676577</v>
+        <v>0.1841116118328029</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.006873912192489648</v>
+        <v>0.01601899642921111</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2773725629251157</v>
+        <v>0.3196279242627626</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007815162040497077</v>
+        <v>0.0160384576826301</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3791974213124735</v>
+        <v>0.4674024788084744</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006888780117506983</v>
+        <v>0.01600110780233103</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1103116905084583</v>
+        <v>0.1298727604070807</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008072780026867142</v>
+        <v>0.01751927783256062</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1571586471432749</v>
+        <v>0.1889640410246105</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007561303411738613</v>
+        <v>0.01762089607213222</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.287529187580388</v>
+        <v>0.3319862223214901</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008596678244546784</v>
+        <v>0.01764230345089312</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3942051494973029</v>
+        <v>0.4801205372234739</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007577658129257681</v>
+        <v>0.01760121858256413</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1089779725290779</v>
+        <v>0.1309542585564477</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008806669120218701</v>
+        <v>0.0191119394537025</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1627950784139582</v>
+        <v>0.1933594871377582</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008248694630987579</v>
+        <v>0.01922279571505333</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2970852893758912</v>
+        <v>0.3401633645300559</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009378194448596491</v>
+        <v>0.01924614921915613</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4035547287709987</v>
+        <v>0.4900303795236498</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00826653614100838</v>
+        <v>0.01920132936279723</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1234252793025438</v>
+        <v>0.127844130426828</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00954055821357026</v>
+        <v>0.02070460107484438</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1689975294155055</v>
+        <v>0.1973792509962606</v>
       </c>
       <c r="K78" t="n">
-        <v>0.008936085850236544</v>
+        <v>0.02082469535797444</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3084417628821776</v>
+        <v>0.3485786327467174</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0101597106526462</v>
+        <v>0.02084999498741914</v>
       </c>
       <c r="N78" t="n">
-        <v>0.4217471925215295</v>
+        <v>0.5032395337692999</v>
       </c>
       <c r="O78" t="n">
-        <v>0.008955414152759078</v>
+        <v>0.02080144014303033</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1226589750552539</v>
+        <v>0.1296723696088379</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01027444730692182</v>
+        <v>0.02229726269598625</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1729675872837149</v>
+        <v>0.2028046334241316</v>
       </c>
       <c r="K79" t="n">
-        <v>0.009623477069485508</v>
+        <v>0.02242659500089556</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3146995026697995</v>
+        <v>0.3537513088297323</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01094122685669591</v>
+        <v>0.02245384075568215</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4319835741368637</v>
+        <v>0.5096555280207226</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009644292164509776</v>
+        <v>0.02240155092326343</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.118684424013606</v>
+        <v>0.1285451566183218</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01100833640027338</v>
+        <v>0.02388992431712813</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1778068391543845</v>
+        <v>0.2053169352453856</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01031086828873447</v>
+        <v>0.02402849464381667</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3248594033093093</v>
+        <v>0.3589006746373578</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01172274306074561</v>
+        <v>0.02405768652394516</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4453649070049703</v>
+        <v>0.5194858903382157</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01033317017626048</v>
+        <v>0.02400166170349654</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1245069904039982</v>
+        <v>0.1313915691238565</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01174222549362493</v>
+        <v>0.02548258593827</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1811168721633125</v>
+        <v>0.2088167536169395</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01099825950798344</v>
+        <v>0.02563039428673778</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3329223593712594</v>
+        <v>0.3631563002224147</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01250425926479532</v>
+        <v>0.02566153229220817</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4544922245138179</v>
+        <v>0.5245379964971647</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01102204818801117</v>
+        <v>0.02560177248372964</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1271320384528283</v>
+        <v>0.1451804301102143</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01247611458697649</v>
+        <v>0.02707524755941188</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1875992734462969</v>
+        <v>0.2106100129227119</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0116856507272324</v>
+        <v>0.02723229392965889</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3418892654262022</v>
+        <v>0.3706291397908631</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01328577546884503</v>
+        <v>0.02726537806047118</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4636665600513754</v>
+        <v>0.5297751253472945</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01171092619976187</v>
+        <v>0.02720188326396274</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1275649323864944</v>
+        <v>0.1479001447269366</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01321000368032805</v>
+        <v>0.02866790918055375</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1899556301391356</v>
+        <v>0.2127199207202156</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01237304194648137</v>
+        <v>0.02883419357258</v>
       </c>
       <c r="L83" t="n">
-        <v>0.34826101604469</v>
+        <v>0.3761616329067317</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01406729167289474</v>
+        <v>0.02886922382873419</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4782889470056112</v>
+        <v>0.5387940464578337</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01239980421151257</v>
+        <v>0.02880199404419585</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1278110364313943</v>
+        <v>0.1375391181235651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01394389277367961</v>
+        <v>0.03026057080169563</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1954875293776271</v>
+        <v>0.216429395281473</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01306043316573033</v>
+        <v>0.03043609321550111</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3573385057972753</v>
+        <v>0.3800236157610135</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01484880787694445</v>
+        <v>0.0304730695969972</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4841604187644943</v>
+        <v>0.5433518772631635</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01308868222326327</v>
+        <v>0.03040210482442895</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.133875714813926</v>
+        <v>0.1510857554496411</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01467778186703117</v>
+        <v>0.0318532324228375</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1972965582975691</v>
+        <v>0.218421354878507</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0137478243849793</v>
+        <v>0.03203799285842222</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3635226292545102</v>
+        <v>0.3821849245447019</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01563032408099415</v>
+        <v>0.03207691536526021</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4981820087159934</v>
+        <v>0.5486057351976649</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01377756023501397</v>
+        <v>0.03200221560466205</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1327643317604874</v>
+        <v>0.1525284618547065</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01541167096038273</v>
+        <v>0.03344589404397937</v>
       </c>
       <c r="J86" t="n">
-        <v>0.20048430403476</v>
+        <v>0.22027871778334</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01443521560422826</v>
+        <v>0.03363989250134333</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3690142809869474</v>
+        <v>0.3861153954487905</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01641184028504386</v>
+        <v>0.03368076113352322</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5054547502480771</v>
+        <v>0.5583127376957194</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01446643824676466</v>
+        <v>0.03360232638489515</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1474822514974765</v>
+        <v>0.1528556424883026</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01614556005373428</v>
+        <v>0.03503855566512125</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2042523537249976</v>
+        <v>0.2228844022679948</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01512260682347723</v>
+        <v>0.03524179214426444</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3717143555651389</v>
+        <v>0.3905848646642728</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01719335648909357</v>
+        <v>0.03528460690178623</v>
       </c>
       <c r="N87" t="n">
-        <v>0.5109796767487141</v>
+        <v>0.5631300021917084</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01515531625851536</v>
+        <v>0.03520243716512825</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1360348382512911</v>
+        <v>0.151055702499971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01687944914708584</v>
+        <v>0.03663121728626312</v>
       </c>
       <c r="J88" t="n">
-        <v>0.20710229450408</v>
+        <v>0.2240213266044939</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01580999804272619</v>
+        <v>0.03684369178718555</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3755237475596374</v>
+        <v>0.3936631683821419</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01797487269314327</v>
+        <v>0.03688845267004924</v>
       </c>
       <c r="N88" t="n">
-        <v>0.5204578216058735</v>
+        <v>0.5662146461200129</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01584419427026606</v>
+        <v>0.03680254794536136</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1364274562483294</v>
+        <v>0.1471170470392532</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0176133382404374</v>
+        <v>0.038223878907405</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2107357135078056</v>
+        <v>0.2260724090648599</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01649738926197516</v>
+        <v>0.03844559143010667</v>
       </c>
       <c r="L89" t="n">
-        <v>0.380543351540995</v>
+        <v>0.3969201427933917</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01875638889719298</v>
+        <v>0.03849229843831226</v>
       </c>
       <c r="N89" t="n">
-        <v>0.5258902182075237</v>
+        <v>0.5701237869150143</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01653307228201676</v>
+        <v>0.03840265872559446</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.144665469714989</v>
+        <v>0.1580280812556909</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01834722733378896</v>
+        <v>0.03981654052854688</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2122541978719721</v>
+        <v>0.2281205679211154</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01718478048122412</v>
+        <v>0.04004749107302778</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3863740620797644</v>
+        <v>0.4005256240890153</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01953790510124269</v>
+        <v>0.04009614420657526</v>
       </c>
       <c r="N90" t="n">
-        <v>0.5337778999416333</v>
+        <v>0.5727145420110936</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01722195029376746</v>
+        <v>0.04000276950582756</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1517542428776682</v>
+        <v>0.1537772102988255</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01908111642714052</v>
+        <v>0.04140920214968875</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2156593347323779</v>
+        <v>0.2294487214452831</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01787217170047309</v>
+        <v>0.04164939071594888</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3904167737464974</v>
+        <v>0.4037494484600062</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0203194213052924</v>
+        <v>0.04169998997483828</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5415219001961711</v>
+        <v>0.5794440288426325</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01791082830551816</v>
+        <v>0.04160288028606066</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1516991399627647</v>
+        <v>0.1453528393181985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01981500552049208</v>
+        <v>0.04300186377083063</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2169527112248208</v>
+        <v>0.2313397879093856</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01855956291972205</v>
+        <v>0.04325129035887</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3922723811117469</v>
+        <v>0.4041614520973579</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0211009375093421</v>
+        <v>0.04330383574310128</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5486232523591063</v>
+        <v>0.5792693648440118</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01859970631726885</v>
+        <v>0.04320299106629377</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1465055251966764</v>
+        <v>0.1587433734633517</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02054889461384364</v>
+        <v>0.0445945253919725</v>
       </c>
       <c r="J93" t="n">
-        <v>0.218235914485099</v>
+        <v>0.2301766855854454</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01924695413897102</v>
+        <v>0.04485319000179111</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3922417787460651</v>
+        <v>0.4061314711920637</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02188245371339181</v>
+        <v>0.0449076815113643</v>
       </c>
       <c r="N93" t="n">
-        <v>0.5516829898184067</v>
+        <v>0.5836476674496132</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01928858432901955</v>
+        <v>0.04480310184652687</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1421787628058014</v>
+        <v>0.160957213556626</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02128278370719519</v>
+        <v>0.04618718701311438</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2202105316490107</v>
+        <v>0.2317423327454852</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01993434535821998</v>
+        <v>0.04645508964471222</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3949258612200044</v>
+        <v>0.4070293419351171</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02266396991744152</v>
+        <v>0.0465115272796273</v>
       </c>
       <c r="N94" t="n">
-        <v>0.5530021459620418</v>
+        <v>0.5870112780023184</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01997746234077025</v>
+        <v>0.04640321262675997</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1447242170165376</v>
+        <v>0.1499406905565548</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02201667280054675</v>
+        <v>0.04777984863425625</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2221781498523538</v>
+        <v>0.2330460389277367</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02062173657746895</v>
+        <v>0.04805698928763334</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3962255231041171</v>
+        <v>0.4100286584650276</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02344548612149123</v>
+        <v>0.04811537304789032</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5615817541779801</v>
+        <v>0.5816916422110061</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02066634035252095</v>
+        <v>0.04800332340699307</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1441472520552828</v>
+        <v>0.1588330266989806</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02275056189389831</v>
+        <v>0.04937251025539813</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2232403562309266</v>
+        <v>0.2324199184955094</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02130912779671791</v>
+        <v>0.04965888893055444</v>
       </c>
       <c r="L96" t="n">
-        <v>0.4001416589689556</v>
+        <v>0.4074090091795038</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02422700232554094</v>
+        <v>0.04971921881615332</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5620228478541901</v>
+        <v>0.586597175152061</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02135521836427165</v>
+        <v>0.04960343418722618</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1554532321484353</v>
+        <v>0.1566303708280454</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02348445098724987</v>
+        <v>0.05096517187654</v>
       </c>
       <c r="J97" t="n">
-        <v>0.225498737920527</v>
+        <v>0.2316590777746985</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02199651901596688</v>
+        <v>0.05126078857347555</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3989751633850722</v>
+        <v>0.4061773960895285</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02500851852959064</v>
+        <v>0.05132306458441634</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5637264603786412</v>
+        <v>0.5806254180086911</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02204409637602235</v>
+        <v>0.05120354496745928</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1566475215223925</v>
+        <v>0.1443388337643175</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02421834008060143</v>
+        <v>0.05255783349768188</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2258548820569532</v>
+        <v>0.2315593807743498</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02268391023521584</v>
+        <v>0.05286268821639667</v>
       </c>
       <c r="L98" t="n">
-        <v>0.4008290259771329</v>
+        <v>0.4073976594398057</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02579003473364035</v>
+        <v>0.05292691035267935</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5646936251393011</v>
+        <v>0.5807089009852686</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02273297438777304</v>
+        <v>0.05280365574769239</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1497354844035528</v>
+        <v>0.1499645263283657</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02495222917395298</v>
+        <v>0.05415049511882376</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2257103757760031</v>
+        <v>0.2313298300577173</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0233713014544648</v>
+        <v>0.05446458785931777</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3974317527489964</v>
+        <v>0.4047856964275581</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02657155093769006</v>
+        <v>0.05453075612094236</v>
       </c>
       <c r="N99" t="n">
-        <v>0.5694253755241392</v>
+        <v>0.5832702244305399</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02342185239952374</v>
+        <v>0.05440376652792549</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1467167734618673</v>
+        <v>0.1555135593407583</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02568611826730454</v>
+        <v>0.05574315673996563</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2268668062134749</v>
+        <v>0.2306794281880545</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02405869267371377</v>
+        <v>0.05606648750223889</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3958285137610373</v>
+        <v>0.4073574042500079</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02735306714173977</v>
+        <v>0.05613460188920536</v>
       </c>
       <c r="N100" t="n">
-        <v>0.5684227449211243</v>
+        <v>0.5775319886932502</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02411073041127444</v>
+        <v>0.05600387730815859</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1565782752827353</v>
+        <v>0.1559920436220641</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0264200073606561</v>
+        <v>0.05733581836110751</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2262257605051669</v>
+        <v>0.2308171777286156</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02474608389296273</v>
+        <v>0.05766838714516</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3962647359832328</v>
+        <v>0.4034286801043778</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02813458334578947</v>
+        <v>0.05773844765746838</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5682867667182246</v>
+        <v>0.5797167941221453</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02479960842302514</v>
+        <v>0.05760398808839169</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1523285535334937</v>
+        <v>0.1434060899928516</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02715389645400766</v>
+        <v>0.05892847998224938</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2274884673233539</v>
+        <v>0.228152081242654</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0254334751122117</v>
+        <v>0.05927028678808111</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3945858463855601</v>
+        <v>0.4018154211878901</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02891609954983918</v>
+        <v>0.05934229342573139</v>
       </c>
       <c r="N102" t="n">
-        <v>0.5724235423729478</v>
+        <v>0.577547241065971</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02548848643477584</v>
+        <v>0.05920409886862479</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1469781909308492</v>
+        <v>0.1517618092736893</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02788778554735922</v>
+        <v>0.06052114160339126</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2273456399164575</v>
+        <v>0.2288931412934238</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02612086633146066</v>
+        <v>0.06087218643100221</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3933372719379964</v>
+        <v>0.4034335246977676</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02969761575388889</v>
+        <v>0.06094613919399441</v>
       </c>
       <c r="N103" t="n">
-        <v>0.5686502962678125</v>
+        <v>0.577145929873473</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02617736444652654</v>
+        <v>0.0608042096488579</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1425377701915082</v>
+        <v>0.1440653122851457</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02862167464071078</v>
+        <v>0.06211380322453314</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2275062759382112</v>
+        <v>0.2273493604441785</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02680825755070963</v>
+        <v>0.06247408607392333</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3886644396105187</v>
+        <v>0.4005988878312324</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0304791319579386</v>
+        <v>0.0625499849622574</v>
       </c>
       <c r="N104" t="n">
-        <v>0.5675353706915532</v>
+        <v>0.573735460893397</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02686624245827724</v>
+        <v>0.062404320429091</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1500178740321772</v>
+        <v>0.1463227098477894</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02935556373406233</v>
+        <v>0.06370646484567501</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2258890948815012</v>
+        <v>0.2270297412581723</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02749564876995859</v>
+        <v>0.06407598571684443</v>
       </c>
       <c r="L105" t="n">
-        <v>0.3887127763731046</v>
+        <v>0.3985274077855072</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03126064816198831</v>
+        <v>0.06415383073052042</v>
       </c>
       <c r="N105" t="n">
-        <v>0.5715049689056338</v>
+        <v>0.5707384344744886</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02755512047002793</v>
+        <v>0.0640044312093241</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1464290851695627</v>
+        <v>0.1525401127821891</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0300894528274139</v>
+        <v>0.06529912646681688</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2244128162392143</v>
+        <v>0.2260432862986588</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02818303998920756</v>
+        <v>0.06567788535976556</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3871277091957311</v>
+        <v>0.3950349817578144</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03204216436603801</v>
+        <v>0.06575767649878343</v>
       </c>
       <c r="N106" t="n">
-        <v>0.5662852941715179</v>
+        <v>0.5658774509654937</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02824399848177863</v>
+        <v>0.0656045419895572</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1387819863203711</v>
+        <v>0.1497236319089131</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03082334192076545</v>
+        <v>0.06689178808795875</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2251961595042368</v>
+        <v>0.2233989981288916</v>
       </c>
       <c r="K107" t="n">
-        <v>0.02887043120845652</v>
+        <v>0.06727978500268667</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3855546650483752</v>
+        <v>0.3928375069453766</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03282368057008772</v>
+        <v>0.06736152226704645</v>
       </c>
       <c r="N107" t="n">
-        <v>0.5647025497506686</v>
+        <v>0.5619751107151577</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02893287649352933</v>
+        <v>0.0672046527697903</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1460871602013091</v>
+        <v>0.1438793780485302</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03155723101411701</v>
+        <v>0.06848444970910063</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2234578441694554</v>
+        <v>0.2218058793121249</v>
       </c>
       <c r="K108" t="n">
-        <v>0.02955782242770549</v>
+        <v>0.06888168464560777</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3820390709010141</v>
+        <v>0.3930508805454163</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03360519677413742</v>
+        <v>0.06896536803530946</v>
       </c>
       <c r="N108" t="n">
-        <v>0.5665829389045495</v>
+        <v>0.5591540140722265</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02962175450528003</v>
+        <v>0.06880476355002341</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.141355189529083</v>
+        <v>0.1510134620216088</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03229112010746857</v>
+        <v>0.0700771113302425</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2235165897277565</v>
+        <v>0.2224729324116123</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03024521364695445</v>
+        <v>0.07048358428852888</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3778263537236253</v>
+        <v>0.3919909997551559</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03438671297818714</v>
+        <v>0.07056921380357246</v>
       </c>
       <c r="N109" t="n">
-        <v>0.5613526648946242</v>
+        <v>0.5553367613854459</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03031063251703072</v>
+        <v>0.07040487433025651</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1465966570203994</v>
+        <v>0.1501319946487174</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03302500920082013</v>
+        <v>0.07166977295138438</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2202911156720266</v>
+        <v>0.2203091599906076</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03093260486620342</v>
+        <v>0.07208548393145001</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3772619404861858</v>
+        <v>0.3899737617718178</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03516822918223685</v>
+        <v>0.07217305957183547</v>
       </c>
       <c r="N110" t="n">
-        <v>0.5622379309823561</v>
+        <v>0.5531459530035614</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03099951052878143</v>
+        <v>0.07200498511048962</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1488221453919648</v>
+        <v>0.1462410867504246</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03375889829417169</v>
+        <v>0.07326243457252625</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2195001414951522</v>
+        <v>0.2197235646123646</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03161999608545239</v>
+        <v>0.0736873835743711</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3727912581586728</v>
+        <v>0.3863150637926246</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03594974538628655</v>
+        <v>0.07377690534009848</v>
       </c>
       <c r="N111" t="n">
-        <v>0.5558649404292085</v>
+        <v>0.5534041892753191</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03168838854053212</v>
+        <v>0.07360509589072273</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1430422373604855</v>
+        <v>0.1353468491472991</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03449278738752324</v>
+        <v>0.07485509619366813</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2179623866900199</v>
+        <v>0.2182251488401373</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03230738730470135</v>
+        <v>0.07528928321729222</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3704597337110636</v>
+        <v>0.3821308030147988</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03673126159033626</v>
+        <v>0.0753807511083615</v>
       </c>
       <c r="N112" t="n">
-        <v>0.5577598964966453</v>
+        <v>0.547934070549464</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03237726655228282</v>
+        <v>0.07520520667095583</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1372675156426683</v>
+        <v>0.1384553926599094</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0352266764808748</v>
+        <v>0.07644775781481</v>
       </c>
       <c r="J113" t="n">
-        <v>0.216896570749516</v>
+        <v>0.2159229152371792</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03299477852395032</v>
+        <v>0.07689118286021333</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3714127941133352</v>
+        <v>0.3802368766355628</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03751277779438596</v>
+        <v>0.07698459687662451</v>
       </c>
       <c r="N113" t="n">
-        <v>0.5537490024461296</v>
+        <v>0.5457581971747425</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03306614456403352</v>
+        <v>0.07680531745118892</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1455085629552194</v>
+        <v>0.1465728281088238</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03596056557422636</v>
+        <v>0.07804041943595189</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2157214131665274</v>
+        <v>0.2157258663667442</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03368216974319928</v>
+        <v>0.07849308250313444</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3681958663354649</v>
+        <v>0.3773491818521392</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03829429399843567</v>
+        <v>0.07858844264488751</v>
       </c>
       <c r="N114" t="n">
-        <v>0.5529584615391252</v>
+        <v>0.5424991694999</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03375502257578421</v>
+        <v>0.07840542823142202</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1357759620148455</v>
+        <v>0.1466541216612144</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03669445466757792</v>
+        <v>0.07963308105709375</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2140556334339401</v>
+        <v>0.2129430047920863</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03436956096244824</v>
+        <v>0.08009498214605555</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3643543773474298</v>
+        <v>0.3765836158617503</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03907581020248539</v>
+        <v>0.08019228841315053</v>
       </c>
       <c r="N115" t="n">
-        <v>0.5506144770370953</v>
+        <v>0.538876139178704</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03444390058753492</v>
+        <v>0.08000553901165512</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1350802955382531</v>
+        <v>0.1336092852684984</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03742834376092948</v>
+        <v>0.08122574267823564</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2130179510446409</v>
+        <v>0.2125813853751563</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03505695218169721</v>
+        <v>0.08169688178897667</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3648337541192072</v>
+        <v>0.372638059164203</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03985732640653509</v>
+        <v>0.08179613418141354</v>
       </c>
       <c r="N116" t="n">
-        <v>0.5459432522015035</v>
+        <v>0.5356689060275703</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03513277859928561</v>
+        <v>0.08160564979188822</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1364321462421485</v>
+        <v>0.1384551520863972</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03816223285428104</v>
+        <v>0.08281840429937751</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2120270854915164</v>
+        <v>0.209835049001052</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03574434340094618</v>
+        <v>0.08329878143189777</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3632794236207743</v>
+        <v>0.3725687227193636</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04063884261058479</v>
+        <v>0.08339997994967656</v>
       </c>
       <c r="N117" t="n">
-        <v>0.5403709902938133</v>
+        <v>0.5303085956214785</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03582165661103631</v>
+        <v>0.08320576057212133</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1448420968432383</v>
+        <v>0.1422116318987817</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0388961219476326</v>
+        <v>0.08441106592051939</v>
       </c>
       <c r="J118" t="n">
-        <v>0.212301756267453</v>
+        <v>0.2099329202885082</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03643173462019513</v>
+        <v>0.08490068107481889</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3622368128221082</v>
+        <v>0.3677153750812849</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0414203588146345</v>
+        <v>0.08500382571793956</v>
       </c>
       <c r="N118" t="n">
-        <v>0.5431238945754883</v>
+        <v>0.5253688425981798</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03651053462278701</v>
+        <v>0.08480587135235443</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1393207300582291</v>
+        <v>0.1278986344895224</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03963001104098415</v>
+        <v>0.08600372754166126</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2097606828653371</v>
+        <v>0.2081043306647294</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0371191258394441</v>
+        <v>0.08650258071774</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3651374204553329</v>
+        <v>0.3664298112187925</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04220187501868421</v>
+        <v>0.08660767148620256</v>
       </c>
       <c r="N119" t="n">
-        <v>0.5383281683079917</v>
+        <v>0.5244232815954256</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03719941263453771</v>
+        <v>0.08640598213258753</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1418786286038272</v>
+        <v>0.12653606964249</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04036390013433571</v>
+        <v>0.08759638916280314</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2086225847780553</v>
+        <v>0.2047786115569198</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03780651705869307</v>
+        <v>0.08810448036066111</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3642220926417848</v>
+        <v>0.3624638261007125</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04298339122273392</v>
+        <v>0.08821151725446558</v>
       </c>
       <c r="N120" t="n">
-        <v>0.5346100147527871</v>
+        <v>0.5145455472509672</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03788829064628841</v>
+        <v>0.08800609291282063</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1325263751967393</v>
+        <v>0.1321438471415551</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04109778922768727</v>
+        <v>0.089189050783945</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2090061814984941</v>
+        <v>0.2036850943922838</v>
       </c>
       <c r="K121" t="n">
-        <v>0.03849390827794203</v>
+        <v>0.08970638000358222</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3659524745170155</v>
+        <v>0.3574692146958707</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04376490742678363</v>
+        <v>0.08981536302272859</v>
       </c>
       <c r="N121" t="n">
-        <v>0.5299956371713382</v>
+        <v>0.5138092742025557</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0385771686580391</v>
+        <v>0.08960620369305373</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1302745525536717</v>
+        <v>0.1377418767705884</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04183167832103882</v>
+        <v>0.09078171240508688</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2070301925195401</v>
+        <v>0.2012531105980256</v>
       </c>
       <c r="K122" t="n">
-        <v>0.039181299497191</v>
+        <v>0.09130827964650334</v>
       </c>
       <c r="L122" t="n">
-        <v>0.366098671271507</v>
+        <v>0.3548977719730932</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04454642363083333</v>
+        <v>0.09141920879099161</v>
       </c>
       <c r="N122" t="n">
-        <v>0.5318112388251083</v>
+        <v>0.5080880970879427</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03926604666978981</v>
+        <v>0.09120631447328684</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1291337433913309</v>
+        <v>0.1273500683134605</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04256556741439038</v>
+        <v>0.09237437402622875</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2083133373340796</v>
+        <v>0.1998119916013497</v>
       </c>
       <c r="K123" t="n">
-        <v>0.03986869071643996</v>
+        <v>0.09291017928942444</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3679307880957423</v>
+        <v>0.3499012929012055</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04532793983488304</v>
+        <v>0.09302305455925461</v>
       </c>
       <c r="N123" t="n">
-        <v>0.5269830229755609</v>
+        <v>0.504155650544879</v>
       </c>
       <c r="O123" t="n">
-        <v>0.03995492468154051</v>
+        <v>0.09280642525351994</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1301134111895093</v>
+        <v>0.1249883315540422</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04329945650774195</v>
+        <v>0.09396703564737063</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2070743354349993</v>
+        <v>0.1961910688294601</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04055608193568892</v>
+        <v>0.09451207893234556</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3677189301802032</v>
+        <v>0.3482315724490336</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04610945603893275</v>
+        <v>0.09462690032751762</v>
       </c>
       <c r="N124" t="n">
-        <v>0.5239371928841593</v>
+        <v>0.4940855692111161</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0406438026932912</v>
+        <v>0.09440653603375304</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1322051575227536</v>
+        <v>0.130676576276204</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0440333456010935</v>
+        <v>0.0955596972685125</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2061319063151856</v>
+        <v>0.1950196737095614</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04124347315493789</v>
+        <v>0.09611397857526667</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3690332027153726</v>
+        <v>0.3426404055854037</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04689097224298246</v>
+        <v>0.09623074609578064</v>
       </c>
       <c r="N125" t="n">
-        <v>0.5256999518123673</v>
+        <v>0.4918514877244053</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0413326807050419</v>
+        <v>0.09600664681398614</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.130398938733596</v>
+        <v>0.1204134901566504</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04476723469444506</v>
+        <v>0.09715235888965439</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2074834503651739</v>
+        <v>0.1933271376688578</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04193086437418686</v>
+        <v>0.09771587821818778</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3728437108917325</v>
+        <v>0.3403795872791415</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04767248844703216</v>
+        <v>0.09783459186404364</v>
       </c>
       <c r="N126" t="n">
-        <v>0.521197503021648</v>
+        <v>0.4895270407224978</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0420215587167926</v>
+        <v>0.09760675759421926</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1376874303979508</v>
+        <v>0.1310544278398269</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04550112378779662</v>
+        <v>0.09874502051079626</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2072909400831625</v>
+        <v>0.1918763523285189</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04261825559343582</v>
+        <v>0.09931777786110889</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3742205598997657</v>
+        <v>0.3378370313656631</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04845400465108187</v>
+        <v>0.09943843763230664</v>
       </c>
       <c r="N127" t="n">
-        <v>0.5201560497734654</v>
+        <v>0.4830288758853275</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0427104367285433</v>
+        <v>0.09920686837445236</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1420633080917325</v>
+        <v>0.119591543630619</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04623501288114818</v>
+        <v>0.1003376821319381</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2072427228538976</v>
+        <v>0.1886622977789187</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04330564681268478</v>
+        <v>0.10091967750403</v>
       </c>
       <c r="L128" t="n">
-        <v>0.3768338549299543</v>
+        <v>0.333238140074377</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04923552085513158</v>
+        <v>0.1010422834005697</v>
       </c>
       <c r="N128" t="n">
-        <v>0.5183017953292827</v>
+        <v>0.4793996353408255</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04339931474029399</v>
+        <v>0.1008069791546855</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1335192473908554</v>
+        <v>0.1150533383904701</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04696890197449974</v>
+        <v>0.10193034375308</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2092279512449674</v>
+        <v>0.1876049877711443</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04399303803193375</v>
+        <v>0.1025215771469511</v>
       </c>
       <c r="L129" t="n">
-        <v>0.378753701172781</v>
+        <v>0.330974352129782</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05001703705918129</v>
+        <v>0.1026461291688327</v>
       </c>
       <c r="N129" t="n">
-        <v>0.5193609429505632</v>
+        <v>0.4738263857702086</v>
       </c>
       <c r="O129" t="n">
-        <v>0.0440881927520447</v>
+        <v>0.1024070899349186</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.138047923871234</v>
+        <v>0.1124683129808238</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0477027910678513</v>
+        <v>0.1035230053742219</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2080357778239599</v>
+        <v>0.1856464102518316</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04468042925118271</v>
+        <v>0.1041234767898722</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3825502038187281</v>
+        <v>0.3269198120449257</v>
       </c>
       <c r="M130" t="n">
-        <v>0.050798553263231</v>
+        <v>0.1042499749370957</v>
       </c>
       <c r="N130" t="n">
-        <v>0.5219596958987709</v>
+        <v>0.464714535178989</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04477707076379539</v>
+        <v>0.1040072007151517</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1446420131087827</v>
+        <v>0.1218649682631234</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04843668016120286</v>
+        <v>0.1051156669953638</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2092553551584635</v>
+        <v>0.1822285531676159</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04536782047043168</v>
+        <v>0.1057253764327933</v>
       </c>
       <c r="L131" t="n">
-        <v>0.383393468058278</v>
+        <v>0.3205486643328559</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0515800694672807</v>
+        <v>0.1058538207053587</v>
       </c>
       <c r="N131" t="n">
-        <v>0.5214890941408468</v>
+        <v>0.458769491572679</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04546594877554608</v>
+        <v>0.1056073114953848</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1382941906794158</v>
+        <v>0.1162718050988123</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04917056925455441</v>
+        <v>0.1067083286165056</v>
       </c>
       <c r="J132" t="n">
-        <v>0.210475835816066</v>
+        <v>0.1812934044651331</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04605521168968064</v>
+        <v>0.1073272760757144</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3856535990819129</v>
+        <v>0.3171350535066206</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05236158567133041</v>
+        <v>0.1074576664736217</v>
       </c>
       <c r="N132" t="n">
-        <v>0.5214458225037121</v>
+        <v>0.4548966629567911</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04615482678729679</v>
+        <v>0.1072074222756179</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1349971321590479</v>
+        <v>0.1127173243493341</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04990445834790597</v>
+        <v>0.1083009902376475</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2107863723643556</v>
+        <v>0.1774829520910189</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04674260290892961</v>
+        <v>0.1089291757186355</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3896007020801157</v>
+        <v>0.3162531240792668</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05314310187538012</v>
+        <v>0.1090615122418847</v>
       </c>
       <c r="N133" t="n">
-        <v>0.5224896944653603</v>
+        <v>0.4502014573368373</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04684370479904748</v>
+        <v>0.108807533055851</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1377435131235932</v>
+        <v>0.1142300268761322</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05063834744125752</v>
+        <v>0.1098936518587894</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2120761173709205</v>
+        <v>0.1754391839919089</v>
       </c>
       <c r="K134" t="n">
-        <v>0.04742999412817858</v>
+        <v>0.1105310753615567</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3927048822433685</v>
+        <v>0.3088770205638428</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05392461807942982</v>
+        <v>0.1106653580101477</v>
       </c>
       <c r="N134" t="n">
-        <v>0.5242630419093471</v>
+        <v>0.44328928271833</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04753258281079818</v>
+        <v>0.1104076438360841</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1425260091489663</v>
+        <v>0.1068384135406499</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05137223653460909</v>
+        <v>0.1114863134799313</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2125342234033487</v>
+        <v>0.1727040881144387</v>
       </c>
       <c r="K135" t="n">
-        <v>0.04811738534742754</v>
+        <v>0.1121329750044778</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3953362447621537</v>
+        <v>0.3050808874733955</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05470613428347953</v>
+        <v>0.1122692037784107</v>
       </c>
       <c r="N135" t="n">
-        <v>0.5290081967192275</v>
+        <v>0.4358655471067814</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04822146082254888</v>
+        <v>0.1120077546163172</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1483372958110815</v>
+        <v>0.1105709852043308</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05210612562796064</v>
+        <v>0.1130789751010731</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2135498430292284</v>
+        <v>0.170919652405244</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0488047765666765</v>
+        <v>0.1137348746473989</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3960648948269539</v>
+        <v>0.3049388693209734</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05548765048752924</v>
+        <v>0.1138730495466737</v>
       </c>
       <c r="N136" t="n">
-        <v>0.5313674907785566</v>
+        <v>0.4303356585077042</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04891033883429958</v>
+        <v>0.1136078653965503</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1431700486858532</v>
+        <v>0.1154562427286182</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0528400147213122</v>
+        <v>0.114671636722215</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2150121288161477</v>
+        <v>0.1708278648109605</v>
       </c>
       <c r="K137" t="n">
-        <v>0.04949216778592547</v>
+        <v>0.11533677429032</v>
       </c>
       <c r="L137" t="n">
-        <v>0.4002609376282514</v>
+        <v>0.3011251106196235</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05626916669157894</v>
+        <v>0.1154768953149368</v>
       </c>
       <c r="N137" t="n">
-        <v>0.5335832559708896</v>
+        <v>0.4296050249266103</v>
       </c>
       <c r="O137" t="n">
-        <v>0.04959921684605028</v>
+        <v>0.1152079761767834</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1380169433491958</v>
+        <v>0.1085226869749557</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05357390381466377</v>
+        <v>0.1162642983433569</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2156102333316947</v>
+        <v>0.1678707132782238</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05017955900517444</v>
+        <v>0.1169386739332411</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4000944783565287</v>
+        <v>0.2978137558823939</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05705068289562865</v>
+        <v>0.1170807410831998</v>
       </c>
       <c r="N138" t="n">
-        <v>0.538397824179782</v>
+        <v>0.4212790543690124</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05028809485780097</v>
+        <v>0.1168080869570165</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1448706553770238</v>
+        <v>0.1007988188047866</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05430779290801532</v>
+        <v>0.1178569599644988</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2190333091434574</v>
+        <v>0.1669901857536696</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0508669502244234</v>
+        <v>0.1185405735761622</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4044356222022682</v>
+        <v>0.2926789496223322</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05783219909967836</v>
+        <v>0.1186845868514628</v>
       </c>
       <c r="N139" t="n">
-        <v>0.5420535272887884</v>
+        <v>0.4235631548404224</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05097697286955168</v>
+        <v>0.1184081977372496</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1477238603452514</v>
+        <v>0.1133131390795543</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05504168200136688</v>
+        <v>0.1194496215856406</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2186705088190241</v>
+        <v>0.1663282701839336</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05155434144367237</v>
+        <v>0.1201424732190833</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4064544743559521</v>
+        <v>0.2915948363524859</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05861371530372807</v>
+        <v>0.1202884326197258</v>
       </c>
       <c r="N140" t="n">
-        <v>0.5424926971814645</v>
+        <v>0.4207627343463527</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05166585088130237</v>
+        <v>0.1200083085174827</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1485692338297933</v>
+        <v>0.1080941486607024</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05577557109471844</v>
+        <v>0.1210422832067825</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2193109849259828</v>
+        <v>0.1661269545156514</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05224173266292133</v>
+        <v>0.1217443728620044</v>
       </c>
       <c r="L141" t="n">
-        <v>0.4074211400080631</v>
+        <v>0.2934355605859028</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05939523150777778</v>
+        <v>0.1218922783879888</v>
       </c>
       <c r="N141" t="n">
-        <v>0.5467576657413653</v>
+        <v>0.4180832008923157</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05235472889305307</v>
+        <v>0.1216084192977158</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1533994514065637</v>
+        <v>0.1060965084680677</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05650946018806999</v>
+        <v>0.1226349448279244</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2225438900319218</v>
+        <v>0.1653279627916631</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05292912388217029</v>
+        <v>0.1233462725049256</v>
       </c>
       <c r="L142" t="n">
-        <v>0.4071057243490835</v>
+        <v>0.2913752668356304</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06017674771182749</v>
+        <v>0.1234961241562518</v>
       </c>
       <c r="N142" t="n">
-        <v>0.553190764852046</v>
+        <v>0.4194155077227587</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05304360690480377</v>
+        <v>0.1232085300779489</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.152207188651477</v>
+        <v>0.1011497144864162</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05724334928142155</v>
+        <v>0.1242276064490663</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2226583767044288</v>
+        <v>0.1653620993191858</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05361651510141925</v>
+        <v>0.1249481721478467</v>
       </c>
       <c r="L143" t="n">
-        <v>0.4083783325694959</v>
+        <v>0.2912148987943674</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0609582639158772</v>
+        <v>0.1250999699245148</v>
       </c>
       <c r="N143" t="n">
-        <v>0.553934326397062</v>
+        <v>0.4178228131872984</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05373248491655448</v>
+        <v>0.124808640858182</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1529851211404478</v>
+        <v>0.1052433691735661</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05797723837477312</v>
+        <v>0.1258202680702081</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2244435975110924</v>
+        <v>0.165057634738996</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05430390632066823</v>
+        <v>0.1265500717907678</v>
       </c>
       <c r="L144" t="n">
-        <v>0.4100286584650276</v>
+        <v>0.2916676963892715</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0617397801199269</v>
+        <v>0.1267038156927778</v>
       </c>
       <c r="N144" t="n">
-        <v>0.560030682259968</v>
+        <v>0.4154833811540199</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05442136292830517</v>
+        <v>0.1264087516384151</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1547259244493902</v>
+        <v>0.1073753782966004</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05871112746812467</v>
+        <v>0.12741292969135</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2254887050195004</v>
+        <v>0.1661114837920696</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05499129753991718</v>
+        <v>0.1281519714336889</v>
       </c>
       <c r="L145" t="n">
-        <v>0.4075872757415938</v>
+        <v>0.2923241355962489</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06252129632397661</v>
+        <v>0.1283076614610408</v>
       </c>
       <c r="N145" t="n">
-        <v>0.5606221643243195</v>
+        <v>0.4164894662810753</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05511024094005586</v>
+        <v>0.1280088624186482</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1434222741542189</v>
+        <v>0.1125436476226023</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05944501656147623</v>
+        <v>0.1290055913124919</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2263828517972411</v>
+        <v>0.1649205612193829</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05567868875916616</v>
+        <v>0.12975387107661</v>
       </c>
       <c r="L146" t="n">
-        <v>0.4097078819515997</v>
+        <v>0.2929787683034891</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06330281252802632</v>
+        <v>0.1299115072293039</v>
       </c>
       <c r="N146" t="n">
-        <v>0.5678511044736718</v>
+        <v>0.4174333232266159</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05579911895180656</v>
+        <v>0.1296089731988813</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1440668458308482</v>
+        <v>0.1117460829186549</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06017890565482779</v>
+        <v>0.1305982529336338</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2265151904119025</v>
+        <v>0.1668817817619118</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05636607997841512</v>
+        <v>0.1313557707195311</v>
       </c>
       <c r="L147" t="n">
-        <v>0.4111186779743799</v>
+        <v>0.2918261463991818</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06408432873207602</v>
+        <v>0.1315153529975669</v>
       </c>
       <c r="N147" t="n">
-        <v>0.5730598345915801</v>
+        <v>0.4200072066487937</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05648799696355727</v>
+        <v>0.1312090839791144</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1526523150551924</v>
+        <v>0.1089805899518412</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06091279474817934</v>
+        <v>0.1321909145547756</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2275748734310726</v>
+        <v>0.1653920601606323</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05705347119766407</v>
+        <v>0.1329576703624522</v>
       </c>
       <c r="L148" t="n">
-        <v>0.4104194735811279</v>
+        <v>0.292860821771517</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06486584493612572</v>
+        <v>0.1331191987658299</v>
       </c>
       <c r="N148" t="n">
-        <v>0.5715906865615992</v>
+        <v>0.41690337120576</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05717687497530796</v>
+        <v>0.1328091947593475</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.160957213556626</v>
+        <v>0.1162450744892444</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06164668384153091</v>
+        <v>0.1337835761759175</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2293510534223398</v>
+        <v>0.1671483111565207</v>
       </c>
       <c r="K149" t="n">
-        <v>0.05774086241691305</v>
+        <v>0.1345595700053733</v>
       </c>
       <c r="L149" t="n">
-        <v>0.4087100785430373</v>
+        <v>0.2943773463086842</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06564736114017544</v>
+        <v>0.1347230445340929</v>
       </c>
       <c r="N149" t="n">
-        <v>0.5762859922672846</v>
+        <v>0.4193140715556672</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05786575298705866</v>
+        <v>0.1344093055395806</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1527121258350552</v>
+        <v>0.1095374422979474</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06238057293488246</v>
+        <v>0.1353762377970594</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2298328829532921</v>
+        <v>0.1676474494905531</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05842825363616201</v>
+        <v>0.1361614696482945</v>
       </c>
       <c r="L150" t="n">
-        <v>0.4106903026313015</v>
+        <v>0.2929702718988732</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06642887734422515</v>
+        <v>0.1363268903023559</v>
       </c>
       <c r="N150" t="n">
-        <v>0.5784880835921914</v>
+        <v>0.4205315623566664</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05855463099880936</v>
+        <v>0.1360094163198137</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1532607008027599</v>
+        <v>0.1128555991450335</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06311446202823402</v>
+        <v>0.1369688994182013</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2301095145915175</v>
+        <v>0.1688863899037054</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05911564485541098</v>
+        <v>0.1377633692912155</v>
       </c>
       <c r="L151" t="n">
-        <v>0.4109599556171145</v>
+        <v>0.2964341504302736</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06721039354827485</v>
+        <v>0.1379307360706189</v>
       </c>
       <c r="N151" t="n">
-        <v>0.5798392924198749</v>
+        <v>0.4215480982669099</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05924350901056006</v>
+        <v>0.1376095271000468</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1548223100299496</v>
+        <v>0.1121974507975857</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06384835112158559</v>
+        <v>0.1385615610393431</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2301701009046042</v>
+        <v>0.1679620471369537</v>
       </c>
       <c r="K152" t="n">
-        <v>0.05980303607465994</v>
+        <v>0.1393652689341367</v>
       </c>
       <c r="L152" t="n">
-        <v>0.4115188472716695</v>
+        <v>0.2976635337910754</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06799190975232455</v>
+        <v>0.1395345818388819</v>
       </c>
       <c r="N152" t="n">
-        <v>0.5839819506338902</v>
+        <v>0.426355933944549</v>
       </c>
       <c r="O152" t="n">
-        <v>0.05993238702231075</v>
+        <v>0.1392096378802799</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1473936967166238</v>
+        <v>0.1085609030226871</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06458224021493714</v>
+        <v>0.140154222660485</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2323037944601403</v>
+        <v>0.1678713359312742</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0604904272939089</v>
+        <v>0.1409671685770578</v>
       </c>
       <c r="L153" t="n">
-        <v>0.4096667873661604</v>
+        <v>0.2960529738694682</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06877342595637427</v>
+        <v>0.1411384276071449</v>
       </c>
       <c r="N153" t="n">
-        <v>0.5870112780023184</v>
+        <v>0.4277473240477355</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06062126503406145</v>
+        <v>0.140809748660513</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1559716040627826</v>
+        <v>0.1159739166003059</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0653161293082887</v>
+        <v>0.1417468842816269</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2330460389277367</v>
+        <v>0.168911171027643</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06117781851315787</v>
+        <v>0.1425690682199789</v>
       </c>
       <c r="L154" t="n">
-        <v>0.4135035856717809</v>
+        <v>0.2991970225536418</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06955494216042397</v>
+        <v>0.1427422733754079</v>
       </c>
       <c r="N154" t="n">
-        <v>0.5848109427551369</v>
+        <v>0.4249145232346212</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06131014304581215</v>
+        <v>0.1424098594407461</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1615527752684258</v>
+        <v>0.1156924993845418</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06605001840164026</v>
+        <v>0.1433395459027688</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2313922098099586</v>
+        <v>0.1688356042505506</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06186520973240683</v>
+        <v>0.1441709678629</v>
       </c>
       <c r="L155" t="n">
-        <v>0.4140290519597244</v>
+        <v>0.2992804867464612</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07033645836447369</v>
+        <v>0.1443461191436709</v>
       </c>
       <c r="N155" t="n">
-        <v>0.5855544056125224</v>
+        <v>0.4265782936181629</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06199902105756285</v>
+        <v>0.1440099702209792</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1611339535335533</v>
+        <v>0.109724748961419</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06678390749499181</v>
+        <v>0.1449322075239106</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2317768547664475</v>
+        <v>0.1702620630168859</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06255260095165581</v>
+        <v>0.1457728675058211</v>
       </c>
       <c r="L156" t="n">
-        <v>0.4125429960011844</v>
+        <v>0.3004300747871076</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0711179745685234</v>
+        <v>0.145949964911934</v>
       </c>
       <c r="N156" t="n">
-        <v>0.5830811909371122</v>
+        <v>0.4295061395345142</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06268789906931355</v>
+        <v>0.1456100810012123</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1527118820581648</v>
+        <v>0.1100074454937871</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06751779658834338</v>
+        <v>0.1465248691450525</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2322572072766204</v>
+        <v>0.1735133645992866</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06323999217090477</v>
+        <v>0.1473747671487422</v>
       </c>
       <c r="L157" t="n">
-        <v>0.4138452275673549</v>
+        <v>0.3049505151198502</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0718994907725731</v>
+        <v>0.147553810680197</v>
       </c>
       <c r="N157" t="n">
-        <v>0.5839990376998379</v>
+        <v>0.4388734874504735</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06337677708106425</v>
+        <v>0.1472101917814455</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1582833040422604</v>
+        <v>0.1134773691444963</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06825168568169493</v>
+        <v>0.1481175307661944</v>
       </c>
       <c r="J158" t="n">
-        <v>0.232133127761224</v>
+        <v>0.1755963724743584</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06392738339015373</v>
+        <v>0.1489766667916634</v>
       </c>
       <c r="L158" t="n">
-        <v>0.4134355564294291</v>
+        <v>0.307677342398624</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0726810069766228</v>
+        <v>0.14915765644846</v>
       </c>
       <c r="N158" t="n">
-        <v>0.5826154103690226</v>
+        <v>0.4394465241896907</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06406565509281495</v>
+        <v>0.1488103025616785</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1598449626858399</v>
+        <v>0.1240713000763963</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06898557477504648</v>
+        <v>0.1497101923873363</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2333044766410046</v>
+        <v>0.1782179501187078</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06461477460940269</v>
+        <v>0.1505785664345844</v>
       </c>
       <c r="L159" t="n">
-        <v>0.4130137923586009</v>
+        <v>0.3130460912773635</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07346252318067252</v>
+        <v>0.150761502216723</v>
       </c>
       <c r="N159" t="n">
-        <v>0.5846377734129903</v>
+        <v>0.4495914365758149</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06475453310456564</v>
+        <v>0.1504104133419117</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1673936011889031</v>
+        <v>0.1217260184523369</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06971946386839804</v>
+        <v>0.1513028540084781</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2322711143367087</v>
+        <v>0.1788849610089404</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06530216582865166</v>
+        <v>0.1521804660775055</v>
       </c>
       <c r="L160" t="n">
-        <v>0.4119797451260637</v>
+        <v>0.3165922964100037</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07424403938472222</v>
+        <v>0.152365347984986</v>
       </c>
       <c r="N160" t="n">
-        <v>0.5843735913000642</v>
+        <v>0.4550744114324963</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06544341111631634</v>
+        <v>0.1520105241221447</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1619259627514498</v>
+        <v>0.111378304435168</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07045335296174961</v>
+        <v>0.15289551562962</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2320329012690828</v>
+        <v>0.1818042686216624</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06598955704790063</v>
+        <v>0.1537823657204267</v>
       </c>
       <c r="L161" t="n">
-        <v>0.4158332245030114</v>
+        <v>0.3208514924504794</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07502555558877193</v>
+        <v>0.153969193753249</v>
       </c>
       <c r="N161" t="n">
-        <v>0.5814303284985682</v>
+        <v>0.4578616355833844</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06613228912806704</v>
+        <v>0.1536106349023778</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.15943879057348</v>
+        <v>0.1179649381877394</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07118724205510116</v>
+        <v>0.1544881772507619</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2341896978588734</v>
+        <v>0.1834827364334796</v>
       </c>
       <c r="K162" t="n">
-        <v>0.06667694826714959</v>
+        <v>0.1553842653633478</v>
       </c>
       <c r="L162" t="n">
-        <v>0.4154740402606373</v>
+        <v>0.3233592140527257</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07580707179282163</v>
+        <v>0.155573039521512</v>
       </c>
       <c r="N162" t="n">
-        <v>0.5819154494768257</v>
+        <v>0.4660192958521293</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06682116713981774</v>
+        <v>0.155210745682611</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1529288278549936</v>
+        <v>0.1154226998729012</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07192113114845272</v>
+        <v>0.1560808388719038</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2339413645268268</v>
+        <v>0.1869272279209984</v>
       </c>
       <c r="K163" t="n">
-        <v>0.06736433948639856</v>
+        <v>0.1569861650062689</v>
       </c>
       <c r="L163" t="n">
-        <v>0.413902002170135</v>
+        <v>0.327250995870677</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07658858799687134</v>
+        <v>0.157176885289775</v>
       </c>
       <c r="N163" t="n">
-        <v>0.5771364187031605</v>
+        <v>0.4682135790623804</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06751004515156843</v>
+        <v>0.156810856462844</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1653928177959903</v>
+        <v>0.1206899187187822</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07265502024180427</v>
+        <v>0.1576735004930456</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2333877616936896</v>
+        <v>0.1889446065608245</v>
       </c>
       <c r="K164" t="n">
-        <v>0.06805173070564752</v>
+        <v>0.15858806464919</v>
       </c>
       <c r="L164" t="n">
-        <v>0.4158169200026985</v>
+        <v>0.3328623725582684</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07737010420092105</v>
+        <v>0.158780731058038</v>
       </c>
       <c r="N164" t="n">
-        <v>0.5778007006458958</v>
+        <v>0.4733106720377875</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06819892316331914</v>
+        <v>0.1584109672430772</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1638275035964701</v>
+        <v>0.1178500556116699</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07338890933515584</v>
+        <v>0.1592661621141875</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2329287497802083</v>
+        <v>0.1901909501355141</v>
       </c>
       <c r="K165" t="n">
-        <v>0.06873912192489648</v>
+        <v>0.1601899642921111</v>
       </c>
       <c r="L165" t="n">
-        <v>0.4138186035295211</v>
+        <v>0.3322806608655358</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07815162040497077</v>
+        <v>0.1603845768263011</v>
       </c>
       <c r="N165" t="n">
-        <v>0.5788157597733555</v>
+        <v>0.4818584326237429</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06888780117506983</v>
+        <v>0.1600110780233102</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1702296284564329</v>
+        <v>0.1219821671957834</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0741227984285074</v>
+        <v>0.1608588237353294</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2328641892071293</v>
+        <v>0.1918625761480951</v>
       </c>
       <c r="K166" t="n">
-        <v>0.06942651314414544</v>
+        <v>0.1617918639350322</v>
       </c>
       <c r="L166" t="n">
-        <v>0.4147068625217964</v>
+        <v>0.3372340814481588</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07893313660902047</v>
+        <v>0.1619884225945641</v>
       </c>
       <c r="N166" t="n">
-        <v>0.5798890605538632</v>
+        <v>0.483252954827157</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06957667918682053</v>
+        <v>0.1616111888035434</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1625959355758783</v>
+        <v>0.1330882589946354</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07485668752185895</v>
+        <v>0.1624514853564713</v>
       </c>
       <c r="J167" t="n">
-        <v>0.233293940395199</v>
+        <v>0.1944944206401522</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07011390436339442</v>
+        <v>0.1633937635779533</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4156815067507181</v>
+        <v>0.3388167185643946</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07971465281307018</v>
+        <v>0.1635922683628271</v>
       </c>
       <c r="N167" t="n">
-        <v>0.5761280674557422</v>
+        <v>0.4853483091011201</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07026555719857122</v>
+        <v>0.1632112995837764</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1699231681548065</v>
+        <v>0.1231703365317382</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07559057661521051</v>
+        <v>0.1640441469776131</v>
       </c>
       <c r="J168" t="n">
-        <v>0.234517863765164</v>
+        <v>0.1950894381825283</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07080129558264338</v>
+        <v>0.1649956632208744</v>
       </c>
       <c r="L168" t="n">
-        <v>0.41484234598748</v>
+        <v>0.3450337895500256</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08049616901711988</v>
+        <v>0.1651961141310901</v>
       </c>
       <c r="N168" t="n">
-        <v>0.5750402449473163</v>
+        <v>0.4907519127033131</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07095443521032192</v>
+        <v>0.1648114103640096</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1702080693932171</v>
+        <v>0.1292304053306041</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07632446570856208</v>
+        <v>0.165636808598755</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2347358197377707</v>
+        <v>0.196950583346066</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07148868680189235</v>
+        <v>0.1665975628637955</v>
       </c>
       <c r="L169" t="n">
-        <v>0.4143891900032752</v>
+        <v>0.345790511740834</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08127768522116958</v>
+        <v>0.1667999598993531</v>
       </c>
       <c r="N169" t="n">
-        <v>0.576333057496909</v>
+        <v>0.4949711828914172</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07164331322207262</v>
+        <v>0.1664115211442427</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1564473824911101</v>
+        <v>0.1232704709147459</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07705835480191363</v>
+        <v>0.1672294702198969</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2332476687337657</v>
+        <v>0.1987808107016086</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0721760780211413</v>
+        <v>0.1681994625067167</v>
       </c>
       <c r="L170" t="n">
-        <v>0.4171218485692977</v>
+        <v>0.346392102472602</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0820592014252193</v>
+        <v>0.1684038056676161</v>
       </c>
       <c r="N170" t="n">
-        <v>0.574913969572844</v>
+        <v>0.4997135369231132</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07233219123382333</v>
+        <v>0.1680116319244758</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1616378506484855</v>
+        <v>0.1252925388076757</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07779224389526519</v>
+        <v>0.1688221318410388</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2349532711738951</v>
+        <v>0.2000830748199987</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07286346924039026</v>
+        <v>0.1698013621496378</v>
       </c>
       <c r="L171" t="n">
-        <v>0.4154401314567414</v>
+        <v>0.351043779081112</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08284071762926901</v>
+        <v>0.1700076514358791</v>
       </c>
       <c r="N171" t="n">
-        <v>0.5712904456434447</v>
+        <v>0.5023863920560818</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07302106924557403</v>
+        <v>0.1696117427047089</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1667762170653428</v>
+        <v>0.1272986145329061</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07852613298861676</v>
+        <v>0.1704147934621806</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2348524874789057</v>
+        <v>0.200460330272079</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07355086045963924</v>
+        <v>0.1714032617925589</v>
       </c>
       <c r="L172" t="n">
-        <v>0.4153438484367991</v>
+        <v>0.3557507589021465</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08362223383331871</v>
+        <v>0.1716114972041421</v>
       </c>
       <c r="N172" t="n">
-        <v>0.5703699501770347</v>
+        <v>0.5057971655480044</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07370994725732471</v>
+        <v>0.171211853484942</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1648592249416822</v>
+        <v>0.1392907036139495</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07926002208196831</v>
+        <v>0.1720074550833225</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2352451780695438</v>
+        <v>0.2028155316286926</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0742382516788882</v>
+        <v>0.17300516143548</v>
       </c>
       <c r="L173" t="n">
-        <v>0.4148328092806651</v>
+        <v>0.3561182592714874</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08440375003736841</v>
+        <v>0.1732153429724051</v>
       </c>
       <c r="N173" t="n">
-        <v>0.5689599476419377</v>
+        <v>0.5112532746565615</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07439882526907542</v>
+        <v>0.1728119642651751</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1648836038135705</v>
+        <v>0.1412708115743182</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07999391117531987</v>
+        <v>0.1736001167044644</v>
       </c>
       <c r="J174" t="n">
-        <v>0.234231203366556</v>
+        <v>0.2038516334606822</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07492564289813718</v>
+        <v>0.1746070610784011</v>
       </c>
       <c r="L174" t="n">
-        <v>0.4164068237595327</v>
+        <v>0.3604514975249174</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08518526624141813</v>
+        <v>0.1748191887406682</v>
       </c>
       <c r="N174" t="n">
-        <v>0.5705679025064773</v>
+        <v>0.5151621366394339</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07508770328082612</v>
+        <v>0.1744120750454082</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1558456133025024</v>
+        <v>0.1352409439375249</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08072780026867142</v>
+        <v>0.1751927783256063</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2346104237906886</v>
+        <v>0.2055715903388908</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07561303411738614</v>
+        <v>0.1762089607213222</v>
       </c>
       <c r="L175" t="n">
-        <v>0.4146657016445955</v>
+        <v>0.3596556909982183</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08596678244546783</v>
+        <v>0.1764230345089312</v>
       </c>
       <c r="N175" t="n">
-        <v>0.5664012792389769</v>
+        <v>0.5193311687543026</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07577658129257682</v>
+        <v>0.1760121858256413</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1677460530290857</v>
+        <v>0.1322154772939277</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08146168936202298</v>
+        <v>0.1767854399467481</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2336826997626882</v>
+        <v>0.2075784066537006</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0763004253366351</v>
+        <v>0.1778108603642433</v>
       </c>
       <c r="L176" t="n">
-        <v>0.4146092527070473</v>
+        <v>0.3650360570271728</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08674829864951755</v>
+        <v>0.1780268802771942</v>
       </c>
       <c r="N176" t="n">
-        <v>0.5646675423077602</v>
+        <v>0.5206704189368543</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07646545930432751</v>
+        <v>0.1776122966058744</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1555877231628091</v>
+        <v>0.1332460793363188</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08219557845537455</v>
+        <v>0.17837810156789</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2345478917033014</v>
+        <v>0.2083363386883751</v>
       </c>
       <c r="K177" t="n">
-        <v>0.07698781655588406</v>
+        <v>0.1794127600071644</v>
       </c>
       <c r="L177" t="n">
-        <v>0.4173372867180816</v>
+        <v>0.3672862409652407</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08752981485356726</v>
+        <v>0.1796307260454572</v>
       </c>
       <c r="N177" t="n">
-        <v>0.5654741561811507</v>
+        <v>0.5244620938294957</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07715433731607821</v>
+        <v>0.1792124073861075</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1553734238731607</v>
+        <v>0.1383087325721974</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0829294675487261</v>
+        <v>0.1799707631890319</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2349058600332743</v>
+        <v>0.2087666813183571</v>
       </c>
       <c r="K178" t="n">
-        <v>0.07767520777513302</v>
+        <v>0.1810146596500855</v>
       </c>
       <c r="L178" t="n">
-        <v>0.4163496134488922</v>
+        <v>0.3685728363529493</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08831133105761696</v>
+        <v>0.1812345718137202</v>
       </c>
       <c r="N178" t="n">
-        <v>0.5650285853274722</v>
+        <v>0.5263233612682029</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07784321532782891</v>
+        <v>0.1808125181663406</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1671059553296292</v>
+        <v>0.1403689856448185</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08366335664207765</v>
+        <v>0.1815634248101738</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2344564651733536</v>
+        <v>0.2114186802276269</v>
       </c>
       <c r="K179" t="n">
-        <v>0.078362598994382</v>
+        <v>0.1826165592930067</v>
       </c>
       <c r="L179" t="n">
-        <v>0.4170923426275384</v>
+        <v>0.3698069797643453</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08909284726166666</v>
+        <v>0.1828384175819832</v>
       </c>
       <c r="N179" t="n">
-        <v>0.5674382942150481</v>
+        <v>0.5341268058480452</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07853209333957961</v>
+        <v>0.1824126289465737</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1617881177017028</v>
+        <v>0.132392387197437</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08439724573542921</v>
+        <v>0.1831560864313156</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2360995675442857</v>
+        <v>0.2122415811001646</v>
       </c>
       <c r="K180" t="n">
-        <v>0.07904999021363096</v>
+        <v>0.1842184589359278</v>
       </c>
       <c r="L180" t="n">
-        <v>0.4146278829388277</v>
+        <v>0.3758990465726514</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08987436346571638</v>
+        <v>0.1844422633502462</v>
       </c>
       <c r="N180" t="n">
-        <v>0.5620107473122019</v>
+        <v>0.5378450121640919</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0792209713513303</v>
+        <v>0.1840127397268068</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1554227111588698</v>
+        <v>0.1483444858733078</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08513113482878076</v>
+        <v>0.1847487480524575</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2357350275668171</v>
+        <v>0.2132846296199504</v>
       </c>
       <c r="K181" t="n">
-        <v>0.07973738143287992</v>
+        <v>0.1858203585788489</v>
       </c>
       <c r="L181" t="n">
-        <v>0.4175610143633134</v>
+        <v>0.3773594121510909</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09065587966976608</v>
+        <v>0.1860461091185092</v>
       </c>
       <c r="N181" t="n">
-        <v>0.5608534090872572</v>
+        <v>0.5391505648114119</v>
       </c>
       <c r="O181" t="n">
-        <v>0.07990984936308101</v>
+        <v>0.1856128505070399</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1550125358706189</v>
+        <v>0.150190830315686</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08586502392213233</v>
+        <v>0.1863414096735994</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2352627056616943</v>
+        <v>0.2151970714709645</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08042477265212888</v>
+        <v>0.18742225822177</v>
       </c>
       <c r="L182" t="n">
-        <v>0.4151045595301887</v>
+        <v>0.3790984518728862</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09143739587381579</v>
+        <v>0.1876499548867722</v>
       </c>
       <c r="N182" t="n">
-        <v>0.5610708908517004</v>
+        <v>0.5419160483850748</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0805987273748317</v>
+        <v>0.187212961287273</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1655603920064382</v>
+        <v>0.1368969691678263</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08659891301548389</v>
+        <v>0.1879340712947413</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2353824622496636</v>
+        <v>0.216728152337187</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08111216387137785</v>
+        <v>0.1890241578646911</v>
       </c>
       <c r="L183" t="n">
-        <v>0.4143713410686471</v>
+        <v>0.3819265411112603</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09221891207786549</v>
+        <v>0.1892538006550352</v>
       </c>
       <c r="N183" t="n">
-        <v>0.5608279811253543</v>
+        <v>0.5467140474801501</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0812876053865824</v>
+        <v>0.1888130720675061</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1540690797358163</v>
+        <v>0.1484284510729838</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08733280210883544</v>
+        <v>0.1895267329158832</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2356941577514717</v>
+        <v>0.2167271179025981</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08179955509062681</v>
+        <v>0.1906260575076122</v>
       </c>
       <c r="L184" t="n">
-        <v>0.412374181607882</v>
+        <v>0.3816540552394364</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0930004282819152</v>
+        <v>0.1908576464232982</v>
       </c>
       <c r="N184" t="n">
-        <v>0.5634108183552955</v>
+        <v>0.5479171466917067</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08197648339833309</v>
+        <v>0.1904131828477392</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1565413992282416</v>
+        <v>0.1398210412252991</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08806669120218701</v>
+        <v>0.191119394537025</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2359975508250594</v>
+        <v>0.2179615891593004</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08248694630987578</v>
+        <v>0.1922279571505333</v>
       </c>
       <c r="L185" t="n">
-        <v>0.413725903777087</v>
+        <v>0.3857080963016863</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09378194448596491</v>
+        <v>0.1924614921915613</v>
       </c>
       <c r="N185" t="n">
-        <v>0.5595177403754089</v>
+        <v>0.5514713317763708</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08266536141008381</v>
+        <v>0.1920132936279723</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1619801506532024</v>
+        <v>0.1462015632575047</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08880058029553857</v>
+        <v>0.1927120561581669</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2347737204196065</v>
+        <v>0.2190211517201832</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08317433752912474</v>
+        <v>0.1938298567934544</v>
       </c>
       <c r="L186" t="n">
-        <v>0.4110393302054553</v>
+        <v>0.3860958067646889</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09456346069001462</v>
+        <v>0.1940653379598243</v>
       </c>
       <c r="N186" t="n">
-        <v>0.5609470850195795</v>
+        <v>0.5496765874874765</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08335423942183449</v>
+        <v>0.1936134044082054</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1643881341801871</v>
+        <v>0.138573821600935</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08953446938889012</v>
+        <v>0.1943047177793088</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2362094843681775</v>
+        <v>0.2200686943024454</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08386172874837372</v>
+        <v>0.1954317564363756</v>
       </c>
       <c r="L187" t="n">
-        <v>0.4083272835221803</v>
+        <v>0.3873623486930187</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09534497689406432</v>
+        <v>0.1956691837280873</v>
       </c>
       <c r="N187" t="n">
-        <v>0.5575971901216917</v>
+        <v>0.5508515932010818</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0840431174335852</v>
+        <v>0.1952135151884385</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.159768149978684</v>
+        <v>0.1489376894699354</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09026835848224168</v>
+        <v>0.1958973794004507</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2356059682376627</v>
+        <v>0.220904030123336</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08454911996762267</v>
+        <v>0.1970336560792967</v>
       </c>
       <c r="L188" t="n">
-        <v>0.4068025863564556</v>
+        <v>0.3876073922559222</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09612649309811404</v>
+        <v>0.1972730294963503</v>
       </c>
       <c r="N188" t="n">
-        <v>0.5616663935156309</v>
+        <v>0.5569958800112552</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0847319954453359</v>
+        <v>0.1968136259686716</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1621229982181818</v>
+        <v>0.148293040078851</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09100224757559323</v>
+        <v>0.1974900410215925</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2336642975949524</v>
+        <v>0.2215269724001042</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08523651118687163</v>
+        <v>0.1986355557222178</v>
       </c>
       <c r="L189" t="n">
-        <v>0.4060780613374744</v>
+        <v>0.3862306076226443</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09690800930216374</v>
+        <v>0.1988768752646133</v>
       </c>
       <c r="N189" t="n">
-        <v>0.560653033035281</v>
+        <v>0.555708979012065</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0854208734570866</v>
+        <v>0.1984137367489047</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1584554790681686</v>
+        <v>0.1436397466420274</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0917361366689448</v>
+        <v>0.1990827026427344</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2353855980069368</v>
+        <v>0.221337334349999</v>
       </c>
       <c r="K190" t="n">
-        <v>0.08592390240612061</v>
+        <v>0.2002374553651389</v>
       </c>
       <c r="L190" t="n">
-        <v>0.4022665310944304</v>
+        <v>0.3909316649624312</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09768952550621346</v>
+        <v>0.2004807210328763</v>
       </c>
       <c r="N190" t="n">
-        <v>0.5578554465145273</v>
+        <v>0.5545904212975795</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08610975146883729</v>
+        <v>0.2000138475291378</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.148768392698133</v>
+        <v>0.1409776823738098</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09247002576229636</v>
+        <v>0.2006753642638762</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2348709950405062</v>
+        <v>0.2221349291902697</v>
       </c>
       <c r="K191" t="n">
-        <v>0.08661129362536957</v>
+        <v>0.20183935500806</v>
       </c>
       <c r="L191" t="n">
-        <v>0.4006808182565167</v>
+        <v>0.3892102344445285</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09847104171026316</v>
+        <v>0.2020845668011393</v>
       </c>
       <c r="N191" t="n">
-        <v>0.5577719717872546</v>
+        <v>0.5591397379618672</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08679862948058799</v>
+        <v>0.2016139583093709</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1540645392775633</v>
+        <v>0.1473067204885434</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09320391485564791</v>
+        <v>0.2022680258850182</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2349216142625508</v>
+        <v>0.2224195701381652</v>
       </c>
       <c r="K192" t="n">
-        <v>0.08729868484461854</v>
+        <v>0.2034412546509811</v>
       </c>
       <c r="L192" t="n">
-        <v>0.399433745452927</v>
+        <v>0.391865986238182</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09925255791431287</v>
+        <v>0.2036884125694023</v>
       </c>
       <c r="N192" t="n">
-        <v>0.5584009466873475</v>
+        <v>0.5598564600989966</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08748750749233869</v>
+        <v>0.203214069089604</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1603467189759479</v>
+        <v>0.1396267342005737</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09393780394899948</v>
+        <v>0.20386068750616</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2331385812399609</v>
+        <v>0.2215910704109348</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0879860760638675</v>
+        <v>0.2050431542939022</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3985381353128546</v>
+        <v>0.3928985905126373</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1000340741183626</v>
+        <v>0.2052922583376653</v>
       </c>
       <c r="N193" t="n">
-        <v>0.5590407090486909</v>
+        <v>0.5606401188030359</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08817638550408939</v>
+        <v>0.2048141798698371</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1626177319627752</v>
+        <v>0.147937596724246</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09467169304235104</v>
+        <v>0.2054533491273019</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2334230215396267</v>
+        <v>0.2226492432258276</v>
       </c>
       <c r="K194" t="n">
-        <v>0.08867346728311647</v>
+        <v>0.2066450539368233</v>
       </c>
       <c r="L194" t="n">
-        <v>0.3952068104654929</v>
+        <v>0.3932077174371401</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1008155903224123</v>
+        <v>0.2068961041059284</v>
       </c>
       <c r="N194" t="n">
-        <v>0.5603895967051693</v>
+        <v>0.5638902451680534</v>
       </c>
       <c r="O194" t="n">
-        <v>0.08886526351584008</v>
+        <v>0.2064142906500702</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1478803784075335</v>
+        <v>0.1452391812739055</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09540558213570259</v>
+        <v>0.2070460107484438</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2321760607284385</v>
+        <v>0.2242939018000926</v>
       </c>
       <c r="K195" t="n">
-        <v>0.08936085850236543</v>
+        <v>0.2082469535797444</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3935525935400354</v>
+        <v>0.3941930371809363</v>
       </c>
       <c r="M195" t="n">
-        <v>0.101597106526462</v>
+        <v>0.2084999498741914</v>
       </c>
       <c r="N195" t="n">
-        <v>0.5560459474906677</v>
+        <v>0.5641063702881178</v>
       </c>
       <c r="O195" t="n">
-        <v>0.08955414152759078</v>
+        <v>0.2080144014303033</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1471374584797115</v>
+        <v>0.1415313610638977</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09613947122905415</v>
+        <v>0.2086386723695856</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2320988243732865</v>
+        <v>0.2241248593509791</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09004824972161439</v>
+        <v>0.2098488532226656</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3924883071656753</v>
+        <v>0.3955542199132714</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1023786227305117</v>
+        <v>0.2101037956424544</v>
       </c>
       <c r="N196" t="n">
-        <v>0.5551080992390708</v>
+        <v>0.5627880252572972</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09024301953934148</v>
+        <v>0.2096145122105364</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1473917723487972</v>
+        <v>0.1438140093085678</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09687336032240572</v>
+        <v>0.2102313339907275</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2330924380410611</v>
+        <v>0.2235419290957361</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09073564094086337</v>
+        <v>0.2114507528655867</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3891267739716063</v>
+        <v>0.3954909358033913</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1031601389345614</v>
+        <v>0.2117076414107174</v>
       </c>
       <c r="N197" t="n">
-        <v>0.5590743897842635</v>
+        <v>0.5668347411696603</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09093189755109217</v>
+        <v>0.2112146229907695</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1576461201842794</v>
+        <v>0.1530869992222612</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09760724941575727</v>
+        <v>0.2118239956118694</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2322580272986523</v>
+        <v>0.2236449242516128</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09142303216011233</v>
+        <v>0.2130526525085078</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3881808165870217</v>
+        <v>0.3952028550205417</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1039416551386111</v>
+        <v>0.2133114871789804</v>
       </c>
       <c r="N198" t="n">
-        <v>0.5552431569601305</v>
+        <v>0.567546049119275</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09162077556284287</v>
+        <v>0.2128147337710026</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1489033021556462</v>
+        <v>0.1523502040193231</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09834113850910882</v>
+        <v>0.2134166572330113</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2304967177129506</v>
+        <v>0.2244336580358582</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09211042337936129</v>
+        <v>0.2146545521514289</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3877632576411149</v>
+        <v>0.3979896477339682</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1047231713426608</v>
+        <v>0.2149153329472434</v>
       </c>
       <c r="N199" t="n">
-        <v>0.5567127386005564</v>
+        <v>0.5683214802002099</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09230965357459357</v>
+        <v>0.2144148445512357</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1471661184323861</v>
+        <v>0.145603496914099</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09907502760246038</v>
+        <v>0.2150093188541531</v>
       </c>
       <c r="J200" t="n">
-        <v>0.232109634850846</v>
+        <v>0.2258079436657216</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09279781459861025</v>
+        <v>0.21625645179435</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3868869197630794</v>
+        <v>0.3965509841129166</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1055046875467105</v>
+        <v>0.2165191787155064</v>
       </c>
       <c r="N200" t="n">
-        <v>0.5557814725394261</v>
+        <v>0.5655605655065336</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09299853158634427</v>
+        <v>0.2160149553314689</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1514373691839875</v>
+        <v>0.150846751120934</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09980891669581193</v>
+        <v>0.216601980475295</v>
       </c>
       <c r="J201" t="n">
-        <v>0.230097904279229</v>
+        <v>0.2258675943584521</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09348520581785921</v>
+        <v>0.2178583514372711</v>
       </c>
       <c r="L201" t="n">
-        <v>0.3823646255821082</v>
+        <v>0.3961865343266327</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1062862037507602</v>
+        <v>0.2181230244837694</v>
       </c>
       <c r="N201" t="n">
-        <v>0.5552476966106245</v>
+        <v>0.5668628361323141</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09368740959809496</v>
+        <v>0.2176150661117019</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1557198545799388</v>
+        <v>0.1520798398541737</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1005428057891635</v>
+        <v>0.2181946420964369</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2311626515649898</v>
+        <v>0.2258124233312986</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09417259703710819</v>
+        <v>0.2194602510801922</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3820091977273954</v>
+        <v>0.3998959685443621</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1070677199548099</v>
+        <v>0.2197268702520325</v>
       </c>
       <c r="N202" t="n">
-        <v>0.5532097486480362</v>
+        <v>0.5701278231716203</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09437628760984568</v>
+        <v>0.219215176891935</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1530163747897283</v>
+        <v>0.1573026363281631</v>
       </c>
       <c r="G203" t="n">
-        <v>0.101276694882515</v>
+        <v>0.2197873037175787</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2285050022750185</v>
+        <v>0.2272422438015105</v>
       </c>
       <c r="K203" t="n">
-        <v>0.09485998825635715</v>
+        <v>0.2210621507231133</v>
       </c>
       <c r="L203" t="n">
-        <v>0.3795888376430223</v>
+        <v>0.4003789569353506</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1078492361588596</v>
+        <v>0.2213307160202954</v>
       </c>
       <c r="N203" t="n">
-        <v>0.5549659664855457</v>
+        <v>0.5719550577185201</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09506516562159636</v>
+        <v>0.2208152876721681</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1483297299828445</v>
+        <v>0.1505150137572478</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1020105839758666</v>
+        <v>0.2213799653387206</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2300260819762054</v>
+        <v>0.2264568689863367</v>
       </c>
       <c r="K204" t="n">
-        <v>0.09554737947560611</v>
+        <v>0.2226640503660345</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3777529871092172</v>
+        <v>0.3973351696688438</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1086307523629094</v>
+        <v>0.2229345617885584</v>
       </c>
       <c r="N204" t="n">
-        <v>0.5515146879570385</v>
+        <v>0.573944070867082</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09575404363334707</v>
+        <v>0.2224153984524013</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1466627203287759</v>
+        <v>0.149716845355773</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1027444730692182</v>
+        <v>0.2229726269598625</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2286270162354408</v>
+        <v>0.2281561121030266</v>
       </c>
       <c r="K205" t="n">
-        <v>0.09623477069485509</v>
+        <v>0.2242659500089556</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3784014392355883</v>
+        <v>0.3978642769140876</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1094122685669591</v>
+        <v>0.2245384075568214</v>
       </c>
       <c r="N205" t="n">
-        <v>0.5519542508963988</v>
+        <v>0.5702943937113744</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09644292164509775</v>
+        <v>0.2240155092326344</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1420181459970107</v>
+        <v>0.152908004338084</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1034783621625697</v>
+        <v>0.2245652885810044</v>
       </c>
       <c r="J206" t="n">
-        <v>0.227908930619615</v>
+        <v>0.227239786368829</v>
       </c>
       <c r="K206" t="n">
-        <v>0.09692216191410404</v>
+        <v>0.2258678496518767</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3730341345782272</v>
+        <v>0.4014659488403275</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1101937847710088</v>
+        <v>0.2261422533250845</v>
       </c>
       <c r="N206" t="n">
-        <v>0.5518829931375115</v>
+        <v>0.5754055573454658</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09713179965684847</v>
+        <v>0.2256156200128674</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1433988071570373</v>
+        <v>0.1540883639185263</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1042122512559213</v>
+        <v>0.2261579502021462</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2261729506956182</v>
+        <v>0.2278077050009932</v>
       </c>
       <c r="K207" t="n">
-        <v>0.097609553133353</v>
+        <v>0.2274697492947978</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3716510136932259</v>
+        <v>0.3988398556168095</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1109753009750585</v>
+        <v>0.2277460990933475</v>
       </c>
       <c r="N207" t="n">
-        <v>0.5545992525142615</v>
+        <v>0.5743770928634244</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09782067766859916</v>
+        <v>0.2272157307931005</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1398075039783443</v>
+        <v>0.151257797311445</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1049461403492729</v>
+        <v>0.2277506118232882</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2274202020303406</v>
+        <v>0.2287596812167684</v>
       </c>
       <c r="K208" t="n">
-        <v>0.09829694435260197</v>
+        <v>0.2290716489377189</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3713520171366757</v>
+        <v>0.4008856674127793</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1117568171791082</v>
+        <v>0.2293499448616105</v>
       </c>
       <c r="N208" t="n">
-        <v>0.5526013668605334</v>
+        <v>0.5732085313593187</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09850955568034986</v>
+        <v>0.2288158415733337</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1382470366304199</v>
+        <v>0.1514161777311854</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1056800294426244</v>
+        <v>0.22934327344443</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2264518101906726</v>
+        <v>0.2286955282334037</v>
       </c>
       <c r="K209" t="n">
-        <v>0.09898433557185093</v>
+        <v>0.23067354858064</v>
       </c>
       <c r="L209" t="n">
-        <v>0.3704370854646685</v>
+        <v>0.4034030543974823</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1125383333831579</v>
+        <v>0.2309537906298735</v>
       </c>
       <c r="N209" t="n">
-        <v>0.5500876740102121</v>
+        <v>0.5733994039272172</v>
       </c>
       <c r="O209" t="n">
-        <v>0.09919843369210056</v>
+        <v>0.2304159523535668</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1517202052827527</v>
+        <v>0.1425633783920931</v>
       </c>
       <c r="G210" t="n">
-        <v>0.106413918535976</v>
+        <v>0.2309359350655719</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2242689007435043</v>
+        <v>0.228315059268148</v>
       </c>
       <c r="K210" t="n">
-        <v>0.09967172679109991</v>
+        <v>0.2322754482235611</v>
       </c>
       <c r="L210" t="n">
-        <v>0.3692061592332959</v>
+        <v>0.4027916867401646</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1133198495872076</v>
+        <v>0.2325576363981365</v>
       </c>
       <c r="N210" t="n">
-        <v>0.5539565117971821</v>
+        <v>0.576649241661188</v>
       </c>
       <c r="O210" t="n">
-        <v>0.09988731170385126</v>
+        <v>0.2320160631337999</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1472224489930923</v>
+        <v>0.1506992725085132</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1071478076293275</v>
+        <v>0.2325285966867137</v>
       </c>
       <c r="J211" t="n">
-        <v>0.224172599255726</v>
+        <v>0.2286180875382505</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1003591180103489</v>
+        <v>0.2338773478664822</v>
       </c>
       <c r="L211" t="n">
-        <v>0.3671591789986494</v>
+        <v>0.4014512346100715</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1141013657912573</v>
+        <v>0.2341614821663995</v>
       </c>
       <c r="N211" t="n">
-        <v>0.5499062180553285</v>
+        <v>0.5780575756552995</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1005761897156019</v>
+        <v>0.2336161739140329</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1377286219444466</v>
+        <v>0.143823733294791</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1078816967226791</v>
+        <v>0.2341212583078557</v>
       </c>
       <c r="J212" t="n">
-        <v>0.224064031294228</v>
+        <v>0.2287044262609606</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1010465092295978</v>
+        <v>0.2354792475094033</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3646960853168209</v>
+        <v>0.4026813681764491</v>
       </c>
       <c r="M212" t="n">
-        <v>0.114882881995307</v>
+        <v>0.2357653279346625</v>
       </c>
       <c r="N212" t="n">
-        <v>0.5508351306185358</v>
+        <v>0.5760239370036204</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1012650677273527</v>
+        <v>0.2352162846942661</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1442363852441016</v>
+        <v>0.148936633965272</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1086155858160306</v>
+        <v>0.2357139199289975</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2232443224259004</v>
+        <v>0.2278738886535271</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1017339004488468</v>
+        <v>0.2370811471523245</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3621168187439017</v>
+        <v>0.4046817576085431</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1156643981993567</v>
+        <v>0.2373691737029256</v>
       </c>
       <c r="N213" t="n">
-        <v>0.5477415873206889</v>
+        <v>0.5764478568002189</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1019539457391034</v>
+        <v>0.2368163954744992</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1367457692507539</v>
+        <v>0.1460378477343015</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1093494749093822</v>
+        <v>0.2373065815501394</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2215145982176336</v>
+        <v>0.2284262879331992</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1024212916680958</v>
+        <v>0.2386830467952455</v>
       </c>
       <c r="L214" t="n">
-        <v>0.360221319835984</v>
+        <v>0.4027520730755991</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1164459144034064</v>
+        <v>0.2389730194711886</v>
       </c>
       <c r="N214" t="n">
-        <v>0.5514239259956728</v>
+        <v>0.5786288661391633</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1026428237508541</v>
+        <v>0.2384165062547323</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1442568043230999</v>
+        <v>0.1461272478162246</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1100833640027338</v>
+        <v>0.2388992431712813</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2212759842363178</v>
+        <v>0.2302614373172262</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1031086828873447</v>
+        <v>0.2402849464381667</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3560095291491591</v>
+        <v>0.4031919847468627</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1172274306074561</v>
+        <v>0.2405768652394516</v>
       </c>
       <c r="N215" t="n">
-        <v>0.5499804844773719</v>
+        <v>0.575966496114522</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1033317017626047</v>
+        <v>0.2400166170349654</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1337695208198362</v>
+        <v>0.1432047074253868</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1108172530960853</v>
+        <v>0.2404919047924231</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2215296060488434</v>
+        <v>0.228679150022857</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1037960741065937</v>
+        <v>0.2418868460810878</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3565813872395184</v>
+        <v>0.4050011627915799</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1180089468115059</v>
+        <v>0.2421807110077146</v>
       </c>
       <c r="N216" t="n">
-        <v>0.5505096005996712</v>
+        <v>0.5751602778203635</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1040205797743555</v>
+        <v>0.2416167278151985</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1342839490996592</v>
+        <v>0.1482700997761334</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1115511421894369</v>
+        <v>0.242084566413565</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2195765892221004</v>
+        <v>0.2292792392673409</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1044834653258427</v>
+        <v>0.2434887457240089</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3559368346631541</v>
+        <v>0.4018792773789961</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1187904630155556</v>
+        <v>0.2437845567759776</v>
       </c>
       <c r="N217" t="n">
-        <v>0.5486096121964552</v>
+        <v>0.579009742350756</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1047094577861061</v>
+        <v>0.2432168385954316</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1358001195212656</v>
+        <v>0.1523232980828098</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1122850312827884</v>
+        <v>0.2436772280347069</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2181180593229792</v>
+        <v>0.2305615182679269</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1051708565450916</v>
+        <v>0.24509064536693</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3515758119761577</v>
+        <v>0.4038259986783574</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1195719792196053</v>
+        <v>0.2453884025442406</v>
       </c>
       <c r="N218" t="n">
-        <v>0.547578857101609</v>
+        <v>0.576214420799768</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1053983357978568</v>
+        <v>0.2448169493756647</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1463180624433518</v>
+        <v>0.1513641755597612</v>
       </c>
       <c r="G219" t="n">
-        <v>0.11301892037614</v>
+        <v>0.2452698896558488</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2181551419183699</v>
+        <v>0.2289258002418642</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1058582477643406</v>
+        <v>0.2466925450098511</v>
       </c>
       <c r="L219" t="n">
-        <v>0.3513982597346207</v>
+        <v>0.4047409968589092</v>
       </c>
       <c r="M219" t="n">
-        <v>0.120353495423655</v>
+        <v>0.2469922483125036</v>
       </c>
       <c r="N219" t="n">
-        <v>0.5448156731490174</v>
+        <v>0.576373844261468</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1060872138096075</v>
+        <v>0.2464170601558978</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1368378082246142</v>
+        <v>0.1433926054213329</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1137528094694916</v>
+        <v>0.2468625512769906</v>
       </c>
       <c r="J220" t="n">
-        <v>0.218588962575163</v>
+        <v>0.2285718984064019</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1065456389835895</v>
+        <v>0.2482944446527722</v>
       </c>
       <c r="L220" t="n">
-        <v>0.3489041184946349</v>
+        <v>0.4060239420898975</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1211350116277047</v>
+        <v>0.2485960940807667</v>
       </c>
       <c r="N220" t="n">
-        <v>0.5483183981725647</v>
+        <v>0.5760875438299242</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1067760918213582</v>
+        <v>0.2480171709361309</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1403593872237496</v>
+        <v>0.1564084608818703</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1144866985628431</v>
+        <v>0.2484552128981325</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2177183889210035</v>
+        <v>0.2297996259787891</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1072330302028385</v>
+        <v>0.2498963442956933</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3453933288122918</v>
+        <v>0.4059745045405677</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1219165278317544</v>
+        <v>0.2501999398490296</v>
       </c>
       <c r="N221" t="n">
-        <v>0.5430756770062451</v>
+        <v>0.577255050599205</v>
       </c>
       <c r="O221" t="n">
-        <v>0.107464969833109</v>
+        <v>0.249617281716364</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1358828297994542</v>
+        <v>0.1513991940427474</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1152205876561947</v>
+        <v>0.2500478745192744</v>
       </c>
       <c r="J222" t="n">
-        <v>0.216204430105212</v>
+        <v>0.2305087723502531</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1079204214220875</v>
+        <v>0.2514982439386144</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3453658312436833</v>
+        <v>0.4024923543801657</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1226980440358041</v>
+        <v>0.2518037856172926</v>
       </c>
       <c r="N222" t="n">
-        <v>0.5447388685215774</v>
+        <v>0.5807736305368618</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1081538478448596</v>
+        <v>0.2512173924965971</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1354081663104246</v>
+        <v>0.1551072221404281</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1159544767495462</v>
+        <v>0.2516405361404163</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2143333083958402</v>
+        <v>0.2296167916770439</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1086078126413365</v>
+        <v>0.2531001435815355</v>
       </c>
       <c r="L223" t="n">
-        <v>0.3408215663449007</v>
+        <v>0.4027273048589398</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1234795602398538</v>
+        <v>0.2534076313855557</v>
       </c>
       <c r="N223" t="n">
-        <v>0.5460031314925807</v>
+        <v>0.5750734354284244</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1088427258566103</v>
+        <v>0.2528175032768302</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1339354271153574</v>
+        <v>0.1484598423235619</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1166883658428978</v>
+        <v>0.2532331977615582</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2139059657788518</v>
+        <v>0.2273904699207831</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1092952038605854</v>
+        <v>0.2547020432244567</v>
       </c>
       <c r="L224" t="n">
-        <v>0.3393604746720361</v>
+        <v>0.4030156063878914</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1242610764439035</v>
+        <v>0.2550114771538187</v>
       </c>
       <c r="N224" t="n">
-        <v>0.5444703821027771</v>
+        <v>0.5727370124576217</v>
       </c>
       <c r="O224" t="n">
-        <v>0.109531603868361</v>
+        <v>0.2544176140570633</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1334646425729492</v>
+        <v>0.1444965791809913</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1174222549362493</v>
+        <v>0.2548258593827</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2127233442402099</v>
+        <v>0.2260880353680227</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1099825950798344</v>
+        <v>0.2563039428673777</v>
       </c>
       <c r="L225" t="n">
-        <v>0.3393824967811809</v>
+        <v>0.3989591925555641</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1250425926479532</v>
+        <v>0.2566153229220817</v>
       </c>
       <c r="N225" t="n">
-        <v>0.5397425365356878</v>
+        <v>0.5735105399456544</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1102204818801117</v>
+        <v>0.2560177248372964</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1389958430418962</v>
+        <v>0.1522569573015587</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1181561440296009</v>
+        <v>0.2564185210038419</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2122863857658779</v>
+        <v>0.2260677163053149</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1106699862990833</v>
+        <v>0.2579058425102989</v>
       </c>
       <c r="L226" t="n">
-        <v>0.3348875732284268</v>
+        <v>0.396760885916951</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1258241088520029</v>
+        <v>0.2582191686903447</v>
       </c>
       <c r="N226" t="n">
-        <v>0.5412215109748353</v>
+        <v>0.5650401962137229</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1109093598918624</v>
+        <v>0.2576178356175295</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1375290588808952</v>
+        <v>0.1457805012741064</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1188900331229525</v>
+        <v>0.2580111826249838</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2099960323418191</v>
+        <v>0.2226877410192115</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1113573775183323</v>
+        <v>0.25950774215322</v>
       </c>
       <c r="L227" t="n">
-        <v>0.3356756445698653</v>
+        <v>0.3928235090270455</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1266056250560526</v>
+        <v>0.2598230144586077</v>
       </c>
       <c r="N227" t="n">
-        <v>0.5408092216037407</v>
+        <v>0.560672159583028</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1115982379036131</v>
+        <v>0.2592179463977626</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1330643204486425</v>
+        <v>0.1371067356874767</v>
       </c>
       <c r="G228" t="n">
-        <v>0.119623922216304</v>
+        <v>0.2596038442461256</v>
       </c>
       <c r="J228" t="n">
-        <v>0.210253225953997</v>
+        <v>0.220706337796265</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1120447687375813</v>
+        <v>0.2611096417961411</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3306466513615883</v>
+        <v>0.3878498844408411</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1273871412601023</v>
+        <v>0.2614268602268707</v>
       </c>
       <c r="N228" t="n">
-        <v>0.5364075846059262</v>
+        <v>0.5539526083747696</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1122871159153638</v>
+        <v>0.2608180571779957</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1346016581038347</v>
+        <v>0.1362751851305122</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1203578113096556</v>
+        <v>0.2611965058672675</v>
       </c>
       <c r="J229" t="n">
-        <v>0.207858908588375</v>
+        <v>0.2185817349230273</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1127321599568302</v>
+        <v>0.2627115414390622</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3309005341596875</v>
+        <v>0.3862428347133312</v>
       </c>
       <c r="M229" t="n">
-        <v>0.128168657464152</v>
+        <v>0.2630307059951337</v>
       </c>
       <c r="N229" t="n">
-        <v>0.5359185161649134</v>
+        <v>0.5526277209101481</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1129759939271145</v>
+        <v>0.2624181679582288</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1401411022051684</v>
+        <v>0.1453253741920549</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1210917004030071</v>
+        <v>0.2627891674884094</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2085140222309162</v>
+        <v>0.2159721606860504</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1134195511760792</v>
+        <v>0.2643134410819833</v>
       </c>
       <c r="L230" t="n">
-        <v>0.3276372335202544</v>
+        <v>0.3815051823995089</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1289501736682018</v>
+        <v>0.2646345517633967</v>
       </c>
       <c r="N230" t="n">
-        <v>0.5335439324642242</v>
+        <v>0.5452436755103643</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1136648719388652</v>
+        <v>0.2640182787384619</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.12768268311134</v>
+        <v>0.1382968274609475</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1218255894963587</v>
+        <v>0.2643818291095513</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2066195088675841</v>
+        <v>0.2124358433718865</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1141069423953281</v>
+        <v>0.2659153407249044</v>
       </c>
       <c r="L231" t="n">
-        <v>0.3232566899993805</v>
+        <v>0.3760397500543679</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1297316898722514</v>
+        <v>0.2662383975316597</v>
       </c>
       <c r="N231" t="n">
-        <v>0.5322857496873802</v>
+        <v>0.5338466504966186</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1143537499506159</v>
+        <v>0.265618389518695</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.128226431181046</v>
+        <v>0.1392290695260323</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1225594785897103</v>
+        <v>0.2659744907306932</v>
       </c>
       <c r="J232" t="n">
-        <v>0.203776310484342</v>
+        <v>0.2101310112670877</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1147943336145771</v>
+        <v>0.2675172403678255</v>
       </c>
       <c r="L232" t="n">
-        <v>0.3213588441531577</v>
+        <v>0.3688493602329015</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1305132060763012</v>
+        <v>0.2678422432999228</v>
       </c>
       <c r="N232" t="n">
-        <v>0.5307458840179035</v>
+        <v>0.5267828241901112</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1150426279623666</v>
+        <v>0.2672185002989281</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1407723767729829</v>
+        <v>0.1351616249761515</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1232933676830618</v>
+        <v>0.267567152351835</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2032853690671533</v>
+        <v>0.2077158926582059</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1154817248338261</v>
+        <v>0.2691191400107467</v>
       </c>
       <c r="L233" t="n">
-        <v>0.3200436365376778</v>
+        <v>0.364336835490103</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1312947222803509</v>
+        <v>0.2694460890681858</v>
       </c>
       <c r="N233" t="n">
-        <v>0.5282262516393154</v>
+        <v>0.5195983749120425</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1157315059741173</v>
+        <v>0.2688186110791612</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1283205502458473</v>
+        <v>0.1371340184001477</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1240272567764134</v>
+        <v>0.2691598139729769</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2027476266019815</v>
+        <v>0.2025487158317933</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1161691160530751</v>
+        <v>0.2707210396536677</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3196110077090321</v>
+        <v>0.3566049983809659</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1320762384844006</v>
+        <v>0.2710499348364488</v>
       </c>
       <c r="N234" t="n">
-        <v>0.525528768735138</v>
+        <v>0.5114394809836134</v>
       </c>
       <c r="O234" t="n">
-        <v>0.116420383985868</v>
+        <v>0.2704187218593943</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1248709819583357</v>
+        <v>0.132185774386863</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1247611458697649</v>
+        <v>0.2707524755941188</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2009640250747896</v>
+        <v>0.2006877090744021</v>
       </c>
       <c r="K235" t="n">
-        <v>0.116856507272324</v>
+        <v>0.2723229392965889</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3172608982233124</v>
+        <v>0.3517566714604834</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1328577546884503</v>
+        <v>0.2726537806047118</v>
       </c>
       <c r="N235" t="n">
-        <v>0.5265553514888929</v>
+        <v>0.5074523207260239</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1171092619976187</v>
+        <v>0.2720188326396274</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1374237022691446</v>
+        <v>0.12635641752514</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1254950349631165</v>
+        <v>0.2723451372152607</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1996355064715413</v>
+        <v>0.1969911006725843</v>
       </c>
       <c r="K236" t="n">
-        <v>0.117543898491573</v>
+        <v>0.27392483893951</v>
       </c>
       <c r="L236" t="n">
-        <v>0.3143932486366104</v>
+        <v>0.3483946772836493</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1336392708925</v>
+        <v>0.2742576263729748</v>
       </c>
       <c r="N236" t="n">
-        <v>0.522907916084102</v>
+        <v>0.4959830724604744</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1177981400093694</v>
+        <v>0.2736189434198605</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1319787415369704</v>
+        <v>0.1326801460409294</v>
       </c>
       <c r="G237" t="n">
-        <v>0.126228924056468</v>
+        <v>0.2739377988364025</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1981630127781996</v>
+        <v>0.1945163113975034</v>
       </c>
       <c r="K237" t="n">
-        <v>0.118231289710822</v>
+        <v>0.2755267385824311</v>
       </c>
       <c r="L237" t="n">
-        <v>0.3138079995050179</v>
+        <v>0.3453213889826257</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1344207870965497</v>
+        <v>0.2758614721412379</v>
       </c>
       <c r="N237" t="n">
-        <v>0.5191883787042871</v>
+        <v>0.4916739103164072</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1184870180211201</v>
+        <v>0.2752190542000936</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1285361301205097</v>
+        <v>0.1310523593667003</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1269628131498196</v>
+        <v>0.2755304604575444</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1952474859807282</v>
+        <v>0.1942471407343812</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1189186809300709</v>
+        <v>0.2771286382253522</v>
       </c>
       <c r="L238" t="n">
-        <v>0.3107050913846262</v>
+        <v>0.3392484239875187</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1352023033005994</v>
+        <v>0.2774653179095009</v>
       </c>
       <c r="N238" t="n">
-        <v>0.5198986555329701</v>
+        <v>0.4881123071110357</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1191758960328708</v>
+        <v>0.2768191649803267</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1240958983784591</v>
+        <v>0.1324185650754265</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1276967022431712</v>
+        <v>0.2771231220786863</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1940898680650903</v>
+        <v>0.1909691912728352</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1196060721493199</v>
+        <v>0.2787305378682733</v>
       </c>
       <c r="L239" t="n">
-        <v>0.3074844648315273</v>
+        <v>0.3362599834261815</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1359838195046491</v>
+        <v>0.2790691636777638</v>
       </c>
       <c r="N239" t="n">
-        <v>0.5163406627536724</v>
+        <v>0.4828286305996785</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1198647740446215</v>
+        <v>0.2784192757605599</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.137658076669515</v>
+        <v>0.1307786695318914</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1284305913365227</v>
+        <v>0.2787157836998282</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1930911010172494</v>
+        <v>0.1889823250678953</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1202934633685688</v>
+        <v>0.2803324375111944</v>
       </c>
       <c r="L240" t="n">
-        <v>0.3054460604018127</v>
+        <v>0.3299558237081681</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1367653357086988</v>
+        <v>0.2806730094460268</v>
       </c>
       <c r="N240" t="n">
-        <v>0.5157163165499159</v>
+        <v>0.4758225344804723</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1205536520563722</v>
+        <v>0.2800193865407929</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1252226953523739</v>
+        <v>0.1141325791008783</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1291644804298743</v>
+        <v>0.28030844532097</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1909521268231686</v>
+        <v>0.1857864041745914</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1209808545878178</v>
+        <v>0.2819343371541155</v>
       </c>
       <c r="L241" t="n">
-        <v>0.303489818651574</v>
+        <v>0.3268357012430327</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1375468519127485</v>
+        <v>0.2822768552142899</v>
       </c>
       <c r="N241" t="n">
-        <v>0.5143275331052227</v>
+        <v>0.470793672451553</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1212425300681229</v>
+        <v>0.281619497321026</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1327897847857324</v>
+        <v>0.1264802001471704</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1298983695232258</v>
+        <v>0.2819011069421119</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1896738874688113</v>
+        <v>0.1829812906479534</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1216682458070668</v>
+        <v>0.2835362367970367</v>
       </c>
       <c r="L242" t="n">
-        <v>0.300615680136903</v>
+        <v>0.3232993724403296</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1383283681167982</v>
+        <v>0.2838807009825529</v>
       </c>
       <c r="N242" t="n">
-        <v>0.5073762286031143</v>
+        <v>0.4649416982110572</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1219314080798736</v>
+        <v>0.2832196081012592</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1253593753282868</v>
+        <v>0.1228214390355512</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1306322586165774</v>
+        <v>0.2834937685632538</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1874573249401409</v>
+        <v>0.1814668465430109</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1223556370263157</v>
+        <v>0.2851381364399578</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2981235854138913</v>
+        <v>0.319946593709613</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1391098843208479</v>
+        <v>0.2854845467508159</v>
       </c>
       <c r="N243" t="n">
-        <v>0.5046643192271122</v>
+        <v>0.4556662654571213</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1226202860916243</v>
+        <v>0.2848197188814923</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1199314973387339</v>
+        <v>0.1141562021308039</v>
       </c>
       <c r="G244" t="n">
-        <v>0.131366147709929</v>
+        <v>0.2850864301843956</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1846033812231209</v>
+        <v>0.178742933914794</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1230430282455647</v>
+        <v>0.2867400360828789</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2937134750386305</v>
+        <v>0.3146771214604372</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1398914005248977</v>
+        <v>0.2870883925190789</v>
       </c>
       <c r="N244" t="n">
-        <v>0.5060937211607387</v>
+        <v>0.4483670278878812</v>
       </c>
       <c r="O244" t="n">
-        <v>0.123309164103375</v>
+        <v>0.2864198296617254</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.12950618117577</v>
+        <v>0.1084843957977119</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1321000368032805</v>
+        <v>0.2866790918055375</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1832129983037145</v>
+        <v>0.1753094148183326</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1237304194648137</v>
+        <v>0.2883419357258</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2916852895672125</v>
+        <v>0.3125907121023563</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1406729167289474</v>
+        <v>0.2886922382873419</v>
       </c>
       <c r="N245" t="n">
-        <v>0.5042663505875153</v>
+        <v>0.444743639201473</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1239980421151257</v>
+        <v>0.2880199404419585</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1340834571980917</v>
+        <v>0.1108059264010584</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1328339258966321</v>
+        <v>0.2882717534266794</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1822871181678851</v>
+        <v>0.1728661513086563</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1244178106840626</v>
+        <v>0.2899438353687211</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2918389695557285</v>
+        <v>0.3063871220449243</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1414544329329971</v>
+        <v>0.2902960840556049</v>
       </c>
       <c r="N246" t="n">
-        <v>0.4984841236909638</v>
+        <v>0.4373957530960336</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1246869201268764</v>
+        <v>0.2896200512221916</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1346633557643955</v>
+        <v>0.1111207003056269</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1335678149899836</v>
+        <v>0.2898644150478213</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1797266828015959</v>
+        <v>0.1710130054407951</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1251052019033116</v>
+        <v>0.2915457350116422</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2863744555602705</v>
+        <v>0.3039661076976958</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1422359491370468</v>
+        <v>0.2918999298238679</v>
       </c>
       <c r="N247" t="n">
-        <v>0.4993489566546061</v>
+        <v>0.429623023269699</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1253757981386271</v>
+        <v>0.2912201620024247</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1182459072333779</v>
+        <v>0.1094286238762006</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1343017040833352</v>
+        <v>0.2914570766689631</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1766326341908105</v>
+        <v>0.1701498392697789</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1257925931225606</v>
+        <v>0.2931476346545633</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2872916881369301</v>
+        <v>0.2984274254702247</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1430174653410965</v>
+        <v>0.2935037755921309</v>
       </c>
       <c r="N248" t="n">
-        <v>0.4912627656619637</v>
+        <v>0.4279251034206053</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1260646761503778</v>
+        <v>0.2928202727826578</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1228311419637354</v>
+        <v>0.1037296034775629</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1350355931766868</v>
+        <v>0.293049738290105</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1756059143214923</v>
+        <v>0.1674765148506374</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1264799843418095</v>
+        <v>0.2947495342974844</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2815906078417991</v>
+        <v>0.2944708317720653</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1437989815451462</v>
+        <v>0.2951076213603939</v>
       </c>
       <c r="N249" t="n">
-        <v>0.4910274668965587</v>
+        <v>0.4218016472468887</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1267535541621285</v>
+        <v>0.2944203835628909</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1204190903141645</v>
+        <v>0.101023545474497</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1357694822700383</v>
+        <v>0.2946423999112469</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1744474651796042</v>
+        <v>0.1651928942384006</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1271673755610585</v>
+        <v>0.2963514339404055</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2818711552309688</v>
+        <v>0.2905960830127719</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1445804977491959</v>
+        <v>0.296711467128657</v>
       </c>
       <c r="N250" t="n">
-        <v>0.4885449765419128</v>
+        <v>0.4107523084466861</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1274424321738792</v>
+        <v>0.296020494343124</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1270097826433618</v>
+        <v>0.1103103562317863</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1365033713633899</v>
+        <v>0.2962350615323888</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1703582287511101</v>
+        <v>0.161398839488098</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1278547667803075</v>
+        <v>0.2979533335833267</v>
       </c>
       <c r="L251" t="n">
-        <v>0.277533270860531</v>
+        <v>0.2831029356018984</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1453620139532456</v>
+        <v>0.29831531289692</v>
       </c>
       <c r="N251" t="n">
-        <v>0.4835172107815476</v>
+        <v>0.4083767407181331</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1281313101856299</v>
+        <v>0.2976206051233571</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1186032493100237</v>
+        <v>0.1065899421142142</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1372372604567414</v>
+        <v>0.2978277231535306</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1699391470219729</v>
+        <v>0.15809421265476</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1285421579995564</v>
+        <v>0.2995552332262478</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2762768952865776</v>
+        <v>0.2801911459489995</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1461435301572953</v>
+        <v>0.299919158665183</v>
       </c>
       <c r="N252" t="n">
-        <v>0.4821460857989849</v>
+        <v>0.4028745977593664</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1288201881973806</v>
+        <v>0.2992207159035902</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1251995206728467</v>
+        <v>0.102862209486564</v>
       </c>
       <c r="G253" t="n">
-        <v>0.137971149550093</v>
+        <v>0.2994203847746725</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1669911619781562</v>
+        <v>0.1554788757934161</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1292295492188054</v>
+        <v>0.3011571328691689</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2744019690652001</v>
+        <v>0.2747604704636288</v>
       </c>
       <c r="M253" t="n">
-        <v>0.146925046361345</v>
+        <v>0.301523004433446</v>
       </c>
       <c r="N253" t="n">
-        <v>0.4791335177777467</v>
+        <v>0.3930455332685219</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1295090662091313</v>
+        <v>0.3008208266838233</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1187986270905274</v>
+        <v>0.1071270647136188</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1387050386434445</v>
+        <v>0.3010130463958144</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1659152156056234</v>
+        <v>0.1540526909590964</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1299169404380544</v>
+        <v>0.30275903251209</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2714084327524901</v>
+        <v>0.2703106655553411</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1477065625653947</v>
+        <v>0.303126850201709</v>
       </c>
       <c r="N254" t="n">
-        <v>0.4746814229013546</v>
+        <v>0.3894892009437363</v>
       </c>
       <c r="O254" t="n">
-        <v>0.130197944220882</v>
+        <v>0.3024209374640564</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1264005989217623</v>
+        <v>0.09038441416016214</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1394389277367961</v>
+        <v>0.3026057080169563</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1630122498903377</v>
+        <v>0.1508155202068304</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1306043316573033</v>
+        <v>0.3043609321550111</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2679962269045393</v>
+        <v>0.2664414876336901</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1484880787694444</v>
+        <v>0.304730695969972</v>
       </c>
       <c r="N255" t="n">
-        <v>0.4737917173533305</v>
+        <v>0.3826052544831454</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1308868222326327</v>
+        <v>0.3040210482442895</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1160054665252479</v>
+        <v>0.09063416419097738</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1401728168301477</v>
+        <v>0.3041983696380982</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1596832068182626</v>
+        <v>0.1478672255916482</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1312917228765523</v>
+        <v>0.3059628317979322</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2643652920774393</v>
+        <v>0.2631526931082304</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1492695949734942</v>
+        <v>0.306334541738235</v>
       </c>
       <c r="N256" t="n">
-        <v>0.4711663173171956</v>
+        <v>0.374293347584886</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1315757002443834</v>
+        <v>0.3056211590245226</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1226132602596807</v>
+        <v>0.09787622117084767</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1409067059234992</v>
+        <v>0.30579103125924</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1572290283753613</v>
+        <v>0.1454076691685795</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1319791140958013</v>
+        <v>0.3075647314408533</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2643155688272819</v>
+        <v>0.2566440383885159</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1500511111775439</v>
+        <v>0.307938387506498</v>
       </c>
       <c r="N257" t="n">
-        <v>0.4665071389764726</v>
+        <v>0.3689531339470939</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1322645782561341</v>
+        <v>0.3072212698047557</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1292240104837572</v>
+        <v>0.08911049146455648</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1416405950168508</v>
+        <v>0.3073836928803819</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1550506565475971</v>
+        <v>0.1431367129926543</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1326665053150502</v>
+        <v>0.3091666310837744</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2610469977101586</v>
+        <v>0.2552152798841011</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1508326273815936</v>
+        <v>0.309542233274761</v>
       </c>
       <c r="N258" t="n">
-        <v>0.4616160985146827</v>
+        <v>0.3597842672679056</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1329534562678848</v>
+        <v>0.3088213805849888</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1158377475561738</v>
+        <v>0.0883368814368871</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1423744841102023</v>
+        <v>0.3089763545015238</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1532490333209336</v>
+        <v>0.1419542191189024</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1333538965342992</v>
+        <v>0.3107685307266955</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2559595192821611</v>
+        <v>0.24856617400454</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1516141435856433</v>
+        <v>0.311146079043024</v>
       </c>
       <c r="N259" t="n">
-        <v>0.4583951121153478</v>
+        <v>0.3557864012454574</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1336423342796355</v>
+        <v>0.3104214913652219</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1184545018356273</v>
+        <v>0.09055529745262279</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1431083732035539</v>
+        <v>0.3105690161226656</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1516251006813341</v>
+        <v>0.1395600496023535</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1340412877535481</v>
+        <v>0.3123704303696167</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2538530740993811</v>
+        <v>0.2423964771593867</v>
       </c>
       <c r="M260" t="n">
-        <v>0.152395659789693</v>
+        <v>0.3127499248112871</v>
       </c>
       <c r="N260" t="n">
-        <v>0.4572460959619896</v>
+        <v>0.3481591895778856</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1343312122913862</v>
+        <v>0.312021602145455</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1280743036808139</v>
+        <v>0.08676564587654688</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1438422622969054</v>
+        <v>0.3121616777438075</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1497798006147619</v>
+        <v>0.1349540664980377</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1347286789727971</v>
+        <v>0.3139723300125378</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2511276027179105</v>
+        <v>0.2387059457581955</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1531771759937427</v>
+        <v>0.3143537705795501</v>
       </c>
       <c r="N261" t="n">
-        <v>0.4551709662381302</v>
+        <v>0.3399022859633265</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1350200903031369</v>
+        <v>0.3136217129256881</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1216971834504303</v>
+        <v>0.08296783307344273</v>
       </c>
       <c r="G262" t="n">
-        <v>0.144576151390257</v>
+        <v>0.3137543393649494</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1461140751071802</v>
+        <v>0.1333361318609847</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1354160701920461</v>
+        <v>0.3155742296554589</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2485830456938403</v>
+        <v>0.2353943362105207</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1539586921977924</v>
+        <v>0.3159576163478131</v>
       </c>
       <c r="N262" t="n">
-        <v>0.4525716391272909</v>
+        <v>0.3360153440999158</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1357089683148876</v>
+        <v>0.3152218237059212</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.128323171503173</v>
+        <v>0.09116176540809375</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1453100404836085</v>
+        <v>0.3153470009860913</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1454288661445525</v>
+        <v>0.1310061077462245</v>
       </c>
       <c r="K263" t="n">
-        <v>0.136103461411295</v>
+        <v>0.31717612929838</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2465193435832628</v>
+        <v>0.2283614049259164</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1547402084018421</v>
+        <v>0.3175614621160761</v>
       </c>
       <c r="N263" t="n">
-        <v>0.4502500308129938</v>
+        <v>0.3291980176857907</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1363978463266383</v>
+        <v>0.3168219344861543</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1159522981977383</v>
+        <v>0.0793473492452831</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1460439295769601</v>
+        <v>0.3169396626072332</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1410251157128422</v>
+        <v>0.1274638562087866</v>
       </c>
       <c r="K264" t="n">
-        <v>0.136790852630544</v>
+        <v>0.3187780289413011</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2440364369422695</v>
+        <v>0.2265069083139369</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1555217246058918</v>
+        <v>0.3191653078843391</v>
       </c>
       <c r="N264" t="n">
-        <v>0.4461080574787605</v>
+        <v>0.3252499604190869</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1370867243383889</v>
+        <v>0.3184220452663874</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1399.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1399.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.5305284372141092</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06387191014151826</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06387191014151826</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1021950562264292</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.200871606778313</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.08047860677831299</v>
+        <v>0.1165230194638684</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002077454089982673</v>
+        <v>0.003007895303520291</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,10 +9250,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.03832314608491096</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0006924846966608909</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.08047860677831299</v>
+        <v>0.02679229850722291</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.002077454089982673</v>
+        <v>0.000434120154581013</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0640876607051276</v>
+        <v>0.02679229850722291</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001158039691855312</v>
+        <v>0.000434120154581013</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1086575944932323</v>
+        <v>0.09635673473928147</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001178612816633112</v>
+        <v>0.0008888956121918213</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1761033834006955</v>
+        <v>0.1320775375505217</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001087031822163454</v>
+        <v>0.0008623088973892784</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.08806715205665626</v>
+        <v>0.05593104934265682</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00318532324228375</v>
+        <v>0.001010652821982818</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1165230194638684</v>
+        <v>0.05593104934265682</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003915820424050635</v>
+        <v>0.001010652821982818</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1826990543197379</v>
+        <v>0.1720704328559549</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003207691536526021</v>
+        <v>0.001958358717404591</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.2935056390011592</v>
+        <v>0.2476252657570477</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00355983674913694</v>
+        <v>0.001958717292195916</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.08772299829464501</v>
+        <v>0.06790326936790154</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004777984863425625</v>
+        <v>0.001302360463743039</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1238198120704806</v>
+        <v>0.06790326936790154</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004805698928763333</v>
+        <v>0.001302360463743039</v>
       </c>
       <c r="L68" s="172" t="n">
         <v>0.2050143292325138</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004303099367088608</v>
+        <v>0.002701810371403713</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.3187136616233761</v>
+        <v>0.2935056390011592</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004800332340699307</v>
+        <v>0.002737488563140566</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.09601727593809888</v>
+        <v>0.0853860074893389</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.0063706464845675</v>
+        <v>0.001736480618324052</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1358475458853052</v>
+        <v>0.0853860074893389</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006407598571684444</v>
+        <v>0.001736480618324052</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2326940789945855</v>
+        <v>0.2222312434789515</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006415383073052042</v>
+        <v>0.003916717434809183</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3435000185304875</v>
+        <v>0.3202132730614197</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00640044312093241</v>
+        <v>0.003917434584391833</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006924846966608909</v>
+        <v>0.001010652821982818</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03832314608491096</v>
+        <v>0.05593104934265682</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1030799785776342</v>
+        <v>0.1006754992439425</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007963308105709376</v>
+        <v>0.002170600772905065</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1448491908533703</v>
+        <v>0.1006754992439425</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008009498214605554</v>
+        <v>0.002170600772905065</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2517442311776895</v>
+        <v>0.2398367835352206</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008019228841315052</v>
+        <v>0.004895896793511478</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3703254629006887</v>
+        <v>0.3446052844268576</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008000553901165513</v>
+        <v>0.004896793230489791</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1030410998038676</v>
+        <v>0.111758284246475</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00955596972685125</v>
+        <v>0.002604720927486078</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1555060477986903</v>
+        <v>0.111758284246475</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009611397857526667</v>
+        <v>0.002604720927486078</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2690975363610871</v>
+        <v>0.2545740731413821</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009623074609578064</v>
+        <v>0.005875076152213774</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3943975227942778</v>
+        <v>0.3667554060651087</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009600664681398615</v>
+        <v>0.005876151876587749</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1170306332074155</v>
+        <v>0.1165230194638684</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01114863134799312</v>
+        <v>0.003007895303520291</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1636994175452793</v>
+        <v>0.1165230194638684</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01121329750044778</v>
+        <v>0.003007895303520291</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2856732764030359</v>
+        <v>0.2691612131115923</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01122692037784107</v>
+        <v>0.00685425551091607</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.4165237262715529</v>
+        <v>0.384889402878505</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01120077546163172</v>
+        <v>0.006855510522685708</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1271785723788942</v>
+        <v>0.1182870262010678</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.012741292969135</v>
+        <v>0.003472961236648104</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1724106009171515</v>
+        <v>0.1182870262010678</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01281519714336889</v>
+        <v>0.003472961236648104</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.297690733161793</v>
+        <v>0.2825163042600078</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01283076614610408</v>
+        <v>0.007833434869618365</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.4366116013928119</v>
+        <v>0.4052330397693784</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01280088624186482</v>
+        <v>0.007834869168783665</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1286149109089204</v>
+        <v>0.1199018346531406</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01433395459027688</v>
+        <v>0.003907081391229117</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1797208987383214</v>
+        <v>0.1199018346531406</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01441709678629</v>
+        <v>0.003907081391229117</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3112691884956161</v>
+        <v>0.2954574474007848</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01443461191436709</v>
+        <v>0.008812614228320661</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.4513686762183531</v>
+        <v>0.4208120816400609</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01440099702209792</v>
+        <v>0.008814227814881623</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1204696423881104</v>
+        <v>0.1214862061499214</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01592661621141875</v>
+        <v>0.00434120154581013</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1841116118328029</v>
+        <v>0.1214862061499214</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01601899642921111</v>
+        <v>0.00434120154581013</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.3196279242627626</v>
+        <v>0.30820274334808</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0160384576826301</v>
+        <v>0.009791793587022956</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.4674024788084744</v>
+        <v>0.441052293392884</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01600110780233103</v>
+        <v>0.009793586460979583</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1298727604070807</v>
+        <v>0.1230404221192883</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01751927783256062</v>
+        <v>0.004775321700391143</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1889640410246105</v>
+        <v>0.1230404221192883</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01762089607213222</v>
+        <v>0.004775321700391143</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.3319862223214901</v>
+        <v>0.3199702929160496</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01764230345089312</v>
+        <v>0.01077097294572525</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.4801205372234739</v>
+        <v>0.4594794399301796</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01760121858256413</v>
+        <v>0.01077294510707754</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1309542585564477</v>
+        <v>0.1245647639891196</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0191119394537025</v>
+        <v>0.005209441854972156</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1933594871377582</v>
+        <v>0.1245647639891196</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01922279571505333</v>
+        <v>0.005209441854972156</v>
       </c>
       <c r="L77" t="n">
-        <v>0.3401633645300559</v>
+        <v>0.3288781969188498</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01924614921915613</v>
+        <v>0.01175015230442755</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4900303795236498</v>
+        <v>0.47411928615428</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01920132936279723</v>
+        <v>0.0117523037531755</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.127844130426828</v>
+        <v>0.1260595131872934</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02070460107484438</v>
+        <v>0.005643562009553169</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1973792509962606</v>
+        <v>0.1260595131872934</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02082469535797444</v>
+        <v>0.005643562009553169</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3485786327467174</v>
+        <v>0.3412445561706377</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02084999498741914</v>
+        <v>0.01272933166312984</v>
       </c>
       <c r="N78" t="n">
-        <v>0.5032395337692999</v>
+        <v>0.4839975969675165</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02080144014303033</v>
+        <v>0.01273166239927346</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1296723696088379</v>
+        <v>0.1275249511416878</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02229726269598625</v>
+        <v>0.006077682164134182</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2028046334241316</v>
+        <v>0.1275249511416878</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02242659500089556</v>
+        <v>0.006077682164134182</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3537513088297323</v>
+        <v>0.348387471485569</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02245384075568215</v>
+        <v>0.01370851102183214</v>
       </c>
       <c r="N79" t="n">
-        <v>0.5096555280207226</v>
+        <v>0.4956401372722212</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02240155092326343</v>
+        <v>0.01371102104537142</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1285451566183218</v>
+        <v>0.1289613592801809</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02388992431712813</v>
+        <v>0.006511802318715195</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2053169352453856</v>
+        <v>0.1289613592801809</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02402849464381667</v>
+        <v>0.006511802318715195</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3589006746373578</v>
+        <v>0.3582250436778007</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02405768652394516</v>
+        <v>0.01468769038053444</v>
       </c>
       <c r="N80" t="n">
-        <v>0.5194858903382157</v>
+        <v>0.5129726719707258</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02400166170349654</v>
+        <v>0.01469037969146937</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1313915691238565</v>
+        <v>0.130369019030651</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02548258593827</v>
+        <v>0.006945922473296208</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2088167536169395</v>
+        <v>0.130369019030651</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02563039428673778</v>
+        <v>0.006945922473296208</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3631563002224147</v>
+        <v>0.3621753735614886</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02566153229220817</v>
+        <v>0.01566686973923673</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5245379964971647</v>
+        <v>0.5230209659653625</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02560177248372964</v>
+        <v>0.01566973833756733</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1451804301102143</v>
+        <v>0.1317482118209761</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02707524755941188</v>
+        <v>0.007380042627877221</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2106100129227119</v>
+        <v>0.1317482118209761</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02723229392965889</v>
+        <v>0.007380042627877221</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3706291397908631</v>
+        <v>0.3730565619507896</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02726537806047118</v>
+        <v>0.01664604909793903</v>
       </c>
       <c r="N82" t="n">
-        <v>0.5297751253472945</v>
+        <v>0.5284107841584627</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02720188326396274</v>
+        <v>0.01664909698366529</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1479001447269366</v>
+        <v>0.1330992190790344</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02866790918055375</v>
+        <v>0.007814162782458235</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2127199207202156</v>
+        <v>0.1330992190790344</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02883419357258</v>
+        <v>0.007814162782458235</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3761616329067317</v>
+        <v>0.3763867096598599</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02886922382873419</v>
+        <v>0.01762522845664132</v>
       </c>
       <c r="N83" t="n">
-        <v>0.5387940464578337</v>
+        <v>0.5377678914523585</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02880199404419585</v>
+        <v>0.01762845562976325</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1375391181235651</v>
+        <v>0.1344223222327041</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03026057080169563</v>
+        <v>0.008248282937039247</v>
       </c>
       <c r="J84" t="n">
-        <v>0.216429395281473</v>
+        <v>0.1344223222327041</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03043609321550111</v>
+        <v>0.008248282937039247</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3800236157610135</v>
+        <v>0.3815839175028564</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0304730695969972</v>
+        <v>0.01860440781534362</v>
       </c>
       <c r="N84" t="n">
-        <v>0.5433518772631635</v>
+        <v>0.5506180527493817</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03040210482442895</v>
+        <v>0.01860781427586121</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1510857554496411</v>
+        <v>0.1357178027098633</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0318532324228375</v>
+        <v>0.00868240309162026</v>
       </c>
       <c r="J85" t="n">
-        <v>0.218421354878507</v>
+        <v>0.1357178027098633</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03203799285842222</v>
+        <v>0.00868240309162026</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3821849245447019</v>
+        <v>0.3892662862939348</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03207691536526021</v>
+        <v>0.01958358717404591</v>
       </c>
       <c r="N85" t="n">
-        <v>0.5486057351976649</v>
+        <v>0.5539870329518644</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03200221560466205</v>
+        <v>0.01958717292195917</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1525284618547065</v>
+        <v>0.13698594193839</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03344589404397937</v>
+        <v>0.009116523246201274</v>
       </c>
       <c r="J86" t="n">
-        <v>0.22027871778334</v>
+        <v>0.13698594193839</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03363989250134333</v>
+        <v>0.009116523246201274</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3861153954487905</v>
+        <v>0.391651916847252</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03368076113352322</v>
+        <v>0.02056276653274821</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5583127376957194</v>
+        <v>0.5608005969621378</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03360232638489515</v>
+        <v>0.02056653156805712</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1528556424883026</v>
+        <v>0.1382270213461627</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03503855566512125</v>
+        <v>0.009550643400782287</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2228844022679948</v>
+        <v>0.1382270213461627</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03524179214426444</v>
+        <v>0.009550643400782287</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3905848646642728</v>
+        <v>0.3979589099769642</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03528460690178623</v>
+        <v>0.0215419458914505</v>
       </c>
       <c r="N87" t="n">
-        <v>0.5631300021917084</v>
+        <v>0.5687845096825341</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03520243716512825</v>
+        <v>0.02154589021415508</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.151055702499971</v>
+        <v>0.1394413223610593</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03663121728626312</v>
+        <v>0.009984763555363299</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2240213266044939</v>
+        <v>0.1394413223610593</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03684369178718555</v>
+        <v>0.009984763555363299</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3936631683821419</v>
+        <v>0.3981053664972278</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03688845267004924</v>
+        <v>0.0225211252501528</v>
       </c>
       <c r="N88" t="n">
-        <v>0.5662146461200129</v>
+        <v>0.5703645360153853</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03680254794536136</v>
+        <v>0.02252524886025304</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1471170470392532</v>
+        <v>0.1406291264109579</v>
       </c>
       <c r="G89" t="n">
-        <v>0.038223878907405</v>
+        <v>0.01041888370994431</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2260724090648599</v>
+        <v>0.1406291264109579</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03844559143010667</v>
+        <v>0.01041888370994431</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3969201427933917</v>
+        <v>0.4039093872221994</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03849229843831226</v>
+        <v>0.0235003046088551</v>
       </c>
       <c r="N89" t="n">
-        <v>0.5701237869150143</v>
+        <v>0.5780664408630231</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03840265872559446</v>
+        <v>0.023504607506351</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1580280812556909</v>
+        <v>0.1417907149237368</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03981654052854688</v>
+        <v>0.01085300386452533</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2281205679211154</v>
+        <v>0.1417907149237368</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04004749107302778</v>
+        <v>0.01085300386452533</v>
       </c>
       <c r="L90" t="n">
-        <v>0.4005256240890153</v>
+        <v>0.4020890729660354</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04009614420657526</v>
+        <v>0.0244794839675574</v>
       </c>
       <c r="N90" t="n">
-        <v>0.5727145420110936</v>
+        <v>0.5779159891277795</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04000276950582756</v>
+        <v>0.02448396615244896</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1537772102988255</v>
+        <v>0.1429263693272741</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04140920214968875</v>
+        <v>0.01128712401910634</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2294487214452831</v>
+        <v>0.1429263693272741</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04164939071594888</v>
+        <v>0.01128712401910634</v>
       </c>
       <c r="L91" t="n">
-        <v>0.4037494484600062</v>
+        <v>0.404662524542892</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04169998997483828</v>
+        <v>0.02545866332625969</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5794440288426325</v>
+        <v>0.5787389457119863</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04160288028606066</v>
+        <v>0.02546332479854692</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1453528393181985</v>
+        <v>0.1440363710494479</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04300186377083063</v>
+        <v>0.01172124417368735</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2313397879093856</v>
+        <v>0.1440363710494479</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04325129035887</v>
+        <v>0.01172124417368735</v>
       </c>
       <c r="L92" t="n">
-        <v>0.4041614520973579</v>
+        <v>0.4060478427669258</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04330383574310128</v>
+        <v>0.02643784268496198</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5792693648440118</v>
+        <v>0.5815610755179748</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04320299106629377</v>
+        <v>0.02644268344464487</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1587433734633517</v>
+        <v>0.1451210015181364</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0445945253919725</v>
+        <v>0.01215536432826836</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2301766855854454</v>
+        <v>0.1451210015181364</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04485319000179111</v>
+        <v>0.01215536432826836</v>
       </c>
       <c r="L93" t="n">
-        <v>0.4061314711920637</v>
+        <v>0.4100286584650276</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0449076815113643</v>
+        <v>0.02741702204366428</v>
       </c>
       <c r="N93" t="n">
-        <v>0.5836476674496132</v>
+        <v>0.5870112780023184</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04480310184652687</v>
+        <v>0.02742204209074283</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.160957213556626</v>
+        <v>0.1461805421612178</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04618718701311438</v>
+        <v>0.01258948448284938</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2317423327454852</v>
+        <v>0.1461805421612178</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04645508964471222</v>
+        <v>0.01258948448284938</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4070293419351171</v>
+        <v>0.4072264824131507</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0465115272796273</v>
+        <v>0.02839620140236657</v>
       </c>
       <c r="N94" t="n">
-        <v>0.5870112780023184</v>
+        <v>0.5822059144046261</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04640321262675997</v>
+        <v>0.02840140073684079</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1499406905565548</v>
+        <v>0.1472152744065701</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04777984863425625</v>
+        <v>0.01302360463743039</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2330460389277367</v>
+        <v>0.1472152744065701</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04805698928763334</v>
+        <v>0.01302360463743039</v>
       </c>
       <c r="L95" t="n">
-        <v>0.4100286584650276</v>
+        <v>0.408749134325821</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04811537304789032</v>
+        <v>0.02937538076106887</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5816916422110061</v>
+        <v>0.5842234565620025</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04800332340699307</v>
+        <v>0.02938075938293874</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1588330266989806</v>
+        <v>0.1482254796820714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04937251025539813</v>
+        <v>0.0134577247920114</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2324199184955094</v>
+        <v>0.1482254796820714</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04965888893055444</v>
+        <v>0.0134577247920114</v>
       </c>
       <c r="L96" t="n">
-        <v>0.4074090091795038</v>
+        <v>0.4063826135834559</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04971921881615332</v>
+        <v>0.03035456011977116</v>
       </c>
       <c r="N96" t="n">
-        <v>0.586597175152061</v>
+        <v>0.5833131525142038</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04960343418722618</v>
+        <v>0.0303601180290367</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1566303708280454</v>
+        <v>0.1492114394156002</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05096517187654</v>
+        <v>0.01389184494659242</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2316590777746985</v>
+        <v>0.1492114394156002</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05126078857347555</v>
+        <v>0.01389184494659242</v>
       </c>
       <c r="L97" t="n">
-        <v>0.4061773960895285</v>
+        <v>0.4074422185202274</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05132306458441634</v>
+        <v>0.03133373947847346</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5806254180086911</v>
+        <v>0.5824925993167487</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05120354496745928</v>
+        <v>0.03133947667513466</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1443388337643175</v>
+        <v>0.1501734350350342</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05255783349768188</v>
+        <v>0.01432596510117343</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2315593807743498</v>
+        <v>0.1501734350350342</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05286268821639667</v>
+        <v>0.01432596510117343</v>
       </c>
       <c r="L98" t="n">
-        <v>0.4073976594398057</v>
+        <v>0.4052420834296001</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05292691035267935</v>
+        <v>0.03231291883717576</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5807089009852686</v>
+        <v>0.5834760813902595</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05280365574769239</v>
+        <v>0.03231883532123262</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1499645263283657</v>
+        <v>0.151111747968252</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05415049511882376</v>
+        <v>0.01476008525575444</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2313298300577173</v>
+        <v>0.151111747968252</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05446458785931777</v>
+        <v>0.01476008525575444</v>
       </c>
       <c r="L99" t="n">
-        <v>0.4047856964275581</v>
+        <v>0.4070963426050386</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05453075612094236</v>
+        <v>0.03329209819587806</v>
       </c>
       <c r="N99" t="n">
-        <v>0.5832702244305399</v>
+        <v>0.5790778831553581</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05440376652792549</v>
+        <v>0.03329819396733058</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1555135593407583</v>
+        <v>0.1520266596431313</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05574315673996563</v>
+        <v>0.01519420541033545</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2306794281880545</v>
+        <v>0.1520266596431313</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05606648750223889</v>
+        <v>0.01519420541033545</v>
       </c>
       <c r="L100" t="n">
-        <v>0.4073574042500079</v>
+        <v>0.4032191303400075</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05613460188920536</v>
+        <v>0.03427127755458035</v>
       </c>
       <c r="N100" t="n">
-        <v>0.5775319886932502</v>
+        <v>0.5830122890326666</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05600387730815859</v>
+        <v>0.03427755261342854</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1559920436220641</v>
+        <v>0.1529184514875506</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05733581836110751</v>
+        <v>0.01562832556491647</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2308171777286156</v>
+        <v>0.1529184514875506</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05766838714516</v>
+        <v>0.01562832556491647</v>
       </c>
       <c r="L101" t="n">
-        <v>0.4034286801043778</v>
+        <v>0.4021245809279714</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05773844765746838</v>
+        <v>0.03525045691328264</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5797167941221453</v>
+        <v>0.5796935834428067</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05760398808839169</v>
+        <v>0.03525691125952649</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1434060899928516</v>
+        <v>0.1537874049293879</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05892847998224938</v>
+        <v>0.01606244571949748</v>
       </c>
       <c r="J102" t="n">
-        <v>0.228152081242654</v>
+        <v>0.1537874049293879</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05927028678808111</v>
+        <v>0.01606244571949748</v>
       </c>
       <c r="L102" t="n">
-        <v>0.4018154211878901</v>
+        <v>0.4045268286623948</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05934229342573139</v>
+        <v>0.03622963627198494</v>
       </c>
       <c r="N102" t="n">
-        <v>0.577547241065971</v>
+        <v>0.5758360508064007</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05920409886862479</v>
+        <v>0.03623626990562445</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1517618092736893</v>
+        <v>0.1546338013965213</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06052114160339126</v>
+        <v>0.01649656587407849</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2288931412934238</v>
+        <v>0.1546338013965213</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06087218643100221</v>
+        <v>0.01649656587407849</v>
       </c>
       <c r="L103" t="n">
-        <v>0.4034335246977676</v>
+        <v>0.4000400078367424</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06094613919399441</v>
+        <v>0.03720881563068724</v>
       </c>
       <c r="N103" t="n">
-        <v>0.577145929873473</v>
+        <v>0.5776539755440704</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0608042096488579</v>
+        <v>0.03721562855172241</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1440653122851457</v>
+        <v>0.155457922316829</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06211380322453314</v>
+        <v>0.01693068602865951</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2273493604441785</v>
+        <v>0.155457922316829</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06247408607392333</v>
+        <v>0.01693068602865951</v>
       </c>
       <c r="L104" t="n">
-        <v>0.4005988878312324</v>
+        <v>0.3998782527444786</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0625499849622574</v>
+        <v>0.03818799498938954</v>
       </c>
       <c r="N104" t="n">
-        <v>0.573735460893397</v>
+        <v>0.5769616420764379</v>
       </c>
       <c r="O104" t="n">
-        <v>0.062404320429091</v>
+        <v>0.03819498719782037</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1463227098477894</v>
+        <v>0.1562600491181891</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06370646484567501</v>
+        <v>0.01736480618324052</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2270297412581723</v>
+        <v>0.1562600491181891</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06407598571684443</v>
+        <v>0.01736480618324052</v>
       </c>
       <c r="L105" t="n">
-        <v>0.3985274077855072</v>
+        <v>0.3990556976790683</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06415383073052042</v>
+        <v>0.03916717434809183</v>
       </c>
       <c r="N105" t="n">
-        <v>0.5707384344744886</v>
+        <v>0.5712733348241251</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0640044312093241</v>
+        <v>0.03917434584391833</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1525401127821891</v>
+        <v>0.1570404632284799</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06529912646681688</v>
+        <v>0.01779892633782153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2260432862986588</v>
+        <v>0.1570404632284799</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06567788535976556</v>
+        <v>0.01779892633782153</v>
       </c>
       <c r="L106" t="n">
-        <v>0.3950349817578144</v>
+        <v>0.3975864769339758</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06575767649878343</v>
+        <v>0.04014635370679413</v>
       </c>
       <c r="N106" t="n">
-        <v>0.5658774509654937</v>
+        <v>0.5738033382077543</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0656045419895572</v>
+        <v>0.04015370449001629</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1497236319089131</v>
+        <v>0.1577994460755794</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06689178808795875</v>
+        <v>0.01823304649240255</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2233989981288916</v>
+        <v>0.1577994460755794</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06727978500268667</v>
+        <v>0.01823304649240255</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3928375069453766</v>
+        <v>0.3955847248026658</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06736152226704645</v>
+        <v>0.04112553306549642</v>
       </c>
       <c r="N107" t="n">
-        <v>0.5619751107151577</v>
+        <v>0.566865936647947</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0672046527697903</v>
+        <v>0.04113306313611424</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1438793780485302</v>
+        <v>0.1585372790873658</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06848444970910063</v>
+        <v>0.01866716664698356</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2218058793121249</v>
+        <v>0.1585372790873658</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06888168464560777</v>
+        <v>0.01866716664698356</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3930508805454163</v>
+        <v>0.3955645755786029</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06896536803530946</v>
+        <v>0.04210471242419872</v>
       </c>
       <c r="N108" t="n">
-        <v>0.5591540140722265</v>
+        <v>0.5704754145653258</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06880476355002341</v>
+        <v>0.0421124217822122</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1510134620216088</v>
+        <v>0.1592542436917173</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0700771113302425</v>
+        <v>0.01910128680156457</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2224729324116123</v>
+        <v>0.1592542436917173</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07048358428852888</v>
+        <v>0.01910128680156457</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3919909997551559</v>
+        <v>0.3932401635552517</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07056921380357246</v>
+        <v>0.04308389178290101</v>
       </c>
       <c r="N109" t="n">
-        <v>0.5553367613854459</v>
+        <v>0.5634460563805123</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07040487433025651</v>
+        <v>0.04309178042831016</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1501319946487174</v>
+        <v>0.1599506213165119</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07166977295138438</v>
+        <v>0.01953540695614559</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2203091599906076</v>
+        <v>0.1599506213165119</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07208548393145001</v>
+        <v>0.01953540695614559</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3899737617718178</v>
+        <v>0.3922256230260767</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07217305957183547</v>
+        <v>0.04406307114160331</v>
       </c>
       <c r="N110" t="n">
-        <v>0.5531459530035614</v>
+        <v>0.5642921465141285</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07200498511048962</v>
+        <v>0.04407113907440812</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1462410867504246</v>
+        <v>0.1606266933896279</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07326243457252625</v>
+        <v>0.0199695271107266</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2197235646123646</v>
+        <v>0.1606266933896279</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0736873835743711</v>
+        <v>0.0199695271107266</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3863150637926246</v>
+        <v>0.3892350882845426</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07377690534009848</v>
+        <v>0.0450422505003056</v>
       </c>
       <c r="N111" t="n">
-        <v>0.5534041892753191</v>
+        <v>0.5636279693867964</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07360509589072273</v>
+        <v>0.04505049772050608</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1353468491472991</v>
+        <v>0.1612827413389433</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07485509619366813</v>
+        <v>0.02040364726530761</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2182251488401373</v>
+        <v>0.1612827413389433</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07528928321729222</v>
+        <v>0.02040364726530761</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3821308030147988</v>
+        <v>0.3913826936241139</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0753807511083615</v>
+        <v>0.0460214298590079</v>
       </c>
       <c r="N112" t="n">
-        <v>0.547934070549464</v>
+        <v>0.5576678094191382</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07520520667095583</v>
+        <v>0.04602985636660404</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1384553926599094</v>
+        <v>0.1619190465923364</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07644775781481</v>
+        <v>0.02083776741988862</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2159229152371792</v>
+        <v>0.1619190465923364</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07689118286021333</v>
+        <v>0.02083776741988862</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3802368766355628</v>
+        <v>0.3867825733382553</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07698459687662451</v>
+        <v>0.0470006092177102</v>
       </c>
       <c r="N113" t="n">
-        <v>0.5457581971747425</v>
+        <v>0.5571259510317756</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07680531745118892</v>
+        <v>0.04700921501270199</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1465728281088238</v>
+        <v>0.1625358905776852</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07804041943595189</v>
+        <v>0.02127188757446964</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2157258663667442</v>
+        <v>0.1625358905776852</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07849308250313444</v>
+        <v>0.02127188757446964</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3773491818521392</v>
+        <v>0.3866488617204312</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07858844264488751</v>
+        <v>0.04797978857641249</v>
       </c>
       <c r="N114" t="n">
-        <v>0.5424991694999</v>
+        <v>0.5537166786453308</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07840542823142202</v>
+        <v>0.04798857365879995</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1466541216612144</v>
+        <v>0.163133554722868</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07963308105709375</v>
+        <v>0.02170600772905065</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2129430047920863</v>
+        <v>0.163133554722868</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08009498214605555</v>
+        <v>0.02170600772905065</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3765836158617503</v>
+        <v>0.3873956930641063</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08019228841315053</v>
+        <v>0.04895896793511479</v>
       </c>
       <c r="N115" t="n">
-        <v>0.538876139178704</v>
+        <v>0.5521542766804259</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08000553901165512</v>
+        <v>0.04896793230489791</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1336092852684984</v>
+        <v>0.1637123204557629</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08122574267823564</v>
+        <v>0.02214012788363166</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2125813853751563</v>
+        <v>0.1637123204557629</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08169688178897667</v>
+        <v>0.02214012788363166</v>
       </c>
       <c r="L116" t="n">
-        <v>0.372638059164203</v>
+        <v>0.3852372016627453</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08179613418141354</v>
+        <v>0.04993814729381708</v>
       </c>
       <c r="N116" t="n">
-        <v>0.5356689060275703</v>
+        <v>0.5518530295576828</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08160564979188822</v>
+        <v>0.04994729095099587</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1384551520863972</v>
+        <v>0.1642724692042479</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08281840429937751</v>
+        <v>0.02257424803821268</v>
       </c>
       <c r="J117" t="n">
-        <v>0.209835049001052</v>
+        <v>0.1642724692042479</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08329878143189777</v>
+        <v>0.02257424803821268</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3725687227193636</v>
+        <v>0.3839875218098124</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08339997994967656</v>
+        <v>0.05091732665251938</v>
       </c>
       <c r="N117" t="n">
-        <v>0.5303085956214785</v>
+        <v>0.5490272216977233</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08320576057212133</v>
+        <v>0.05092664959709383</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1422116318987817</v>
+        <v>0.1648142823962014</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08441106592051939</v>
+        <v>0.02300836819279369</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2099329202885082</v>
+        <v>0.1648142823962014</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08490068107481889</v>
+        <v>0.02300836819279369</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3677153750812849</v>
+        <v>0.3812607877987728</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08500382571793956</v>
+        <v>0.05189650601122167</v>
       </c>
       <c r="N118" t="n">
-        <v>0.5253688425981798</v>
+        <v>0.5494911375211696</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08480587135235443</v>
+        <v>0.05190600824319178</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1278986344895224</v>
+        <v>0.1653380414595014</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08600372754166126</v>
+        <v>0.0234424883473747</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2081043306647294</v>
+        <v>0.1653380414595014</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08650258071774</v>
+        <v>0.0234424883473747</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3664298112187925</v>
+        <v>0.3835711339230904</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08660767148620256</v>
+        <v>0.05287568536992397</v>
       </c>
       <c r="N119" t="n">
-        <v>0.5244232815954256</v>
+        <v>0.5449590614486437</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08640598213258753</v>
+        <v>0.05288536688928974</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.12653606964249</v>
+        <v>0.165844027822026</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08759638916280314</v>
+        <v>0.02387660850195571</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2047786115569198</v>
+        <v>0.165844027822026</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08810448036066111</v>
+        <v>0.02387660850195571</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3624638261007125</v>
+        <v>0.3802326944762305</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08821151725446558</v>
+        <v>0.05385486472862627</v>
       </c>
       <c r="N120" t="n">
-        <v>0.5145455472509672</v>
+        <v>0.5436452779007674</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08800609291282063</v>
+        <v>0.0538647255353877</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1321438471415551</v>
+        <v>0.1663325229116534</v>
       </c>
       <c r="G121" t="n">
-        <v>0.089189050783945</v>
+        <v>0.02431072865653673</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2036850943922838</v>
+        <v>0.1663325229116534</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08970638000358222</v>
+        <v>0.02431072865653673</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3574692146958707</v>
+        <v>0.3830596037516571</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08981536302272859</v>
+        <v>0.05483404408732856</v>
       </c>
       <c r="N121" t="n">
-        <v>0.5138092742025557</v>
+        <v>0.5435640712981631</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08960620369305373</v>
+        <v>0.05484408418148566</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1377418767705884</v>
+        <v>0.1668038081562617</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09078171240508688</v>
+        <v>0.02474484881111774</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2012531105980256</v>
+        <v>0.1668038081562617</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09130827964650334</v>
+        <v>0.02474484881111774</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3548977719730932</v>
+        <v>0.3793659960428349</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09141920879099161</v>
+        <v>0.05581322344603085</v>
       </c>
       <c r="N122" t="n">
-        <v>0.5080880970879427</v>
+        <v>0.5442297260614525</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09120631447328684</v>
+        <v>0.05582344282758362</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1273500683134605</v>
+        <v>0.1672581649837293</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09237437402622875</v>
+        <v>0.02517896896569876</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1998119916013497</v>
+        <v>0.1672581649837293</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09291017928942444</v>
+        <v>0.02517896896569876</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3499012929012055</v>
+        <v>0.3802071652121158</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09302305455925461</v>
+        <v>0.05679240280473315</v>
       </c>
       <c r="N123" t="n">
-        <v>0.504155650544879</v>
+        <v>0.5436112937043094</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09280642525351994</v>
+        <v>0.05680280147368157</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1249883315540422</v>
+        <v>0.167695874821934</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09396703564737063</v>
+        <v>0.02561308912027977</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1961910688294601</v>
+        <v>0.167695874821934</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09451207893234556</v>
+        <v>0.02561308912027977</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3482315724490336</v>
+        <v>0.3827586990186008</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09462690032751762</v>
+        <v>0.05777158216343545</v>
       </c>
       <c r="N124" t="n">
-        <v>0.4940855692111161</v>
+        <v>0.5394065065157858</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09440653603375304</v>
+        <v>0.05778216011977953</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.130676576276204</v>
+        <v>0.1681172190987541</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0955596972685125</v>
+        <v>0.02604720927486078</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1950196737095614</v>
+        <v>0.1681172190987541</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09611397857526667</v>
+        <v>0.02604720927486078</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3426404055854037</v>
+        <v>0.3794154498475743</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09623074609578064</v>
+        <v>0.05875076152213774</v>
       </c>
       <c r="N125" t="n">
-        <v>0.4918514877244053</v>
+        <v>0.5414117698438483</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09600664681398614</v>
+        <v>0.05876151876587749</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1204134901566504</v>
+        <v>0.1685224792420678</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09715235888965439</v>
+        <v>0.0264813294294418</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1933271376688578</v>
+        <v>0.1685224792420678</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09771587821818778</v>
+        <v>0.0264813294294418</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3403795872791415</v>
+        <v>0.3805769487376299</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09783459186404364</v>
+        <v>0.05972994088084004</v>
       </c>
       <c r="N126" t="n">
-        <v>0.4895270407224978</v>
+        <v>0.5393282793004854</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09760675759421926</v>
+        <v>0.05974087741197544</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1310544278398269</v>
+        <v>0.1689119366797532</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09874502051079626</v>
+        <v>0.0269154495840228</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1918763523285189</v>
+        <v>0.1689119366797532</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09931777786110889</v>
+        <v>0.0269154495840228</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3378370313656631</v>
+        <v>0.3796427267273609</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09943843763230664</v>
+        <v>0.06070912023954233</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4830288758853275</v>
+        <v>0.5363572304976865</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09920686837445236</v>
+        <v>0.0607202360580734</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.119591543630619</v>
+        <v>0.1692858728396883</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1003376821319381</v>
+        <v>0.02734956973860382</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1886622977789187</v>
+        <v>0.1692858728396883</v>
       </c>
       <c r="K128" t="n">
-        <v>0.10091967750403</v>
+        <v>0.02734956973860382</v>
       </c>
       <c r="L128" t="n">
-        <v>0.333238140074377</v>
+        <v>0.3817123148553613</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1010422834005697</v>
+        <v>0.06168829959824464</v>
       </c>
       <c r="N128" t="n">
-        <v>0.4793996353408255</v>
+        <v>0.5356998190474398</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1008069791546855</v>
+        <v>0.06169959470417136</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1150533383904701</v>
+        <v>0.1696445691497516</v>
       </c>
       <c r="G129" t="n">
-        <v>0.10193034375308</v>
+        <v>0.02778368989318483</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1876049877711443</v>
+        <v>0.1696445691497516</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1025215771469511</v>
+        <v>0.02778368989318483</v>
       </c>
       <c r="L129" t="n">
-        <v>0.330974352129782</v>
+        <v>0.3816852441602244</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1026461291688327</v>
+        <v>0.06266747895694692</v>
       </c>
       <c r="N129" t="n">
-        <v>0.4738263857702086</v>
+        <v>0.5360572405617344</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1024070899349186</v>
+        <v>0.06267895335026932</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1124683129808238</v>
+        <v>0.1699883070378209</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1035230053742219</v>
+        <v>0.02821781004776585</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1856464102518316</v>
+        <v>0.1699883070378209</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1041234767898722</v>
+        <v>0.02821781004776585</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3269198120449257</v>
+        <v>0.3792610456805435</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1042499749370957</v>
+        <v>0.06364665831564922</v>
       </c>
       <c r="N130" t="n">
-        <v>0.464714535178989</v>
+        <v>0.5377306906525595</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1040072007151517</v>
+        <v>0.06365831199636729</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1218649682631234</v>
+        <v>0.1703173679317745</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1051156669953638</v>
+        <v>0.02865193020234686</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1822285531676159</v>
+        <v>0.1703173679317745</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1057253764327933</v>
+        <v>0.02865193020234686</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3205486643328559</v>
+        <v>0.3805392504549125</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1058538207053587</v>
+        <v>0.06462583767435152</v>
       </c>
       <c r="N131" t="n">
-        <v>0.458769491572679</v>
+        <v>0.5321213649319034</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1056073114953848</v>
+        <v>0.06463767064246524</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1162718050988123</v>
+        <v>0.1706320332594906</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1067083286165056</v>
+        <v>0.02908605035692787</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1812934044651331</v>
+        <v>0.1706320332594906</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1073272760757144</v>
+        <v>0.02908605035692787</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3171350535066206</v>
+        <v>0.3801193895219246</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1074576664736217</v>
+        <v>0.06560501703305381</v>
       </c>
       <c r="N132" t="n">
-        <v>0.4548966629567911</v>
+        <v>0.5329304590117554</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1072074222756179</v>
+        <v>0.06561702928856321</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1127173243493341</v>
+        <v>0.1709325844488473</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1083009902376475</v>
+        <v>0.02952017051150889</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1774829520910189</v>
+        <v>0.1709325844488473</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1089291757186355</v>
+        <v>0.02952017051150889</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3162531240792668</v>
+        <v>0.3815009939201737</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1090615122418847</v>
+        <v>0.06658419639175611</v>
       </c>
       <c r="N133" t="n">
-        <v>0.4502014573368373</v>
+        <v>0.5303591685041041</v>
       </c>
       <c r="O133" t="n">
-        <v>0.108807533055851</v>
+        <v>0.06659638793466116</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1142300268761322</v>
+        <v>0.1712193029277226</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1098936518587894</v>
+        <v>0.0299542906660899</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1754391839919089</v>
+        <v>0.1712193029277226</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1105310753615567</v>
+        <v>0.0299542906660899</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3088770205638428</v>
+        <v>0.3822835946882533</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1106653580101477</v>
+        <v>0.0675633757504584</v>
       </c>
       <c r="N134" t="n">
-        <v>0.44328928271833</v>
+        <v>0.5305086890209383</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1104076438360841</v>
+        <v>0.06757574658075911</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1068384135406499</v>
+        <v>0.1714924701239949</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1114863134799313</v>
+        <v>0.03038841082067091</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1727040881144387</v>
+        <v>0.1714924701239949</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1121329750044778</v>
+        <v>0.03038841082067091</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3050808874733955</v>
+        <v>0.3789667228647564</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1122692037784107</v>
+        <v>0.0685425551091607</v>
       </c>
       <c r="N135" t="n">
-        <v>0.4358655471067814</v>
+        <v>0.5318802161742471</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1120077546163172</v>
+        <v>0.06855510522685708</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1105709852043308</v>
+        <v>0.1717523674655421</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1130789751010731</v>
+        <v>0.03082253097525192</v>
       </c>
       <c r="J136" t="n">
-        <v>0.170919652405244</v>
+        <v>0.1717523674655421</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1137348746473989</v>
+        <v>0.03082253097525192</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3049388693209734</v>
+        <v>0.3801499094882771</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1138730495466737</v>
+        <v>0.069521734467863</v>
       </c>
       <c r="N136" t="n">
-        <v>0.4303356585077042</v>
+        <v>0.5288749455760191</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1136078653965503</v>
+        <v>0.06953446387295503</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1154562427286182</v>
+        <v>0.1719992763802425</v>
       </c>
       <c r="G137" t="n">
-        <v>0.114671636722215</v>
+        <v>0.03125665112983294</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1708278648109605</v>
+        <v>0.1719992763802425</v>
       </c>
       <c r="K137" t="n">
-        <v>0.11533677429032</v>
+        <v>0.03125665112983294</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3011251106196235</v>
+        <v>0.3795326855974087</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1154768953149368</v>
+        <v>0.07050091382656529</v>
       </c>
       <c r="N137" t="n">
-        <v>0.4296050249266103</v>
+        <v>0.5324940728382433</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1152079761767834</v>
+        <v>0.07051382251905298</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1085226869749557</v>
+        <v>0.1722334782959743</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1162642983433569</v>
+        <v>0.03169077128441395</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1678707132782238</v>
+        <v>0.1722334782959743</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1169386739332411</v>
+        <v>0.03169077128441395</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2978137558823939</v>
+        <v>0.3807145822307448</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1170807410831998</v>
+        <v>0.07148009318526759</v>
       </c>
       <c r="N138" t="n">
-        <v>0.4212790543690124</v>
+        <v>0.5273387935729086</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1168080869570165</v>
+        <v>0.07149318116515095</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1007988188047866</v>
+        <v>0.1724552546406155</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1178569599644988</v>
+        <v>0.03212489143899497</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1669901857536696</v>
+        <v>0.1724552546406155</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1185405735761622</v>
+        <v>0.03212489143899497</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2926789496223322</v>
+        <v>0.3810951304268789</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1186845868514628</v>
+        <v>0.07245927254396989</v>
       </c>
       <c r="N139" t="n">
-        <v>0.4235631548404224</v>
+        <v>0.5305103033920037</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1184081977372496</v>
+        <v>0.0724725398112489</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1133131390795543</v>
+        <v>0.1726648868420443</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1194496215856406</v>
+        <v>0.03255901159357597</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1663282701839336</v>
+        <v>0.1726648868420443</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1201424732190833</v>
+        <v>0.03255901159357597</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2915948363524859</v>
+        <v>0.3790738612244045</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1202884326197258</v>
+        <v>0.07343845190267217</v>
       </c>
       <c r="N140" t="n">
-        <v>0.4207627343463527</v>
+        <v>0.5296097979075174</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1200083085174827</v>
+        <v>0.07345189845734686</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1080941486607024</v>
+        <v>0.1728626563281389</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1210422832067825</v>
+        <v>0.03299313174815699</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1661269545156514</v>
+        <v>0.1728626563281389</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1217443728620044</v>
+        <v>0.03299313174815699</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2934355605859028</v>
+        <v>0.3807503056619151</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1218922783879888</v>
+        <v>0.07441763126137448</v>
       </c>
       <c r="N141" t="n">
-        <v>0.4180832008923157</v>
+        <v>0.5291384727314388</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1216084192977158</v>
+        <v>0.07443125710344482</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1060965084680677</v>
+        <v>0.1730488445267773</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1226349448279244</v>
+        <v>0.03342725190273801</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1653279627916631</v>
+        <v>0.1730488445267773</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1233462725049256</v>
+        <v>0.03342725190273801</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2913752668356304</v>
+        <v>0.3793239947780045</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1234961241562518</v>
+        <v>0.07539681062007676</v>
       </c>
       <c r="N142" t="n">
-        <v>0.4194155077227587</v>
+        <v>0.5238975234757566</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1232085300779489</v>
+        <v>0.07541061574954278</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1011497144864162</v>
+        <v>0.1732237328658379</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1242276064490663</v>
+        <v>0.03386137205731901</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1653620993191858</v>
+        <v>0.1732237328658379</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1249481721478467</v>
+        <v>0.03386137205731901</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2912148987943674</v>
+        <v>0.382094459611266</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1250999699245148</v>
+        <v>0.07637598997877908</v>
       </c>
       <c r="N143" t="n">
-        <v>0.4178228131872984</v>
+        <v>0.5276881457524597</v>
       </c>
       <c r="O143" t="n">
-        <v>0.124808640858182</v>
+        <v>0.07638997439564074</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1052433691735661</v>
+        <v>0.1733876027731986</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1258202680702081</v>
+        <v>0.03429549221190003</v>
       </c>
       <c r="J144" t="n">
-        <v>0.165057634738996</v>
+        <v>0.1733876027731986</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1265500717907678</v>
+        <v>0.03429549221190003</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2916676963892715</v>
+        <v>0.380361231200293</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1267038156927778</v>
+        <v>0.07735516933748136</v>
       </c>
       <c r="N144" t="n">
-        <v>0.4154833811540199</v>
+        <v>0.5224115351735366</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1264087516384151</v>
+        <v>0.07736933304173869</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1073753782966004</v>
+        <v>0.1735407356767377</v>
       </c>
       <c r="G145" t="n">
-        <v>0.12741292969135</v>
+        <v>0.03472961236648104</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1661114837920696</v>
+        <v>0.1735407356767377</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1281519714336889</v>
+        <v>0.03472961236648104</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2923241355962489</v>
+        <v>0.3810238405836794</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1283076614610408</v>
+        <v>0.07833434869618365</v>
       </c>
       <c r="N145" t="n">
-        <v>0.4164894662810753</v>
+        <v>0.5219688873509767</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1280088624186482</v>
+        <v>0.07834869168783666</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1125436476226023</v>
+        <v>0.1736834130043333</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1290055913124919</v>
+        <v>0.03516373252106206</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1649205612193829</v>
+        <v>0.1736834130043333</v>
       </c>
       <c r="K146" t="n">
-        <v>0.12975387107661</v>
+        <v>0.03516373252106206</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2929787683034891</v>
+        <v>0.3809818188000185</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1299115072293039</v>
+        <v>0.07931352805488597</v>
       </c>
       <c r="N146" t="n">
-        <v>0.4174333232266159</v>
+        <v>0.5269613978967688</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1296089731988813</v>
+        <v>0.07932805033393461</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1117460829186549</v>
+        <v>0.1738159161838636</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1305982529336338</v>
+        <v>0.03559785267564307</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1668817817619118</v>
+        <v>0.1738159161838636</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1313557707195311</v>
+        <v>0.03559785267564307</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2918261463991818</v>
+        <v>0.3789346968879039</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1315153529975669</v>
+        <v>0.08029270741358825</v>
       </c>
       <c r="N147" t="n">
-        <v>0.4200072066487937</v>
+        <v>0.5213902624229014</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1312090839791144</v>
+        <v>0.08030740898003258</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1089805899518412</v>
+        <v>0.1739385266432065</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1321909145547756</v>
+        <v>0.03603197283022408</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1653920601606323</v>
+        <v>0.1739385266432065</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1329576703624522</v>
+        <v>0.03603197283022408</v>
       </c>
       <c r="L148" t="n">
-        <v>0.292860821771517</v>
+        <v>0.3797743574674223</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1331191987658299</v>
+        <v>0.08127188677229054</v>
       </c>
       <c r="N148" t="n">
-        <v>0.41690337120576</v>
+        <v>0.5215543594508739</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1328091947593475</v>
+        <v>0.08128676762613053</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1162450744892444</v>
+        <v>0.1740515258102405</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1337835761759175</v>
+        <v>0.0364660929848051</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1671483111565207</v>
+        <v>0.1740515258102405</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1345595700053733</v>
+        <v>0.0364660929848051</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2943773463086842</v>
+        <v>0.3799608944955307</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1347230445340929</v>
+        <v>0.08225106613099284</v>
       </c>
       <c r="N149" t="n">
-        <v>0.4193140715556672</v>
+        <v>0.5234406800116124</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1344093055395806</v>
+        <v>0.08226612627222848</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1095374422979474</v>
+        <v>0.1741551951128435</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1353762377970594</v>
+        <v>0.03690021313938611</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1676474494905531</v>
+        <v>0.1741551951128435</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1361614696482945</v>
+        <v>0.03690021313938611</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2929702718988732</v>
+        <v>0.3807907374433273</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1363268903023559</v>
+        <v>0.08323024548969514</v>
       </c>
       <c r="N150" t="n">
-        <v>0.4205315623566664</v>
+        <v>0.5222461564431207</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1360094163198137</v>
+        <v>0.08324548491832644</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1128555991450335</v>
+        <v>0.1742498159788938</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1369688994182013</v>
+        <v>0.03733433329396712</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1688863899037054</v>
+        <v>0.1742498159788938</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1377633692912155</v>
+        <v>0.03733433329396712</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2964341504302736</v>
+        <v>0.3808663777727926</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1379307360706189</v>
+        <v>0.08420942484839744</v>
       </c>
       <c r="N151" t="n">
-        <v>0.4215480982669099</v>
+        <v>0.5242697725110603</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1376095271000468</v>
+        <v>0.0842248435644244</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1121974507975857</v>
+        <v>0.1743356698362694</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1385615610393431</v>
+        <v>0.03776845344854813</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1679620471369537</v>
+        <v>0.1743356698362694</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1393652689341367</v>
+        <v>0.03776845344854813</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2976635337910754</v>
+        <v>0.3788903069459071</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1395345818388819</v>
+        <v>0.08518860420709973</v>
       </c>
       <c r="N152" t="n">
-        <v>0.426355933944549</v>
+        <v>0.5191105119810931</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1392096378802799</v>
+        <v>0.08520420221052236</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1085609030226871</v>
+        <v>0.1744130381128486</v>
       </c>
       <c r="G153" t="n">
-        <v>0.140154222660485</v>
+        <v>0.03820257360312915</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1678713359312742</v>
+        <v>0.1744130381128486</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1409671685770578</v>
+        <v>0.03820257360312915</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2960529738694682</v>
+        <v>0.3803650164246513</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1411384276071449</v>
+        <v>0.08616778356580201</v>
       </c>
       <c r="N153" t="n">
-        <v>0.4277473240477355</v>
+        <v>0.5224673586188802</v>
       </c>
       <c r="O153" t="n">
-        <v>0.140809748660513</v>
+        <v>0.08618356085662032</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1159739166003059</v>
+        <v>0.1744822022365095</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1417468842816269</v>
+        <v>0.03863669375771016</v>
       </c>
       <c r="J154" t="n">
-        <v>0.168911171027643</v>
+        <v>0.1744822022365095</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1425690682199789</v>
+        <v>0.03863669375771016</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2991970225536418</v>
+        <v>0.3787929976710051</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1427422733754079</v>
+        <v>0.08714696292450433</v>
       </c>
       <c r="N154" t="n">
-        <v>0.4249145232346212</v>
+        <v>0.5237392961900833</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1424098594407461</v>
+        <v>0.08716291950271828</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1156924993845418</v>
+        <v>0.1745434436351301</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1433395459027688</v>
+        <v>0.03907081391229118</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1688356042505506</v>
+        <v>0.1745434436351301</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1441709678629</v>
+        <v>0.03907081391229118</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2992804867464612</v>
+        <v>0.3786767421469492</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1443461191436709</v>
+        <v>0.08812614228320662</v>
       </c>
       <c r="N155" t="n">
-        <v>0.4265782936181629</v>
+        <v>0.5234253084603637</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1440099702209792</v>
+        <v>0.08814227814881624</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.109724748961419</v>
+        <v>0.1745970437365887</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1449322075239106</v>
+        <v>0.03950493406687219</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1702620630168859</v>
+        <v>0.1745970437365887</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1457728675058211</v>
+        <v>0.03950493406687219</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3004300747871076</v>
+        <v>0.3798187413144641</v>
       </c>
       <c r="M156" t="n">
-        <v>0.145949964911934</v>
+        <v>0.08910532164190892</v>
       </c>
       <c r="N156" t="n">
-        <v>0.4295061395345142</v>
+        <v>0.520324379195383</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1456100810012123</v>
+        <v>0.08912163679491419</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1100074454937871</v>
+        <v>0.1746432839687635</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1465248691450525</v>
+        <v>0.0399390542214532</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1735133645992866</v>
+        <v>0.1746432839687635</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1473747671487422</v>
+        <v>0.0399390542214532</v>
       </c>
       <c r="L157" t="n">
-        <v>0.3049505151198502</v>
+        <v>0.3780214866355298</v>
       </c>
       <c r="M157" t="n">
-        <v>0.147553810680197</v>
+        <v>0.0900845010006112</v>
       </c>
       <c r="N157" t="n">
-        <v>0.4388734874504735</v>
+        <v>0.5216354921608027</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1472101917814455</v>
+        <v>0.09010099544101216</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1134773691444963</v>
+        <v>0.1746824457595326</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1481175307661944</v>
+        <v>0.04037317437603422</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1755963724743584</v>
+        <v>0.1746824457595326</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1489766667916634</v>
+        <v>0.04037317437603422</v>
       </c>
       <c r="L158" t="n">
-        <v>0.307677342398624</v>
+        <v>0.3765874695721268</v>
       </c>
       <c r="M158" t="n">
-        <v>0.14915765644846</v>
+        <v>0.0910636803593135</v>
       </c>
       <c r="N158" t="n">
-        <v>0.4394465241896907</v>
+        <v>0.5180576311222843</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1488103025616785</v>
+        <v>0.09108035408711011</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1240713000763963</v>
+        <v>0.174714810536774</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1497101923873363</v>
+        <v>0.04080729453061522</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1782179501187078</v>
+        <v>0.174714810536774</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1505785664345844</v>
+        <v>0.04080729453061522</v>
       </c>
       <c r="L159" t="n">
-        <v>0.3130460912773635</v>
+        <v>0.3769191815862356</v>
       </c>
       <c r="M159" t="n">
-        <v>0.150761502216723</v>
+        <v>0.0920428597180158</v>
       </c>
       <c r="N159" t="n">
-        <v>0.4495914365758149</v>
+        <v>0.5206897798454894</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1504104133419117</v>
+        <v>0.09205971273320808</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1217260184523369</v>
+        <v>0.1747406597283659</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1513028540084781</v>
+        <v>0.04124141468519624</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1788849610089404</v>
+        <v>0.1747406597283659</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1521804660775055</v>
+        <v>0.04124141468519624</v>
       </c>
       <c r="L160" t="n">
-        <v>0.3165922964100037</v>
+        <v>0.3767191141398363</v>
       </c>
       <c r="M160" t="n">
-        <v>0.152365347984986</v>
+        <v>0.09302203907671809</v>
       </c>
       <c r="N160" t="n">
-        <v>0.4550744114324963</v>
+        <v>0.5185309220960792</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1520105241221447</v>
+        <v>0.09303907137930603</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.111378304435168</v>
+        <v>0.1747602747621868</v>
       </c>
       <c r="G161" t="n">
-        <v>0.15289551562962</v>
+        <v>0.04167553483977725</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1818042686216624</v>
+        <v>0.1747602747621868</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1537823657204267</v>
+        <v>0.04167553483977725</v>
       </c>
       <c r="L161" t="n">
-        <v>0.3208514924504794</v>
+        <v>0.3757897586949098</v>
       </c>
       <c r="M161" t="n">
-        <v>0.153969193753249</v>
+        <v>0.09400121843542039</v>
       </c>
       <c r="N161" t="n">
-        <v>0.4578616355833844</v>
+        <v>0.5191800416397154</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1536106349023778</v>
+        <v>0.09401843002540398</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1179649381877394</v>
+        <v>0.1747739370661142</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1544881772507619</v>
+        <v>0.04210965499435827</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1834827364334796</v>
+        <v>0.1747739370661142</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1553842653633478</v>
+        <v>0.04210965499435827</v>
       </c>
       <c r="L162" t="n">
-        <v>0.3233592140527257</v>
+        <v>0.375833606713436</v>
       </c>
       <c r="M162" t="n">
-        <v>0.155573039521512</v>
+        <v>0.09498039779412269</v>
       </c>
       <c r="N162" t="n">
-        <v>0.4660192958521293</v>
+        <v>0.5200361222420594</v>
       </c>
       <c r="O162" t="n">
-        <v>0.155210745682611</v>
+        <v>0.09499778867150194</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1154226998729012</v>
+        <v>0.1747819280680268</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1560808388719038</v>
+        <v>0.04254377514893928</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1869272279209984</v>
+        <v>0.1747819280680268</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1569861650062689</v>
+        <v>0.04254377514893928</v>
       </c>
       <c r="L163" t="n">
-        <v>0.327250995870677</v>
+        <v>0.3729531496573952</v>
       </c>
       <c r="M163" t="n">
-        <v>0.157176885289775</v>
+        <v>0.09595957715282498</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4682135790623804</v>
+        <v>0.516498147668773</v>
       </c>
       <c r="O163" t="n">
-        <v>0.156810856462844</v>
+        <v>0.0959771473175999</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1206899187187822</v>
+        <v>0.1747845291958025</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1576735004930456</v>
+        <v>0.04297789530352029</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1889446065608245</v>
+        <v>0.1747845291958025</v>
       </c>
       <c r="K164" t="n">
-        <v>0.15858806464919</v>
+        <v>0.04297789530352029</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3328623725582684</v>
+        <v>0.3731508789887681</v>
       </c>
       <c r="M164" t="n">
-        <v>0.158780731058038</v>
+        <v>0.09693875651152728</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4733106720377875</v>
+        <v>0.5194651016855171</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1584109672430772</v>
+        <v>0.09695650596369786</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1178500556116699</v>
+        <v>0.1747845291958026</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1592661621141875</v>
+        <v>0.04297789530352029</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1901909501355141</v>
+        <v>0.1747845291958026</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1601899642921111</v>
+        <v>0.04297789530352029</v>
       </c>
       <c r="L165" t="n">
-        <v>0.3322806608655358</v>
+        <v>0.3742292861695348</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1603845768263011</v>
+        <v>0.09791793587022958</v>
       </c>
       <c r="N165" t="n">
-        <v>0.4818584326237429</v>
+        <v>0.5160359680579536</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1600110780233102</v>
+        <v>0.09793586460979582</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1219821671957834</v>
+        <v>0.1719622428901985</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1608588237353294</v>
+        <v>0.04297762677505628</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1918625761480951</v>
+        <v>0.1719622428901985</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1617918639350322</v>
+        <v>0.04297762677505628</v>
       </c>
       <c r="L166" t="n">
-        <v>0.3372340814481588</v>
+        <v>0.3710908626616762</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1619884225945641</v>
+        <v>0.09889711522893187</v>
       </c>
       <c r="N166" t="n">
-        <v>0.483252954827157</v>
+        <v>0.516409730551744</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1616111888035434</v>
+        <v>0.09891522325589377</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1330882589946354</v>
+        <v>0.1691713883855564</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1624514853564713</v>
+        <v>0.04297735824659226</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1944944206401522</v>
+        <v>0.1691713883855564</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1633937635779533</v>
+        <v>0.04297735824659226</v>
       </c>
       <c r="L167" t="n">
-        <v>0.3388167185643946</v>
+        <v>0.3717380999271719</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1635922683628271</v>
+        <v>0.09987629458763417</v>
       </c>
       <c r="N167" t="n">
-        <v>0.4853483091011201</v>
+        <v>0.5161853729325496</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1632112995837764</v>
+        <v>0.09989458190199174</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1231703365317382</v>
+        <v>0.1664134083834595</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1640441469776131</v>
+        <v>0.04297708971812825</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1950894381825283</v>
+        <v>0.1664134083834595</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1649956632208744</v>
+        <v>0.04297708971812825</v>
       </c>
       <c r="L168" t="n">
-        <v>0.3450337895500256</v>
+        <v>0.3707734894280028</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1651961141310901</v>
+        <v>0.1008554739463365</v>
       </c>
       <c r="N168" t="n">
-        <v>0.4907519127033131</v>
+        <v>0.5152618789660321</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1648114103640096</v>
+        <v>0.1008739405480897</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1292304053306041</v>
+        <v>0.1636897455852495</v>
       </c>
       <c r="G169" t="n">
-        <v>0.165636808598755</v>
+        <v>0.04297682118966423</v>
       </c>
       <c r="J169" t="n">
-        <v>0.196950583346066</v>
+        <v>0.1636897455852495</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1665975628637955</v>
+        <v>0.04297682118966423</v>
       </c>
       <c r="L169" t="n">
-        <v>0.345790511740834</v>
+        <v>0.371099522626149</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1667999598993531</v>
+        <v>0.1018346533050388</v>
       </c>
       <c r="N169" t="n">
-        <v>0.4949711828914172</v>
+        <v>0.519838232417853</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1664115211442427</v>
+        <v>0.1018532991941877</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1232704709147459</v>
+        <v>0.1610018426925066</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1672294702198969</v>
+        <v>0.04297655266120021</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1987808107016086</v>
+        <v>0.1610018426925066</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1681994625067167</v>
+        <v>0.04297655266120021</v>
       </c>
       <c r="L170" t="n">
-        <v>0.346392102472602</v>
+        <v>0.3692186909835912</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1684038056676161</v>
+        <v>0.1028138326637411</v>
       </c>
       <c r="N170" t="n">
-        <v>0.4997135369231132</v>
+        <v>0.5190134170536733</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1680116319244758</v>
+        <v>0.1028326578402856</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1252925388076757</v>
+        <v>0.1583511424065757</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1688221318410388</v>
+        <v>0.04297628413273619</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2000830748199987</v>
+        <v>0.1583511424065757</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1698013621496378</v>
+        <v>0.04297628413273619</v>
       </c>
       <c r="L171" t="n">
-        <v>0.351043779081112</v>
+        <v>0.3657334859623093</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1700076514358791</v>
+        <v>0.1037930120224433</v>
       </c>
       <c r="N171" t="n">
-        <v>0.5023863920560818</v>
+        <v>0.5162864166391553</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1696117427047089</v>
+        <v>0.1038120164863836</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1272986145329061</v>
+        <v>0.1557390874290338</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1704147934621806</v>
+        <v>0.04297601560427217</v>
       </c>
       <c r="J172" t="n">
-        <v>0.200460330272079</v>
+        <v>0.1557390874290338</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1714032617925589</v>
+        <v>0.04297601560427217</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3557507589021465</v>
+        <v>0.3665463990242842</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1716114972041421</v>
+        <v>0.1047721913811456</v>
       </c>
       <c r="N172" t="n">
-        <v>0.5057971655480044</v>
+        <v>0.5167562149399597</v>
       </c>
       <c r="O172" t="n">
-        <v>0.171211853484942</v>
+        <v>0.1047913751324815</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1392907036139495</v>
+        <v>0.1531671204612289</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1720074550833225</v>
+        <v>0.04297574707580815</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2028155316286926</v>
+        <v>0.1531671204612289</v>
       </c>
       <c r="K173" t="n">
-        <v>0.17300516143548</v>
+        <v>0.04297574707580815</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3561182592714874</v>
+        <v>0.3670599216314956</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1732153429724051</v>
+        <v>0.1057513707398479</v>
       </c>
       <c r="N173" t="n">
-        <v>0.5112532746565615</v>
+        <v>0.5190217957217487</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1728119642651751</v>
+        <v>0.1057707337785795</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1412708115743182</v>
+        <v>0.1506366842047347</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1736001167044644</v>
+        <v>0.04297547854734414</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2038516334606822</v>
+        <v>0.1506366842047347</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1746070610784011</v>
+        <v>0.04297547854734414</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3604514975249174</v>
+        <v>0.3664765452459245</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1748191887406682</v>
+        <v>0.1067305500985502</v>
       </c>
       <c r="N174" t="n">
-        <v>0.5151621366394339</v>
+        <v>0.5141821427501831</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1744120750454082</v>
+        <v>0.1067500924246775</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1352409439375249</v>
+        <v>0.148149221360903</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1751927783256063</v>
+        <v>0.04297521001888012</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2055715903388908</v>
+        <v>0.148149221360903</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1762089607213222</v>
+        <v>0.04297521001888012</v>
       </c>
       <c r="L175" t="n">
-        <v>0.3596556909982183</v>
+        <v>0.3625987613295511</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1764230345089312</v>
+        <v>0.1077097294572525</v>
       </c>
       <c r="N175" t="n">
-        <v>0.5193311687543026</v>
+        <v>0.517536239790925</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1760121858256413</v>
+        <v>0.1077294510707754</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1322154772939277</v>
+        <v>0.1457061746313035</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1767854399467481</v>
+        <v>0.04297494149041611</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2075784066537006</v>
+        <v>0.1457061746313035</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1778108603642433</v>
+        <v>0.04297494149041611</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3650360570271728</v>
+        <v>0.3652290613443556</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1780268802771942</v>
+        <v>0.1086889088159548</v>
       </c>
       <c r="N176" t="n">
-        <v>0.5206704189368543</v>
+        <v>0.5157830706096355</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1776122966058744</v>
+        <v>0.1087088097168734</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1332460793363188</v>
+        <v>0.1433089867172919</v>
       </c>
       <c r="G177" t="n">
-        <v>0.17837810156789</v>
+        <v>0.04297467296195209</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2083363386883751</v>
+        <v>0.1433089867172919</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1794127600071644</v>
+        <v>0.04297467296195209</v>
       </c>
       <c r="L177" t="n">
-        <v>0.3672862409652407</v>
+        <v>0.3646699367523186</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1796307260454572</v>
+        <v>0.1096680881746571</v>
       </c>
       <c r="N177" t="n">
-        <v>0.5244620938294957</v>
+        <v>0.5132216189719764</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1792124073861075</v>
+        <v>0.1096881683629713</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1383087325721974</v>
+        <v>0.1409591003204339</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1799707631890319</v>
+        <v>0.04297440443348807</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2087666813183571</v>
+        <v>0.1409591003204339</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1810146596500855</v>
+        <v>0.04297440443348807</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3685728363529493</v>
+        <v>0.3611238790154201</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1812345718137202</v>
+        <v>0.1106472675333594</v>
       </c>
       <c r="N178" t="n">
-        <v>0.5263233612682029</v>
+        <v>0.5139508686436087</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1808125181663406</v>
+        <v>0.1106675270090693</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1403689856448185</v>
+        <v>0.1386579581420893</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1815634248101738</v>
+        <v>0.04297413590502405</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2114186802276269</v>
+        <v>0.1386579581420893</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1826165592930067</v>
+        <v>0.04297413590502405</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3698069797643453</v>
+        <v>0.3603933795956409</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1828384175819832</v>
+        <v>0.1116264468920617</v>
       </c>
       <c r="N179" t="n">
-        <v>0.5341268058480452</v>
+        <v>0.5141698033901945</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1824126289465737</v>
+        <v>0.1116468856551672</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.132392387197437</v>
+        <v>0.1364070028838199</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1831560864313156</v>
+        <v>0.04297386737656004</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2122415811001646</v>
+        <v>0.1364070028838199</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1842184589359278</v>
+        <v>0.04297386737656004</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3758990465726514</v>
+        <v>0.3589809299549612</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1844422633502462</v>
+        <v>0.112605626250764</v>
       </c>
       <c r="N180" t="n">
-        <v>0.5378450121640919</v>
+        <v>0.5162774069773948</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1840127397268068</v>
+        <v>0.1126262443012652</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1483444858733078</v>
+        <v>0.1342076772469895</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1847487480524575</v>
+        <v>0.04297359884809602</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2132846296199504</v>
+        <v>0.1342076772469895</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1858203585788489</v>
+        <v>0.04297359884809602</v>
       </c>
       <c r="L181" t="n">
-        <v>0.3773594121510909</v>
+        <v>0.3612890215553612</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1860461091185092</v>
+        <v>0.1135848056094663</v>
       </c>
       <c r="N181" t="n">
-        <v>0.5391505648114119</v>
+        <v>0.5153726631708713</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1856128505070399</v>
+        <v>0.1136056029473631</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.150190830315686</v>
+        <v>0.1320614239331553</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1863414096735994</v>
+        <v>0.042973330319632</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2151970714709645</v>
+        <v>0.1320614239331553</v>
       </c>
       <c r="K182" t="n">
-        <v>0.18742225822177</v>
+        <v>0.042973330319632</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3790984518728862</v>
+        <v>0.3596201458588215</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1876499548867722</v>
+        <v>0.1145639849681686</v>
       </c>
       <c r="N182" t="n">
-        <v>0.5419160483850748</v>
+        <v>0.5115545557362856</v>
       </c>
       <c r="O182" t="n">
-        <v>0.187212961287273</v>
+        <v>0.1145849615934611</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1368969691678263</v>
+        <v>0.1299696856437308</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1879340712947413</v>
+        <v>0.04297306179116799</v>
       </c>
       <c r="J183" t="n">
-        <v>0.216728152337187</v>
+        <v>0.1299696856437308</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1890241578646911</v>
+        <v>0.04297306179116799</v>
       </c>
       <c r="L183" t="n">
-        <v>0.3819265411112603</v>
+        <v>0.3586767943273223</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1892538006550352</v>
+        <v>0.1155431643268709</v>
       </c>
       <c r="N183" t="n">
-        <v>0.5467140474801501</v>
+        <v>0.513022068439299</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1888130720675061</v>
+        <v>0.1155643202395591</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1484284510729838</v>
+        <v>0.127933905080134</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1895267329158832</v>
+        <v>0.04297279326270396</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2167271179025981</v>
+        <v>0.127933905080134</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1906260575076122</v>
+        <v>0.04297279326270396</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3816540552394364</v>
+        <v>0.3601614584228442</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1908576464232982</v>
+        <v>0.1165223436855732</v>
       </c>
       <c r="N184" t="n">
-        <v>0.5479171466917067</v>
+        <v>0.515074185045573</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1904131828477392</v>
+        <v>0.116543678885657</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1398210412252991</v>
+        <v>0.1259555249439152</v>
       </c>
       <c r="G185" t="n">
-        <v>0.191119394537025</v>
+        <v>0.04297252473423995</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2179615891593004</v>
+        <v>0.1259555249439152</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1922279571505333</v>
+        <v>0.04297252473423995</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3857080963016863</v>
+        <v>0.3579766296073674</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1924614921915613</v>
+        <v>0.1175015230442755</v>
       </c>
       <c r="N185" t="n">
-        <v>0.5514713317763708</v>
+        <v>0.5150098893207691</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1920132936279723</v>
+        <v>0.117523037531755</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1462015632575047</v>
+        <v>0.1240359879364499</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1927120561581669</v>
+        <v>0.04297225620577593</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2190211517201832</v>
+        <v>0.1240359879364499</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1938298567934544</v>
+        <v>0.04297225620577593</v>
       </c>
       <c r="L186" t="n">
-        <v>0.3860958067646889</v>
+        <v>0.3585240992413554</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1940653379598243</v>
+        <v>0.1184807024029778</v>
       </c>
       <c r="N186" t="n">
-        <v>0.5496765874874765</v>
+        <v>0.5150280272841926</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1936134044082054</v>
+        <v>0.1185023961778529</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.138573821600935</v>
+        <v>0.1221767367592835</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1943047177793088</v>
+        <v>0.04297198767731192</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2200686943024454</v>
+        <v>0.1221767367592835</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1954317564363756</v>
+        <v>0.04297198767731192</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3873623486930187</v>
+        <v>0.3562801523734074</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1956691837280873</v>
+        <v>0.1194598817616801</v>
       </c>
       <c r="N187" t="n">
-        <v>0.5508515932010818</v>
+        <v>0.5141222775324232</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1952135151884385</v>
+        <v>0.1194817548239509</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1489376894699354</v>
+        <v>0.1203792141137969</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1958973794004507</v>
+        <v>0.0429717191488479</v>
       </c>
       <c r="J188" t="n">
-        <v>0.220904030123336</v>
+        <v>0.1203792141137969</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1970336560792967</v>
+        <v>0.0429717191488479</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3876073922559222</v>
+        <v>0.3546326115027167</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1972730294963503</v>
+        <v>0.1204390611203824</v>
       </c>
       <c r="N188" t="n">
-        <v>0.5569958800112552</v>
+        <v>0.512190640457366</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1968136259686716</v>
+        <v>0.1204611134700489</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.148293040078851</v>
+        <v>0.1186448627015298</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1974900410215925</v>
+        <v>0.04297145062038388</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2215269724001042</v>
+        <v>0.1186448627015298</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1986355557222178</v>
+        <v>0.04297145062038388</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3862306076226443</v>
+        <v>0.355982091123264</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1988768752646133</v>
+        <v>0.1214182404790847</v>
       </c>
       <c r="N189" t="n">
-        <v>0.555708979012065</v>
+        <v>0.5083344901250622</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1984137367489047</v>
+        <v>0.1214404721161468</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1436397466420274</v>
+        <v>0.1169692341929001</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1990827026427344</v>
+        <v>0.04297118209191986</v>
       </c>
       <c r="J190" t="n">
-        <v>0.221337334349999</v>
+        <v>0.1169692341929001</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2002374553651389</v>
+        <v>0.04297118209191986</v>
       </c>
       <c r="L190" t="n">
-        <v>0.3909316649624312</v>
+        <v>0.354029205729031</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2004807210328763</v>
+        <v>0.122397419837787</v>
       </c>
       <c r="N190" t="n">
-        <v>0.5545904212975795</v>
+        <v>0.5093552006015535</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2000138475291378</v>
+        <v>0.1224198307622448</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1409776823738098</v>
+        <v>0.1153184251036304</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2006753642638762</v>
+        <v>0.04297091356345585</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2221349291902697</v>
+        <v>0.1153184251036304</v>
       </c>
       <c r="K191" t="n">
-        <v>0.20183935500806</v>
+        <v>0.04297091356345585</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3892102344445285</v>
+        <v>0.3538745698139993</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2020845668011393</v>
+        <v>0.1233765991964893</v>
       </c>
       <c r="N191" t="n">
-        <v>0.5591397379618672</v>
+        <v>0.5082541459528814</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2016139583093709</v>
+        <v>0.1233991894083427</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1473067204885434</v>
+        <v>0.1136879871041413</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2022680258850182</v>
+        <v>0.04297064503499183</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2224195701381652</v>
+        <v>0.1136879871041413</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2034412546509811</v>
+        <v>0.04297064503499183</v>
       </c>
       <c r="L192" t="n">
-        <v>0.391865986238182</v>
+        <v>0.3518187978721496</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2036884125694023</v>
+        <v>0.1243557785551916</v>
       </c>
       <c r="N192" t="n">
-        <v>0.5598564600989966</v>
+        <v>0.5107327002450875</v>
       </c>
       <c r="O192" t="n">
-        <v>0.203214069089604</v>
+        <v>0.1243785480544407</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1396267342005737</v>
+        <v>0.1120793628959656</v>
       </c>
       <c r="G193" t="n">
-        <v>0.20386068750616</v>
+        <v>0.04297037650652782</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2215910704109348</v>
+        <v>0.1120793628959656</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2050431542939022</v>
+        <v>0.04297037650652782</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3928985905126373</v>
+        <v>0.3552625043974637</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2052922583376653</v>
+        <v>0.1253349579138938</v>
       </c>
       <c r="N193" t="n">
-        <v>0.5606401188030359</v>
+        <v>0.5083922375442136</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2048141798698371</v>
+        <v>0.1253579067005386</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.147937596724246</v>
+        <v>0.1104939951804951</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2054533491273019</v>
+        <v>0.0429701079780638</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2226492432258276</v>
+        <v>0.1104939951804951</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2066450539368233</v>
+        <v>0.0429701079780638</v>
       </c>
       <c r="L194" t="n">
-        <v>0.3932077174371401</v>
+        <v>0.3512063038839228</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2068961041059284</v>
+        <v>0.1263141372725961</v>
       </c>
       <c r="N194" t="n">
-        <v>0.5638902451680534</v>
+        <v>0.5107341319163008</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2064142906500702</v>
+        <v>0.1263372653466366</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1452391812739055</v>
+        <v>0.1089333266592604</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2070460107484438</v>
+        <v>0.04296983944959978</v>
       </c>
       <c r="J195" t="n">
-        <v>0.2242939018000926</v>
+        <v>0.1089333266592604</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2082469535797444</v>
+        <v>0.04296983944959978</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3941930371809363</v>
+        <v>0.350650810825508</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2084999498741914</v>
+        <v>0.1272933166312984</v>
       </c>
       <c r="N195" t="n">
-        <v>0.5641063702881178</v>
+        <v>0.5050597574273907</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2080144014303033</v>
+        <v>0.1273166239927346</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1415313610638977</v>
+        <v>0.1073988000336554</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2086386723695856</v>
+        <v>0.04296957092113576</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2241248593509791</v>
+        <v>0.1073988000336554</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2098488532226656</v>
+        <v>0.04296957092113576</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3955542199132714</v>
+        <v>0.3516966397162011</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2101037956424544</v>
+        <v>0.1282724959900007</v>
       </c>
       <c r="N196" t="n">
-        <v>0.5627880252572972</v>
+        <v>0.508570488143525</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2096145122105364</v>
+        <v>0.1282959826388325</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1438140093085678</v>
+        <v>0.1058918580052085</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2102313339907275</v>
+        <v>0.04296930239267174</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2235419290957361</v>
+        <v>0.1058918580052085</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2114507528655867</v>
+        <v>0.04296930239267174</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3954909358033913</v>
+        <v>0.3518444050499831</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2117076414107174</v>
+        <v>0.129251675348703</v>
       </c>
       <c r="N197" t="n">
-        <v>0.5668347411696603</v>
+        <v>0.5077676981307453</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2112146229907695</v>
+        <v>0.1292753412849305</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1530869992222612</v>
+        <v>0.1044139432753478</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2118239956118694</v>
+        <v>0.04296903386420773</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2236449242516128</v>
+        <v>0.1044139432753478</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2130526525085078</v>
+        <v>0.04296903386420773</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3952028550205417</v>
+        <v>0.3492947213208352</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2133114871789804</v>
+        <v>0.1302308547074053</v>
       </c>
       <c r="N198" t="n">
-        <v>0.567546049119275</v>
+        <v>0.505952761455093</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2128147337710026</v>
+        <v>0.1302546999310285</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1523502040193231</v>
+        <v>0.1029664985455039</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2134166572330113</v>
+        <v>0.04296876533574371</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2244336580358582</v>
+        <v>0.1029664985455039</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2146545521514289</v>
+        <v>0.04296876533574371</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3979896477339682</v>
+        <v>0.350148203022739</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2149153329472434</v>
+        <v>0.1312100340661076</v>
       </c>
       <c r="N199" t="n">
-        <v>0.5683214802002099</v>
+        <v>0.5079270521826096</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2144148445512357</v>
+        <v>0.1312340585771264</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.145603496914099</v>
+        <v>0.1015509665172013</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2150093188541531</v>
+        <v>0.0429684968072797</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2258079436657216</v>
+        <v>0.1015509665172013</v>
       </c>
       <c r="K200" t="n">
-        <v>0.21625645179435</v>
+        <v>0.0429684968072797</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3965509841129166</v>
+        <v>0.3510054646496758</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2165191787155064</v>
+        <v>0.1321892134248099</v>
       </c>
       <c r="N200" t="n">
-        <v>0.5655605655065336</v>
+        <v>0.5047919443793365</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2160149553314689</v>
+        <v>0.1322134172232244</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.150846751120934</v>
+        <v>0.1001687898918404</v>
       </c>
       <c r="G201" t="n">
-        <v>0.216601980475295</v>
+        <v>0.04296822827881568</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2258675943584521</v>
+        <v>0.1001687898918404</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2178583514372711</v>
+        <v>0.04296822827881568</v>
       </c>
       <c r="L201" t="n">
-        <v>0.3961865343266327</v>
+        <v>0.3490671206956268</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2181230244837694</v>
+        <v>0.1331683927835122</v>
       </c>
       <c r="N201" t="n">
-        <v>0.5668628361323141</v>
+        <v>0.5064488121113156</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2176150661117019</v>
+        <v>0.1331927758693223</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1520798398541737</v>
+        <v>0.09882141137094298</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2181946420964369</v>
+        <v>0.04296795975035166</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2258124233312986</v>
+        <v>0.09882141137094298</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2194602510801922</v>
+        <v>0.04296795975035166</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3998959685443621</v>
+        <v>0.3481337856545734</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2197268702520325</v>
+        <v>0.1341475721422145</v>
       </c>
       <c r="N202" t="n">
-        <v>0.5701278231716203</v>
+        <v>0.5060990294445885</v>
       </c>
       <c r="O202" t="n">
-        <v>0.219215176891935</v>
+        <v>0.1341721345154203</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1573026363281631</v>
+        <v>0.0975102736559121</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2197873037175787</v>
+        <v>0.04296769122188764</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2272422438015105</v>
+        <v>0.0975102736559121</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2210621507231133</v>
+        <v>0.04296769122188764</v>
       </c>
       <c r="L203" t="n">
-        <v>0.4003789569353506</v>
+        <v>0.3465060740204969</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2213307160202954</v>
+        <v>0.1351267515009168</v>
       </c>
       <c r="N203" t="n">
-        <v>0.5719550577185201</v>
+        <v>0.5038439704451961</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2208152876721681</v>
+        <v>0.1351514931615182</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1505150137572478</v>
+        <v>0.09623681944826658</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2213799653387206</v>
+        <v>0.04296742269342363</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2264568689863367</v>
+        <v>0.09623681944826658</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2226640503660345</v>
+        <v>0.04296742269342363</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3973351696688438</v>
+        <v>0.3453846002873787</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2229345617885584</v>
+        <v>0.1361059308596191</v>
       </c>
       <c r="N204" t="n">
-        <v>0.573944070867082</v>
+        <v>0.5003850091791806</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2224153984524013</v>
+        <v>0.1361308518076162</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.149716845355773</v>
+        <v>0.09500249144941279</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2229726269598625</v>
+        <v>0.04296715416495961</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2281561121030266</v>
+        <v>0.09500249144941279</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2242659500089556</v>
+        <v>0.04296715416495961</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3978642769140876</v>
+        <v>0.3485699789492</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2245384075568214</v>
+        <v>0.1370851102183214</v>
       </c>
       <c r="N205" t="n">
-        <v>0.5702943937113744</v>
+        <v>0.5014235197125833</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2240155092326344</v>
+        <v>0.1371102104537142</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.152908004338084</v>
+        <v>0.09380873236086611</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2245652885810044</v>
+        <v>0.04296688563649559</v>
       </c>
       <c r="J206" t="n">
-        <v>0.227239786368829</v>
+        <v>0.09380873236086611</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2258678496518767</v>
+        <v>0.04296688563649559</v>
       </c>
       <c r="L206" t="n">
-        <v>0.4014659488403275</v>
+        <v>0.3451628244999423</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2261422533250845</v>
+        <v>0.1380642895770237</v>
       </c>
       <c r="N206" t="n">
-        <v>0.5754055573454658</v>
+        <v>0.4980608761114454</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2256156200128674</v>
+        <v>0.1380895690998121</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1540883639185263</v>
+        <v>0.09265698488403636</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2261579502021462</v>
+        <v>0.04296661710803157</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2278077050009932</v>
+        <v>0.09265698488403636</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2274697492947978</v>
+        <v>0.04296661710803157</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3988398556168095</v>
+        <v>0.3463637514335868</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2277460990933475</v>
+        <v>0.139043468935726</v>
       </c>
       <c r="N207" t="n">
-        <v>0.5743770928634244</v>
+        <v>0.5031984524418091</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2272157307931005</v>
+        <v>0.1390689277459101</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.151257797311445</v>
+        <v>0.09154869172043541</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2277506118232882</v>
+        <v>0.04296634857956756</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2287596812167684</v>
+        <v>0.09154869172043541</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2290716489377189</v>
+        <v>0.04296634857956756</v>
       </c>
       <c r="L208" t="n">
-        <v>0.4008856674127793</v>
+        <v>0.3454733742441148</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2293499448616105</v>
+        <v>0.1400226482944283</v>
       </c>
       <c r="N208" t="n">
-        <v>0.5732085313593187</v>
+        <v>0.4971376227697155</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2288158415733337</v>
+        <v>0.140048286392008</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1514161777311854</v>
+        <v>0.09048529557147676</v>
       </c>
       <c r="G209" t="n">
-        <v>0.22934327344443</v>
+        <v>0.04296608005110353</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2286955282334037</v>
+        <v>0.09048529557147676</v>
       </c>
       <c r="K209" t="n">
-        <v>0.23067354858064</v>
+        <v>0.04296608005110353</v>
       </c>
       <c r="L209" t="n">
-        <v>0.4034030543974823</v>
+        <v>0.3451923074255076</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2309537906298735</v>
+        <v>0.1410018276531306</v>
       </c>
       <c r="N209" t="n">
-        <v>0.5733994039272172</v>
+        <v>0.4967797611612061</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2304159523535668</v>
+        <v>0.141027645038106</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1425633783920931</v>
+        <v>0.08946823913866843</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2309359350655719</v>
+        <v>0.04296581152263952</v>
       </c>
       <c r="J210" t="n">
-        <v>0.228315059268148</v>
+        <v>0.08946823913866843</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2322754482235611</v>
+        <v>0.04296581152263952</v>
       </c>
       <c r="L210" t="n">
-        <v>0.4027916867401646</v>
+        <v>0.3462211654717467</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2325576363981365</v>
+        <v>0.1419810070118329</v>
       </c>
       <c r="N210" t="n">
-        <v>0.576649241661188</v>
+        <v>0.4963262416823228</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2320160631337999</v>
+        <v>0.1420070036842039</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1506992725085132</v>
+        <v>0.08849896512342791</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2325285966867137</v>
+        <v>0.0429655429941755</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2286180875382505</v>
+        <v>0.08849896512342791</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2338773478664822</v>
+        <v>0.0429655429941755</v>
       </c>
       <c r="L211" t="n">
-        <v>0.4014512346100715</v>
+        <v>0.3421605628768132</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2341614821663995</v>
+        <v>0.1429601863705352</v>
       </c>
       <c r="N211" t="n">
-        <v>0.5780575756552995</v>
+        <v>0.4998784383991068</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2336161739140329</v>
+        <v>0.1429863623303019</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.143823733294791</v>
+        <v>0.08757891622725909</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2341212583078557</v>
+        <v>0.04296527446571149</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2287044262609606</v>
+        <v>0.08757891622725909</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2354792475094033</v>
+        <v>0.04296527446571149</v>
       </c>
       <c r="L212" t="n">
-        <v>0.4026813681764491</v>
+        <v>0.3417111141346889</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2357653279346625</v>
+        <v>0.1439393657292375</v>
       </c>
       <c r="N212" t="n">
-        <v>0.5760239370036204</v>
+        <v>0.4961377253775997</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2352162846942661</v>
+        <v>0.1439657209763998</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.148936633965272</v>
+        <v>0.08670953515158368</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2357139199289975</v>
+        <v>0.04296500593724747</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2278738886535271</v>
+        <v>0.08670953515158368</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2370811471523245</v>
+        <v>0.04296500593724747</v>
       </c>
       <c r="L213" t="n">
-        <v>0.4046817576085431</v>
+        <v>0.3433734337393544</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2373691737029256</v>
+        <v>0.1449185450879398</v>
       </c>
       <c r="N213" t="n">
-        <v>0.5764478568002189</v>
+        <v>0.4958054766838431</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2368163954744992</v>
+        <v>0.1449450796224978</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1460378477343015</v>
+        <v>0.08589226459790124</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2373065815501394</v>
+        <v>0.04296473740878345</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2284262879331992</v>
+        <v>0.08589226459790124</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2386830467952455</v>
+        <v>0.04296473740878345</v>
       </c>
       <c r="L214" t="n">
-        <v>0.4027520730755991</v>
+        <v>0.3408481361847918</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2389730194711886</v>
+        <v>0.1458977244466421</v>
       </c>
       <c r="N214" t="n">
-        <v>0.5786288661391633</v>
+        <v>0.4939830663838785</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2384165062547323</v>
+        <v>0.1459244382685958</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1461272478162246</v>
+        <v>0.08589226459790127</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2388992431712813</v>
+        <v>0.04296473740878345</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2302614373172262</v>
+        <v>0.08589226459790127</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2402849464381667</v>
+        <v>0.04296473740878345</v>
       </c>
       <c r="L215" t="n">
-        <v>0.4031919847468627</v>
+        <v>0.3431358359649818</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2405768652394516</v>
+        <v>0.1468769038053443</v>
       </c>
       <c r="N215" t="n">
-        <v>0.575966496114522</v>
+        <v>0.4949718685437475</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2400166170349654</v>
+        <v>0.1469037969146937</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1432047074253868</v>
+        <v>0.08357560532844248</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2404919047924231</v>
+        <v>0.04295237868723946</v>
       </c>
       <c r="J216" t="n">
-        <v>0.228679150022857</v>
+        <v>0.08357560532844248</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2418868460810878</v>
+        <v>0.04295237868723946</v>
       </c>
       <c r="L216" t="n">
-        <v>0.4050011627915799</v>
+        <v>0.340037147573906</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2421807110077146</v>
+        <v>0.1478560831640467</v>
       </c>
       <c r="N216" t="n">
-        <v>0.5751602778203635</v>
+        <v>0.4951732572294917</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2416167278151985</v>
+        <v>0.1478831555607917</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1482700997761334</v>
+        <v>0.08128160382051304</v>
       </c>
       <c r="G217" t="n">
-        <v>0.242084566413565</v>
+        <v>0.04294001996569546</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2292792392673409</v>
+        <v>0.08128160382051304</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2434887457240089</v>
+        <v>0.04294001996569546</v>
       </c>
       <c r="L217" t="n">
-        <v>0.4018792773789961</v>
+        <v>0.3393526855055457</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2437845567759776</v>
+        <v>0.148835262522749</v>
       </c>
       <c r="N217" t="n">
-        <v>0.579009742350756</v>
+        <v>0.4963886065071523</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2432168385954316</v>
+        <v>0.1488625142068896</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1523232980828098</v>
+        <v>0.07901095364370038</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2436772280347069</v>
+        <v>0.04292766124415146</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2305615182679269</v>
+        <v>0.07901095364370038</v>
       </c>
       <c r="K218" t="n">
-        <v>0.24509064536693</v>
+        <v>0.04292766124415146</v>
       </c>
       <c r="L218" t="n">
-        <v>0.4038259986783574</v>
+        <v>0.3429830642538823</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2453884025442406</v>
+        <v>0.1498144418814512</v>
       </c>
       <c r="N218" t="n">
-        <v>0.576214420799768</v>
+        <v>0.4963192904427712</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2448169493756647</v>
+        <v>0.1498418728529876</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1513641755597612</v>
+        <v>0.07676434836759104</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2452698896558488</v>
+        <v>0.04291530252260747</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2289258002418642</v>
+        <v>0.07676434836759104</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2466925450098511</v>
+        <v>0.04291530252260747</v>
       </c>
       <c r="L219" t="n">
-        <v>0.4047409968589092</v>
+        <v>0.3409288983128969</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2469922483125036</v>
+        <v>0.1507936212401535</v>
       </c>
       <c r="N219" t="n">
-        <v>0.576373844261468</v>
+        <v>0.4923666831023897</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2464170601558978</v>
+        <v>0.1508212314990856</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1433926054213329</v>
+        <v>0.07454248156177466</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2468625512769906</v>
+        <v>0.04290294380106346</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2285718984064019</v>
+        <v>0.07454248156177466</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2482944446527722</v>
+        <v>0.04290294380106346</v>
       </c>
       <c r="L220" t="n">
-        <v>0.4060239420898975</v>
+        <v>0.3412908021765711</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2485960940807667</v>
+        <v>0.1517728005988558</v>
       </c>
       <c r="N220" t="n">
-        <v>0.5760875438299242</v>
+        <v>0.4923321585520496</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2480171709361309</v>
+        <v>0.1518005901451835</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1564084608818703</v>
+        <v>0.07234604679583774</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2484552128981325</v>
+        <v>0.04289058507951947</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2297996259787891</v>
+        <v>0.07234604679583774</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2498963442956933</v>
+        <v>0.04289058507951947</v>
       </c>
       <c r="L221" t="n">
-        <v>0.4059745045405677</v>
+        <v>0.3418674378890134</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2501999398490296</v>
+        <v>0.1527519799575582</v>
       </c>
       <c r="N221" t="n">
-        <v>0.577255050599205</v>
+        <v>0.4907148909470718</v>
       </c>
       <c r="O221" t="n">
-        <v>0.249617281716364</v>
+        <v>0.1527799487912815</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1513991940427474</v>
+        <v>0.07017573763936781</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2500478745192744</v>
+        <v>0.04287822635797547</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2305087723502531</v>
+        <v>0.07017573763936781</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2514982439386144</v>
+        <v>0.04287822635797547</v>
       </c>
       <c r="L222" t="n">
-        <v>0.4024923543801657</v>
+        <v>0.3413475333296888</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2518037856172926</v>
+        <v>0.1537311593162604</v>
       </c>
       <c r="N222" t="n">
-        <v>0.5807736305368618</v>
+        <v>0.4942021217888265</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2512173924965971</v>
+        <v>0.1537593074373794</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1551072221404281</v>
+        <v>0.06803224766195241</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2516405361404163</v>
+        <v>0.04286586763643148</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2296167916770439</v>
+        <v>0.06803224766195241</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2531001435815355</v>
+        <v>0.04286586763643148</v>
       </c>
       <c r="L223" t="n">
-        <v>0.4027273048589398</v>
+        <v>0.339529330459982</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2534076313855557</v>
+        <v>0.1547103386749627</v>
       </c>
       <c r="N223" t="n">
-        <v>0.5750734354284244</v>
+        <v>0.4915916043680171</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2528175032768302</v>
+        <v>0.1547386660834774</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1484598423235619</v>
+        <v>0.06591627043317909</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2532331977615582</v>
+        <v>0.04285350891488748</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2273904699207831</v>
+        <v>0.06591627043317909</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2547020432244567</v>
+        <v>0.04285350891488748</v>
       </c>
       <c r="L224" t="n">
-        <v>0.4030156063878914</v>
+        <v>0.337413008441576</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2550114771538187</v>
+        <v>0.155689518033665</v>
       </c>
       <c r="N224" t="n">
-        <v>0.5727370124576217</v>
+        <v>0.488783382862151</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2544176140570633</v>
+        <v>0.1557180247295754</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1444965791809913</v>
+        <v>0.06382849952263438</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2548258593827</v>
+        <v>0.04284115019334348</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2260880353680227</v>
+        <v>0.06382849952263438</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2563039428673777</v>
+        <v>0.04284115019334348</v>
       </c>
       <c r="L225" t="n">
-        <v>0.3989591925555641</v>
+        <v>0.339698746436154</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2566153229220817</v>
+        <v>0.1566686973923673</v>
       </c>
       <c r="N225" t="n">
-        <v>0.5735105399456544</v>
+        <v>0.4890775014487361</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2560177248372964</v>
+        <v>0.1566973833756733</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1522569573015587</v>
+        <v>0.06176962849990784</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2564185210038419</v>
+        <v>0.04282879147179949</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2260677163053149</v>
+        <v>0.06176962849990784</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2579058425102989</v>
+        <v>0.04282879147179949</v>
       </c>
       <c r="L226" t="n">
-        <v>0.396760885916951</v>
+        <v>0.3369867236053989</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2582191686903447</v>
+        <v>0.1576478767510696</v>
       </c>
       <c r="N226" t="n">
-        <v>0.5650401962137229</v>
+        <v>0.4919740043052803</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2576178356175295</v>
+        <v>0.1576767420217713</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1457805012741064</v>
+        <v>0.059740350934586</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2580111826249838</v>
+        <v>0.04281643275025549</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2226877410192115</v>
+        <v>0.059740350934586</v>
       </c>
       <c r="K227" t="n">
-        <v>0.25950774215322</v>
+        <v>0.04281643275025549</v>
       </c>
       <c r="L227" t="n">
-        <v>0.3928235090270455</v>
+        <v>0.3399771191109935</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2598230144586077</v>
+        <v>0.1586270561097719</v>
       </c>
       <c r="N227" t="n">
-        <v>0.560672159583028</v>
+        <v>0.4916729356092913</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2592179463977626</v>
+        <v>0.1586561006678692</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1371067356874767</v>
+        <v>0.05774136039625642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2596038442461256</v>
+        <v>0.0428040740287115</v>
       </c>
       <c r="J228" t="n">
-        <v>0.220706337796265</v>
+        <v>0.05774136039625642</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2611096417961411</v>
+        <v>0.0428040740287115</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3878498844408411</v>
+        <v>0.3396701121146213</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2614268602268707</v>
+        <v>0.1596062354684742</v>
       </c>
       <c r="N228" t="n">
-        <v>0.5539526083747696</v>
+        <v>0.4853743395382769</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2608180571779957</v>
+        <v>0.1596354593139672</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1362751851305122</v>
+        <v>0.05577335045450664</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2611965058672675</v>
+        <v>0.0427917153071675</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2185817349230273</v>
+        <v>0.05577335045450664</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2627115414390622</v>
+        <v>0.0427917153071675</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3862428347133312</v>
+        <v>0.3383658817779652</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2630307059951337</v>
+        <v>0.1605854148271765</v>
       </c>
       <c r="N229" t="n">
-        <v>0.5526277209101481</v>
+        <v>0.4871782602697451</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2624181679582288</v>
+        <v>0.1606148179600652</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1453253741920549</v>
+        <v>0.05383701467892417</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2627891674884094</v>
+        <v>0.04277935658562351</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2159721606860504</v>
+        <v>0.05383701467892417</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2643134410819833</v>
+        <v>0.04277935658562351</v>
       </c>
       <c r="L230" t="n">
-        <v>0.3815051823995089</v>
+        <v>0.3365646072627079</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2646345517633967</v>
+        <v>0.1615645941858788</v>
       </c>
       <c r="N230" t="n">
-        <v>0.5452436755103643</v>
+        <v>0.4847847419812035</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2640182787384619</v>
+        <v>0.1615941766061631</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1382968274609475</v>
+        <v>0.05193304663909569</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2643818291095513</v>
+        <v>0.0427669978640795</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2124358433718865</v>
+        <v>0.05193304663909569</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2659153407249044</v>
+        <v>0.0427669978640795</v>
       </c>
       <c r="L231" t="n">
-        <v>0.3760397500543679</v>
+        <v>0.3379664677305329</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2662383975316597</v>
+        <v>0.1625437735445811</v>
       </c>
       <c r="N231" t="n">
-        <v>0.5338466504966186</v>
+        <v>0.4896938288501598</v>
       </c>
       <c r="O231" t="n">
-        <v>0.265618389518695</v>
+        <v>0.1625735352522611</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1392290695260323</v>
+        <v>0.05006213990461052</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2659744907306932</v>
+        <v>0.0427546391425355</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2101310112670877</v>
+        <v>0.05006213990461052</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2675172403678255</v>
+        <v>0.0427546391425355</v>
       </c>
       <c r="L232" t="n">
-        <v>0.3688493602329015</v>
+        <v>0.3374716423431229</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2678422432999228</v>
+        <v>0.1635229529032834</v>
       </c>
       <c r="N232" t="n">
-        <v>0.5267828241901112</v>
+        <v>0.4864055650541219</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2672185002989281</v>
+        <v>0.163552893898359</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1351616249761515</v>
+        <v>0.0482249880450553</v>
       </c>
       <c r="G233" t="n">
-        <v>0.267567152351835</v>
+        <v>0.04274228042099151</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2077158926582059</v>
+        <v>0.0482249880450553</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2691191400107467</v>
+        <v>0.04274228042099151</v>
       </c>
       <c r="L233" t="n">
-        <v>0.364336835490103</v>
+        <v>0.3342803102621613</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2694460890681858</v>
+        <v>0.1645021322619857</v>
       </c>
       <c r="N233" t="n">
-        <v>0.5195983749120425</v>
+        <v>0.487719994770598</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2688186110791612</v>
+        <v>0.164532252544457</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1371340184001477</v>
+        <v>0.04642228463001759</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2691598139729769</v>
+        <v>0.04272992169944751</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2025487158317933</v>
+        <v>0.04642228463001759</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2707210396536677</v>
+        <v>0.04272992169944751</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3566049983809659</v>
+        <v>0.3344926506493307</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2710499348364488</v>
+        <v>0.165481311620688</v>
       </c>
       <c r="N234" t="n">
-        <v>0.5114394809836134</v>
+        <v>0.4875371621770952</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2704187218593943</v>
+        <v>0.1655116111905549</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.132185774386863</v>
+        <v>0.04465472322908491</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2707524755941188</v>
+        <v>0.04271756297790352</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2006877090744021</v>
+        <v>0.04465472322908491</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2723229392965889</v>
+        <v>0.04271756297790352</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3517566714604834</v>
+        <v>0.3359088426663143</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2726537806047118</v>
+        <v>0.1664604909793903</v>
       </c>
       <c r="N235" t="n">
-        <v>0.5074523207260239</v>
+        <v>0.4849571114511217</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2720188326396274</v>
+        <v>0.1664909698366529</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.12635641752514</v>
+        <v>0.04292299741184484</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2723451372152607</v>
+        <v>0.04270520425635952</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1969911006725843</v>
+        <v>0.04292299741184484</v>
       </c>
       <c r="K236" t="n">
-        <v>0.27392483893951</v>
+        <v>0.04270520425635952</v>
       </c>
       <c r="L236" t="n">
-        <v>0.3483946772836493</v>
+        <v>0.3356290654747954</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2742576263729748</v>
+        <v>0.1674396703380926</v>
       </c>
       <c r="N236" t="n">
-        <v>0.4959830724604744</v>
+        <v>0.4848798867701853</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2736189434198605</v>
+        <v>0.1674703284827508</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1326801460409294</v>
+        <v>0.04122780074788411</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2739377988364025</v>
+        <v>0.04269284553481552</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1945163113975034</v>
+        <v>0.04122780074788411</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2755267385824311</v>
+        <v>0.04269284553481552</v>
       </c>
       <c r="L237" t="n">
-        <v>0.3453213889826257</v>
+        <v>0.3370534982364565</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2758614721412379</v>
+        <v>0.1684188496967949</v>
       </c>
       <c r="N237" t="n">
-        <v>0.4916739103164072</v>
+        <v>0.4831055323117938</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2752190542000936</v>
+        <v>0.1684496871288488</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1310523593667003</v>
+        <v>0.03956982680679184</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2755304604575444</v>
+        <v>0.04268048681327152</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1942471407343812</v>
+        <v>0.03956982680679184</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2771286382253522</v>
+        <v>0.04268048681327152</v>
       </c>
       <c r="L238" t="n">
-        <v>0.3392484239875187</v>
+        <v>0.3338823201129812</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2774653179095009</v>
+        <v>0.1693980290554972</v>
       </c>
       <c r="N238" t="n">
-        <v>0.4881123071110357</v>
+        <v>0.4815340922534548</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2768191649803267</v>
+        <v>0.1694290457749468</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1324185650754265</v>
+        <v>0.03794976915815483</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2771231220786863</v>
+        <v>0.04266812809172753</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1909691912728352</v>
+        <v>0.03794976915815483</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2787305378682733</v>
+        <v>0.04266812809172753</v>
       </c>
       <c r="L239" t="n">
-        <v>0.3362599834261815</v>
+        <v>0.3340157102660522</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2790691636777638</v>
+        <v>0.1703772084141995</v>
       </c>
       <c r="N239" t="n">
-        <v>0.4828286305996785</v>
+        <v>0.4825656107726765</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2784192757605599</v>
+        <v>0.1704084044210447</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1307786695318914</v>
+        <v>0.03636548929574472</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2787157836998282</v>
+        <v>0.04265576937018353</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1889823250678953</v>
+        <v>0.03636548929574472</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2803324375111944</v>
+        <v>0.04265576937018353</v>
       </c>
       <c r="L240" t="n">
-        <v>0.3299558237081681</v>
+        <v>0.3354538478573527</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2806730094460268</v>
+        <v>0.1713563877729017</v>
       </c>
       <c r="N240" t="n">
-        <v>0.4758225344804723</v>
+        <v>0.4821001320469662</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2800193865407929</v>
+        <v>0.1713877630671427</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1141325791008783</v>
+        <v>0.03480068833425433</v>
       </c>
       <c r="G241" t="n">
-        <v>0.28030844532097</v>
+        <v>0.04264341064863954</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1857864041745914</v>
+        <v>0.03480068833425433</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2819343371541155</v>
+        <v>0.04264341064863954</v>
       </c>
       <c r="L241" t="n">
-        <v>0.3268357012430327</v>
+        <v>0.3349969120485657</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2822768552142899</v>
+        <v>0.172335567131604</v>
       </c>
       <c r="N241" t="n">
-        <v>0.470793672451553</v>
+        <v>0.481437700253832</v>
       </c>
       <c r="O241" t="n">
-        <v>0.281619497321026</v>
+        <v>0.1723671217132406</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1264802001471704</v>
+        <v>0.03325322776745541</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2819011069421119</v>
+        <v>0.04263105192709554</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1829812906479534</v>
+        <v>0.03325322776745541</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2835362367970367</v>
+        <v>0.04263105192709554</v>
       </c>
       <c r="L242" t="n">
-        <v>0.3232993724403296</v>
+        <v>0.3331450820013739</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2838807009825529</v>
+        <v>0.1733147464903063</v>
       </c>
       <c r="N242" t="n">
-        <v>0.4649416982110572</v>
+        <v>0.4830783595707817</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2832196081012592</v>
+        <v>0.1733464803593386</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1228214390355512</v>
+        <v>0.03172380116493477</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2834937685632538</v>
+        <v>0.04261869320555154</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1814668465430109</v>
+        <v>0.03172380116493477</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2851381364399578</v>
+        <v>0.04261869320555154</v>
       </c>
       <c r="L243" t="n">
-        <v>0.319946593709613</v>
+        <v>0.3331985368774609</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2854845467508159</v>
+        <v>0.1742939258490087</v>
       </c>
       <c r="N243" t="n">
-        <v>0.4556662654571213</v>
+        <v>0.4804221541753229</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2848197188814923</v>
+        <v>0.1743258390054366</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1141562021308039</v>
+        <v>0.03021310209628135</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2850864301843956</v>
+        <v>0.04260633448400755</v>
       </c>
       <c r="J244" t="n">
-        <v>0.178742933914794</v>
+        <v>0.03021310209628135</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2867400360828789</v>
+        <v>0.04260633448400755</v>
       </c>
       <c r="L244" t="n">
-        <v>0.3146771214604372</v>
+        <v>0.3327574558385094</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2870883925190789</v>
+        <v>0.1752731052077109</v>
       </c>
       <c r="N244" t="n">
-        <v>0.4483670278878812</v>
+        <v>0.4832691282449638</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2864198296617254</v>
+        <v>0.1753051976515345</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1084843957977119</v>
+        <v>0.02872182413108203</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2866790918055375</v>
+        <v>0.04259397576246354</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1753094148183326</v>
+        <v>0.02872182413108203</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2883419357258</v>
+        <v>0.04259397576246354</v>
       </c>
       <c r="L245" t="n">
-        <v>0.3125907121023563</v>
+        <v>0.3341220180462025</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2886922382873419</v>
+        <v>0.1762522845664132</v>
       </c>
       <c r="N245" t="n">
-        <v>0.444743639201473</v>
+        <v>0.4829193259572118</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2880199404419585</v>
+        <v>0.1762845562976325</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1108059264010584</v>
+        <v>0.02725066083892431</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2882717534266794</v>
+        <v>0.04258161704091955</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1728661513086563</v>
+        <v>0.02725066083892431</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2899438353687211</v>
+        <v>0.04258161704091955</v>
       </c>
       <c r="L246" t="n">
-        <v>0.3063871220449243</v>
+        <v>0.3345924026622233</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2902960840556049</v>
+        <v>0.1772314639251155</v>
       </c>
       <c r="N246" t="n">
-        <v>0.4373957530960336</v>
+        <v>0.4783727914895749</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2896200512221916</v>
+        <v>0.1772639149437304</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1111207003056269</v>
+        <v>0.02580030578939584</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2898644150478213</v>
+        <v>0.04256925831937555</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1710130054407951</v>
+        <v>0.02580030578939584</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2915457350116422</v>
+        <v>0.04256925831937555</v>
       </c>
       <c r="L247" t="n">
-        <v>0.3039661076976958</v>
+        <v>0.3334687888482548</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2918999298238679</v>
+        <v>0.1782106432838178</v>
       </c>
       <c r="N247" t="n">
-        <v>0.429623023269699</v>
+        <v>0.4769295690195609</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2912201620024247</v>
+        <v>0.1782432735898284</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1094286238762006</v>
+        <v>0.02437145255208396</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2914570766689631</v>
+        <v>0.04255689959783156</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1701498392697789</v>
+        <v>0.02437145255208396</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2931476346545633</v>
+        <v>0.04255689959783156</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2984274254702247</v>
+        <v>0.3315513557659799</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2935037755921309</v>
+        <v>0.1791898226425201</v>
       </c>
       <c r="N248" t="n">
-        <v>0.4279251034206053</v>
+        <v>0.4789897027246772</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2928202727826578</v>
+        <v>0.1792226322359264</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1037296034775629</v>
+        <v>0.02296479469657574</v>
       </c>
       <c r="G249" t="n">
-        <v>0.293049738290105</v>
+        <v>0.04254454087628756</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1674765148506374</v>
+        <v>0.02296479469657574</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2947495342974844</v>
+        <v>0.04254454087628756</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2944708317720653</v>
+        <v>0.3331402825770819</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2951076213603939</v>
+        <v>0.1801690020012224</v>
       </c>
       <c r="N249" t="n">
-        <v>0.4218016472468887</v>
+        <v>0.4765532367824323</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2944203835628909</v>
+        <v>0.1802019908820243</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.101023545474497</v>
+        <v>0.02158102579245998</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2946423999112469</v>
+        <v>0.04253218215474356</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1651928942384006</v>
+        <v>0.02158102579245998</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2963514339404055</v>
+        <v>0.04253218215474356</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2905960830127719</v>
+        <v>0.3324357484432435</v>
       </c>
       <c r="M250" t="n">
-        <v>0.296711467128657</v>
+        <v>0.1811481813599247</v>
       </c>
       <c r="N250" t="n">
-        <v>0.4107523084466861</v>
+        <v>0.4809202153703337</v>
       </c>
       <c r="O250" t="n">
-        <v>0.296020494343124</v>
+        <v>0.1811813495281223</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1103103562317863</v>
+        <v>0.02022083940932352</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2962350615323888</v>
+        <v>0.04251982343319956</v>
       </c>
       <c r="J251" t="n">
-        <v>0.161398839488098</v>
+        <v>0.02022083940932352</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2979533335833267</v>
+        <v>0.04251982343319956</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2831029356018984</v>
+        <v>0.3322379325261479</v>
       </c>
       <c r="M251" t="n">
-        <v>0.29831531289692</v>
+        <v>0.182127360718627</v>
       </c>
       <c r="N251" t="n">
-        <v>0.4083767407181331</v>
+        <v>0.480290682665889</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2976206051233571</v>
+        <v>0.1821607081742202</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1065899421142142</v>
+        <v>0.01888492911675395</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2978277231535306</v>
+        <v>0.04250746471165557</v>
       </c>
       <c r="J252" t="n">
-        <v>0.15809421265476</v>
+        <v>0.01888492911675395</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2995552332262478</v>
+        <v>0.04250746471165557</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2801911459489995</v>
+        <v>0.3315470139874785</v>
       </c>
       <c r="M252" t="n">
-        <v>0.299919158665183</v>
+        <v>0.1831065400773293</v>
       </c>
       <c r="N252" t="n">
-        <v>0.4028745977593664</v>
+        <v>0.4753646828466062</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2992207159035902</v>
+        <v>0.1831400668203182</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.102862209486564</v>
+        <v>0.01757398848433879</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2994203847746725</v>
+        <v>0.04249510599011157</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1554788757934161</v>
+        <v>0.01757398848433879</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3011571328691689</v>
+        <v>0.04249510599011157</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2747604704636288</v>
+        <v>0.3315631719889178</v>
       </c>
       <c r="M253" t="n">
-        <v>0.301523004433446</v>
+        <v>0.1840857194360316</v>
       </c>
       <c r="N253" t="n">
-        <v>0.3930455332685219</v>
+        <v>0.474442260089993</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3008208266838233</v>
+        <v>0.1841194254664162</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1071270647136188</v>
+        <v>0.01628871108166562</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3010130463958144</v>
+        <v>0.04248274726856758</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1540526909590964</v>
+        <v>0.01628871108166562</v>
       </c>
       <c r="K254" t="n">
-        <v>0.30275903251209</v>
+        <v>0.04248274726856758</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2703106655553411</v>
+        <v>0.332686585692149</v>
       </c>
       <c r="M254" t="n">
-        <v>0.303126850201709</v>
+        <v>0.1850648987947339</v>
       </c>
       <c r="N254" t="n">
-        <v>0.3894892009437363</v>
+        <v>0.4787234585735575</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3024209374640564</v>
+        <v>0.1850987841125141</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.09038441416016214</v>
+        <v>0.01502979047832133</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3026057080169563</v>
+        <v>0.04247038854702358</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1508155202068304</v>
+        <v>0.01502979047832133</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3043609321550111</v>
+        <v>0.04247038854702358</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2664414876336901</v>
+        <v>0.3296174342588553</v>
       </c>
       <c r="M255" t="n">
-        <v>0.304730695969972</v>
+        <v>0.1860440781534362</v>
       </c>
       <c r="N255" t="n">
-        <v>0.3826052544831454</v>
+        <v>0.475808322474807</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3040210482442895</v>
+        <v>0.1860781427586121</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.09063416419097738</v>
+        <v>0.01379792024389472</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3041983696380982</v>
+        <v>0.04245802982547958</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1478672255916482</v>
+        <v>0.01379792024389472</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3059628317979322</v>
+        <v>0.04245802982547958</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2631526931082304</v>
+        <v>0.3304558968507195</v>
       </c>
       <c r="M256" t="n">
-        <v>0.306334541738235</v>
+        <v>0.1870232575121385</v>
       </c>
       <c r="N256" t="n">
-        <v>0.374293347584886</v>
+        <v>0.4725968959712495</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3056211590245226</v>
+        <v>0.18705750140471</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09787622117084767</v>
+        <v>0.01259379394797265</v>
       </c>
       <c r="G257" t="n">
-        <v>0.30579103125924</v>
+        <v>0.04244567110393558</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1454076691685795</v>
+        <v>0.01259379394797265</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3075647314408533</v>
+        <v>0.04244567110393558</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2566440383885159</v>
+        <v>0.3303021526294248</v>
       </c>
       <c r="M257" t="n">
-        <v>0.307938387506498</v>
+        <v>0.1880024368708408</v>
       </c>
       <c r="N257" t="n">
-        <v>0.3689531339470939</v>
+        <v>0.4735892232403931</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3072212698047557</v>
+        <v>0.188036860050808</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.08911049146455648</v>
+        <v>0.01141810516014273</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3073836928803819</v>
+        <v>0.04243331238239158</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1431367129926543</v>
+        <v>0.01141810516014273</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3091666310837744</v>
+        <v>0.04243331238239158</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2552152798841011</v>
+        <v>0.3293563807566541</v>
       </c>
       <c r="M258" t="n">
-        <v>0.309542233274761</v>
+        <v>0.1889816162295431</v>
       </c>
       <c r="N258" t="n">
-        <v>0.3597842672679056</v>
+        <v>0.4750853484597454</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3088213805849888</v>
+        <v>0.1890162186969059</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0883368814368871</v>
+        <v>0.01027154744999249</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3089763545015238</v>
+        <v>0.04242095366084759</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1419542191189024</v>
+        <v>0.01027154744999249</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3107685307266955</v>
+        <v>0.04242095366084759</v>
       </c>
       <c r="L259" t="n">
-        <v>0.24856617400454</v>
+        <v>0.3288187603940907</v>
       </c>
       <c r="M259" t="n">
-        <v>0.311146079043024</v>
+        <v>0.1899607955882454</v>
       </c>
       <c r="N259" t="n">
-        <v>0.3557864012454574</v>
+        <v>0.4770853158068139</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3104214913652219</v>
+        <v>0.1899955773430039</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.09055529745262279</v>
+        <v>0.009154814387109481</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3105690161226656</v>
+        <v>0.04240859493930359</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1395600496023535</v>
+        <v>0.009154814387109481</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3123704303696167</v>
+        <v>0.04240859493930359</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2423964771593867</v>
+        <v>0.3290894707034174</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3127499248112871</v>
+        <v>0.1909399749469477</v>
       </c>
       <c r="N260" t="n">
-        <v>0.3481591895778856</v>
+        <v>0.4733891694591068</v>
       </c>
       <c r="O260" t="n">
-        <v>0.312021602145455</v>
+        <v>0.1909749359891018</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.08676564587654688</v>
+        <v>0.008068599541080759</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3121616777438075</v>
+        <v>0.04239623621775959</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1349540664980377</v>
+        <v>0.008068599541080759</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3139723300125378</v>
+        <v>0.04239623621775959</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2387059457581955</v>
+        <v>0.3304686908463172</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3143537705795501</v>
+        <v>0.19191915430565</v>
       </c>
       <c r="N261" t="n">
-        <v>0.3399022859633265</v>
+        <v>0.4729969535941316</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3136217129256881</v>
+        <v>0.1919542946351998</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.08296783307344273</v>
+        <v>0.007013596481494813</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3137543393649494</v>
+        <v>0.0423838774962156</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1333361318609847</v>
+        <v>0.007013596481494813</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3155742296554589</v>
+        <v>0.0423838774962156</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2353943362105207</v>
+        <v>0.3294565999844732</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3159576163478131</v>
+        <v>0.1928983336643522</v>
       </c>
       <c r="N262" t="n">
-        <v>0.3360153440999158</v>
+        <v>0.4711087123893966</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3152218237059212</v>
+        <v>0.1929336532812977</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.09116176540809375</v>
+        <v>0.00599049877793871</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3153470009860913</v>
+        <v>0.0423715187746716</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1310061077462245</v>
+        <v>0.00599049877793871</v>
       </c>
       <c r="K263" t="n">
-        <v>0.31717612929838</v>
+        <v>0.0423715187746716</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2283614049259164</v>
+        <v>0.3305533772795687</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3175614621160761</v>
+        <v>0.1938775130230546</v>
       </c>
       <c r="N263" t="n">
-        <v>0.3291980176857907</v>
+        <v>0.473724490022409</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3168219344861543</v>
+        <v>0.1939130119273957</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0793473492452831</v>
+        <v>0.004999999999999991</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3169396626072332</v>
+        <v>0.04235916005312761</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1274638562087866</v>
+        <v>0.004999999999999991</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3187780289413011</v>
+        <v>0.04235916005312761</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2265069083139369</v>
+        <v>0.3279592018932864</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3191653078843391</v>
+        <v>0.1948566923817568</v>
       </c>
       <c r="N264" t="n">
-        <v>0.3252499604190869</v>
+        <v>0.472844330670677</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3184220452663874</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1948923705734937</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999991</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04234600215839077</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999991</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04234600215839077</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.007086172112611464</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04234627068685478</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.007086172112611464</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04234627068685478</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.009161785384612833</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0423465392153188</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.009161785384612833</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.0423465392153188</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.0112267339016288</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04234680774378281</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.0112267339016288</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04234680774378281</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01328091174946423</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04234707627224683</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01328091174946423</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04234707627224683</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01532421301374472</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04234734480071085</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01532421301374472</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04234734480071085</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01735653178027423</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04234761332917487</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01735653178027423</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04234761332917487</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01937776213467936</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04234788185763888</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01937776213467936</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04234788185763888</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.02138779816276302</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0423481503861029</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.02138779816276302</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.0423481503861029</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02338653395015276</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04234841891456692</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02338653395015276</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04234841891456692</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02537386358265063</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04234868744303094</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02537386358265063</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04234868744303094</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02734968114588514</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04234895597149495</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02734968114588514</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04234895597149495</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02931388072565726</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04234922449995897</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02931388072565726</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04234922449995897</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.03126635640759652</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04234949302842299</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.03126635640759652</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04234949302842299</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.03320700227750294</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04234976155688701</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.03320700227750294</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04234976155688701</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.03513571242100701</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04235003008535102</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.03513571242100701</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04235003008535102</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03705238092390777</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04235029861381504</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03705238092390777</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04235029861381504</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03895690187183677</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04235056714227906</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03895690187183677</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04235056714227906</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.04084916935055084</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04235083567074307</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.04084916935055084</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04235083567074307</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.04272907744580585</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04235110419920709</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.04272907744580585</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04235110419920709</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.04459652024323492</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04235137272767111</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.04459652024323492</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04235137272767111</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.04645139182863435</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04235164125613513</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.04645139182863435</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04235164125613513</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.04829358628763848</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04235190978459914</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.04829358628763848</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04235190978459914</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.05012299770604244</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04235217831306316</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.05012299770604244</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04235217831306316</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.05193952016948165</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04235244684152718</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.05193952016948165</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04235244684152718</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.05374348024708052</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0423527153699912</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.05374348024708052</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.0423527153699912</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0555373669244577</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04235298389845521</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.0555373669244577</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04235298389845521</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.05732150677073668</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04235325242691923</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.05732150677073668</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04235325242691923</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.05909579387155482</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04235352095538324</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.05909579387155482</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04235352095538324</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.06086012231270434</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04235378948384726</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.06086012231270434</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04235378948384726</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.06261438617982344</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04235405801231128</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.06261438617982344</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04235405801231128</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.06435847955870354</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0423543265407753</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.06435847955870354</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.0423543265407753</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.06609229653498373</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04235459506923931</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.06609229653498373</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04235459506923931</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.06781573119441707</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04235486359770333</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.06781573119441707</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04235486359770333</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.06952867762275573</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04235513212616735</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.06952867762275573</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04235513212616735</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.07123102990564019</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04235540065463136</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.07123102990564019</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04235540065463136</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.07292268212885956</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04235566918309538</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.07292268212885956</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04235566918309538</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.07460352837805524</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0423559377115594</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.07460352837805524</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.0423559377115594</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.07627346273901538</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04235620624002342</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.07627346273901538</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04235620624002342</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.07793237929738227</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04235647476848743</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.07793237929738227</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04235647476848743</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.07958017213894318</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04235674329695145</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.07958017213894318</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04235674329695145</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.08121673534934144</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04235701182541547</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.08121673534934144</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04235701182541547</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.08284196301436324</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04235728035387949</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.08284196301436324</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04235728035387949</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.08445574921965281</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0423575488823435</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.08445574921965281</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.0423575488823435</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.08605798805099545</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04235781741080752</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.08605798805099545</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04235781741080752</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.08764857359403648</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04235808593927154</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.08764857359403648</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04235808593927154</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.08922739993456012</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04235835446773556</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.08922739993456012</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04235835446773556</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.09079436115821261</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04235862299619957</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.09079436115821261</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04235862299619957</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.09234935135077717</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04235889152466359</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.09234935135077717</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04235889152466359</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.09389226459790125</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04235916005312761</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.09389226459790125</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04235916005312761</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.09389226459790125</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04234600215839077</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.09389226459790125</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04234600215839077</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.09590915517985778</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0423588979368628</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.09590915517985778</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.0423588979368628</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.09791104624099807</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04237179371533482</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.09791104624099807</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04237179371533482</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.09989767142869642</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04238468949380686</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.09989767142869642</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04238468949380686</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.101868764390327</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04239758527227889</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.101868764390327</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04239758527227889</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.103824058773265</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04241048105075092</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.103824058773265</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04241048105075092</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.1057632882248828</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04242337682922295</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.1057632882248828</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04242337682922295</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.1076861863925555</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04243627260769498</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.1076861863925555</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04243627260769498</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.1095924869236573</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04244916838616702</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.1095924869236573</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04244916838616702</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1114819234655626</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04246206416463905</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.1114819234655626</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04246206416463905</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.1133542296656455</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04247495994311107</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.1133542296656455</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04247495994311107</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1152091391712802</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04248785572158311</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1152091391712802</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04248785572158311</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1170463856298409</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04250075150005514</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1170463856298409</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04250075150005514</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1188657026887019</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04251364727852717</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1188657026887019</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04251364727852717</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1206668239952375</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0425265430569992</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1206668239952375</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.0425265430569992</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1224494831968226</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04253943883547123</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1224494831968226</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04253943883547123</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1242134139408298</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04255233461394327</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1242134139408298</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04255233461394327</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1259583498746342</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0425652303924153</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1259583498746342</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.0425652303924153</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.12768402464561</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04257812617088733</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.12768402464561</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04257812617088733</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1293901719011315</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04259102194935935</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1293901719011315</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04259102194935935</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1310765252885729</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04260391772783139</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1310765252885729</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04260391772783139</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1327428184553082</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04261681350630342</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1327428184553082</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04261681350630342</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.134388785048712</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04262970928477545</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.134388785048712</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04262970928477545</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1360141587161583</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04264260506324748</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1360141587161583</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04264260506324748</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1376186731050212</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04265550084171951</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1376186731050212</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04265550084171951</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1392031494692313</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04266839662019155</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1392031494692313</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04266839662019155</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1407738470954925</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04268129239866358</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1407738470954925</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04268129239866358</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1423315872377351</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04269418817713561</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1423315872377351</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04269418817713561</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1438761035433333</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04270708395560764</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1438761035433333</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04270708395560764</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1454071296596615</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04271997973407967</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1454071296596615</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04271997973407967</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1469243992340936</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0427328755125517</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1469243992340936</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.0427328755125517</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1484276459140041</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04274577129102373</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1484276459140041</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04274577129102373</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1499166033467672</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04275866706949576</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1499166033467672</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04275866706949576</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.151391005179757</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04277156284796779</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.151391005179757</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04277156284796779</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1528505850603478</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04278445862643982</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1528505850603478</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04278445862643982</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1542950766359145</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04279735440491186</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1542950766359145</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04279735440491186</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1557242135538298</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04281025018338389</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1557242135538298</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04281025018338389</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1571377294614689</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04282314596185592</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1571377294614689</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04282314596185592</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1585353580062059</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04283604174032795</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1585353580062059</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04283604174032795</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.159916832835415</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04284893751879998</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.159916832835415</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04284893751879998</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1612818875964705</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04286183329727201</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1612818875964705</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04286183329727201</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1626302559367465</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04287472907574404</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1626302559367465</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04287472907574404</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1639616715036172</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04288762485421607</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1639616715036172</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04288762485421607</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1652758679444571</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0429005206326881</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1652758679444571</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.0429005206326881</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1665725789066401</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04291341641116014</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1665725789066401</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04291341641116014</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1678515380375413</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04292631218963217</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1678515380375413</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04292631218963217</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1691124789845335</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0429392079681042</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1691124789845335</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.0429392079681042</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1703551353949916</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04295210374657623</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1703551353949916</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04295210374657623</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1715792409162899</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04296499952504827</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1715792409162899</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04296499952504827</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1727845291958025</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04297789530352029</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1727845291958025</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04297789530352029</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1727845291958025</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04297789530352029</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1727845291958025</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04297789530352029</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1698410493387868</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04615832165217939</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1698410493387868</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04615832165217939</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1672437350346271</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04933874800083848</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1672437350346271</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.04933874800083848</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1649719954874167</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05251917434949758</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1649719954874167</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05251917434949758</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1630052399012492</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05569960069815668</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1630052399012492</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05569960069815668</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.161322877480218</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05888002704681577</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.161322877480218</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05888002704681577</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1599043174284166</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06206045339547486</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1599043174284166</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06206045339547486</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1587289689499385</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06524087974413396</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1587289689499385</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06524087974413396</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1577762412488772</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06842130609279307</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1577762412488772</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06842130609279307</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1570255435293262</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07160173244145215</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1570255435293262</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07160173244145215</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1564562849953789</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07478215879011126</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1564562849953789</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07478215879011126</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1560478748511288</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07796258513877036</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1560478748511288</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07796258513877036</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1557797223006695</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08114301148742946</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1557797223006695</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08114301148742946</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1556312365480944</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08432343783608853</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1556312365480944</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08432343783608853</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1555818267974969</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08750386418474763</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1555818267974969</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08750386418474763</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.156091147903965</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09068429053340672</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.156091147903965</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09068429053340672</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1576155626966202</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09386471688206582</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1576155626966202</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09386471688206582</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.1598273798817336</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09704514323072493</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.1598273798817336</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09704514323072493</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1623941771635883</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.100225569579384</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1623941771635883</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.100225569579384</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1649835322464669</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1034059959280431</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1649835322464669</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1034059959280431</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1672630228346524</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1065864222767022</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1672630228346524</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1065864222767022</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1689002266324277</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1097668486253613</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1689002266324277</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1097668486253613</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1695627213440756</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1129472749740204</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1695627213440756</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1129472749740204</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1692675834181671</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1161277013226795</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1692675834181671</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1161277013226795</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1683517800170276</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1193081276713386</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1683517800170276</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1193081276713386</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.166873077943602</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1224885540199977</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.166873077943602</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1224885540199977</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.16488847491017</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1256689803686568</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.16488847491017</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1256689803686568</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1624549686290112</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1288494067173159</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1624549686290112</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1288494067173159</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1596295568124055</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.132029833065975</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1596295568124055</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.132029833065975</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1564692371726324</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1352102594146341</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1564692371726324</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1352102594146341</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1530310074219717</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1383906857632932</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1530310074219717</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1383906857632932</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1493718652727031</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1415711121119523</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1493718652727031</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1415711121119523</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1455488084371062</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1447515384606114</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1455488084371062</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1447515384606114</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1416188346274608</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1479319648092705</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1416188346274608</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1479319648092705</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1372918732002784</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1372918732002784</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1298396551896612</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1542928175065887</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1298396551896612</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1542928175065887</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1215166081088643</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1574732438552477</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1215166081088643</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1574732438552477</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1158934781230091</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1606536702039069</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1158934781230091</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1606536702039069</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.115200720550906</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1638340965525659</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.115200720550906</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1638340965525659</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1152425850054957</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.167014522901225</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1152425850054957</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.167014522901225</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1153266971470491</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1701949492498841</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1153266971470491</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1701949492498841</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1154559358435244</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1733753755985432</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.1154559358435244</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1733753755985432</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1156331799628802</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1765558019472023</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.1156331799628802</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1765558019472023</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1158613083730748</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1797362282958614</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.1158613083730748</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1797362282958614</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1161431999420667</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1829166546445205</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.1161431999420667</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1829166546445205</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1164817335378142</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1860970809931796</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1164817335378142</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1860970809931796</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1171059646827129</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1892775073418387</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1171059646827129</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1892775073418387</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1200546471211172</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1924579336904978</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.1200546471211172</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1924579336904978</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1241921362859716</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1956383600391569</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1241921362859716</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1956383600391569</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.127494329072013</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.198818786387816</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.127494329072013</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.198818786387816</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1298613264460611</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2019992127364751</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1298613264460611</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2019992127364751</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1319960308133534</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2051796390851342</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1319960308133534</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2051796390851342</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1339629945298289</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2083600654337933</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1339629945298289</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2083600654337933</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1358267699514261</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2115404917824524</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1358267699514261</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2115404917824524</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1376519094340839</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2147209181311115</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.1376519094340839</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2147209181311115</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1394786206285875</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2179013444797706</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1394786206285875</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2179013444797706</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1411074240326721</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2210817708284297</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1411074240326721</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2210817708284297</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1426517727795803</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2242621971770888</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1426517727795803</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2242621971770888</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1443305935937595</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2274426235257479</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1443305935937595</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2274426235257479</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1463628131996569</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2306230498744069</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1463628131996569</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2306230498744069</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1491070257732489</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.233803476223066</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1491070257732489</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.233803476223066</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1527260478139713</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2369839025717251</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1527260478139713</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2369839025717251</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1571013437817804</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2401643289203842</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.1571013437817804</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2401643289203842</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.162114105090339</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2433447552690433</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.162114105090339</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2433447552690433</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1676455231533099</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2465251816177024</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1676455231533099</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2465251816177024</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1735767893843562</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2497056079663615</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1735767893843562</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2497056079663615</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1797890951971406</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2528860343150206</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1797890951971406</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2528860343150206</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1861636320053262</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2560664606636797</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1861636320053262</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2560664606636797</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1925815912225755</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2592468870123388</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1925815912225755</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2592468870123388</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1989241642625518</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2624273133609979</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1989241642625518</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2624273133609979</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.2050725425389176</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.265607739709657</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.2050725425389176</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.265607739709657</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.210907917465336</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2687881660583161</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.210907917465336</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2687881660583161</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.2163114804554699</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2719685924069752</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.2163114804554699</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2719685924069752</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.221164422922982</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2751490187556343</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.221164422922982</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2751490187556343</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.2253479362815352</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2783294451042934</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.2253479362815352</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2783294451042934</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.2287432119447926</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2815098714529524</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.2287432119447926</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2815098714529524</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.2312314413264169</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2846902978016115</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.2312314413264169</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2846902978016115</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.2330460389277367</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2878707241502707</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.2330460389277367</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2878707241502707</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.2327993315892377</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2910511504989297</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.2327993315892377</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2910511504989297</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.2268124582409559</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2942315768475888</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.2268124582409559</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2942315768475888</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.2144637990464881</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2974120031962479</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.2144637990464881</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2974120031962479</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1979459067879907</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.300592429544907</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1979459067879907</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.300592429544907</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1794513342476203</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3037728558935661</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1794513342476203</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3037728558935661</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1611726342075333</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3069532822422252</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1611726342075333</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3069532822422252</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.1453023594498862</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3101337085908843</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.1453023594498862</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3101337085908843</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1340330627568356</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3133141349395434</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1340330627568356</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3133141349395434</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1279637557475103</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3164945612882025</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1279637557475103</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3164945612882025</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1225790729810784</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3196749876368616</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1225790729810784</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3196749876368616</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1174411029627904</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3228554139855207</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.1174411029627904</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3228554139855207</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1125818750209245</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3260358403341798</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.1125818750209245</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3260358403341798</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1080334184837585</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3292162666828389</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.1080334184837585</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3292162666828389</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1038277626795704</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.332396693031498</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.1038277626795704</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.332396693031498</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.09999693693663801</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3355771193801571</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.09999693693663801</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3355771193801571</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.09657297058323934</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3387575457288162</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.09657297058323934</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3387575457288162</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.09358789294765234</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3419379720774753</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.09358789294765234</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3419379720774753</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.09107373335815487</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3451183984261344</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.09107373335815487</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3451183984261344</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.08906252114302489</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3482988247747935</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.08906252114302489</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3482988247747935</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.08758628563054037</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3514792511234526</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.08758628563054037</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3514792511234526</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.08667705614897915</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3546596774721116</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.08667705614897915</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3546596774721116</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.08636686202661921</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3578401038207707</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.08636686202661921</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3578401038207707</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
